--- a/data/hotels_by_city/Dallas/Dallas_shard_652.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_652.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1250 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r562808953-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>223937</t>
+  </si>
+  <si>
+    <t>562808953</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>The people who work here are excellent!  Especially Maylene, Brenda and Joyce and Sandra,❤️</t>
+  </si>
+  <si>
+    <t>I have been staying here for 6 mos. on a job and they have made my stay here like being home with family.  Sandra is always ready to help you in whatever you need, Maylene makes the evening mixers just like hanging out with family.  Brenda and Joyce make sure you have a good breakfast and enough left over for snacks.  The front desk people are wonderful, Amy always has your packages and mail before you even ask.  As my time to check out draws close, I can’t help but be sad.  I will miss my Residence Inn family.  They have made my time away from home easier to bear.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Anita V, Front Office Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>I have been staying here for 6 mos. on a job and they have made my stay here like being home with family.  Sandra is always ready to help you in whatever you need, Maylene makes the evening mixers just like hanging out with family.  Brenda and Joyce make sure you have a good breakfast and enough left over for snacks.  The front desk people are wonderful, Amy always has your packages and mail before you even ask.  As my time to check out draws close, I can’t help but be sad.  I will miss my Residence Inn family.  They have made my time away from home easier to bear.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r515593626-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>515593626</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Renovation</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel once before because it's proximity to the airport. The rooms were clean and a little dated.  The hotel is being renovated and the rooms are great.  We had no idea the hotel was under construction AT ALL.  There was no sound of machinery.  No workman roaming around. Quiet and peaceful, can't wait to see the finished product. One hint- To get to any shopping or restaurants, you will need have a car or Uber it. There are really only offices in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel once before because it's proximity to the airport. The rooms were clean and a little dated.  The hotel is being renovated and the rooms are great.  We had no idea the hotel was under construction AT ALL.  There was no sound of machinery.  No workman roaming around. Quiet and peaceful, can't wait to see the finished product. One hint- To get to any shopping or restaurants, you will need have a car or Uber it. There are really only offices in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r513813386-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>513813386</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Extreme Business Trip</t>
+  </si>
+  <si>
+    <t>This is a good hotel nearer to Highway and to many work places like Ayaya.The breakfast is good, staff is very co-operative. Restaurants are within 2 miles.Laundry is in second floor. Elevator is very slowMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This is a good hotel nearer to Highway and to many work places like Ayaya.The breakfast is good, staff is very co-operative. Restaurants are within 2 miles.Laundry is in second floor. Elevator is very slowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r483041108-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>483041108</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Super staff, super comfortable stay</t>
+  </si>
+  <si>
+    <t>Traveled to Dallas this past weekend for family event. Booked 2 rooms (324 &amp; 326) for 1 night (5/5) thru Expedia.com. Chose this hotel b cause of proximity to the function, and the price ($74.00/night per room). 
+We checked in Friday night about 7:15 pm with an extremely professional and welcoming young man. I believe his name was Steven. Could not have been more courteous. Asked us what floor we preferred, explains the hotel renovation and told us the 3rd/top floor had been completed. We chose it.
+The location was very easy to find, and in the middle of a very large business area so it was wonderfully quiet since I am sure this location gets Monday they Friday business travelers.
+Hotel was very clean.
+Rooms were spotless, great layout. Little nook for the bed, big "l" shaped couch that pulled out for a sleep sofa. 
+Fridge, microwave, clean and nice supply of dish ware. 
+Lovely scented soaps and lotion.
+Great desk space.
+Lots of plugs in the room for your gadgets.
+Great breakfast included. Nice selection of cereals, oatmeal and more toppings than I have ever seen, bagels, toasts, juices, coffees, eggs, sausage, waffles, yogurts. And the gentlemen in the breakfast Area making sure all items were full was great. We thanked him for getting us napkins and he replied with a genuine smile "it was my pleasure". 
+Bottom line, I would highly recommend this hotel, And hope the...Traveled to Dallas this past weekend for family event. Booked 2 rooms (324 &amp; 326) for 1 night (5/5) thru Expedia.com. Chose this hotel b cause of proximity to the function, and the price ($74.00/night per room). We checked in Friday night about 7:15 pm with an extremely professional and welcoming young man. I believe his name was Steven. Could not have been more courteous. Asked us what floor we preferred, explains the hotel renovation and told us the 3rd/top floor had been completed. We chose it.The location was very easy to find, and in the middle of a very large business area so it was wonderfully quiet since I am sure this location gets Monday they Friday business travelers.Hotel was very clean.Rooms were spotless, great layout. Little nook for the bed, big "l" shaped couch that pulled out for a sleep sofa. Fridge, microwave, clean and nice supply of dish ware. Lovely scented soaps and lotion.Great desk space.Lots of plugs in the room for your gadgets.Great breakfast included. Nice selection of cereals, oatmeal and more toppings than I have ever seen, bagels, toasts, juices, coffees, eggs, sausage, waffles, yogurts. And the gentlemen in the breakfast Area making sure all items were full was great. We thanked him for getting us napkins and he replied with a genuine smile "it was my pleasure". Bottom line, I would highly recommend this hotel, And hope the staff sees this review and knows how great it was. It truly was genuine customer service with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Traveled to Dallas this past weekend for family event. Booked 2 rooms (324 &amp; 326) for 1 night (5/5) thru Expedia.com. Chose this hotel b cause of proximity to the function, and the price ($74.00/night per room). 
+We checked in Friday night about 7:15 pm with an extremely professional and welcoming young man. I believe his name was Steven. Could not have been more courteous. Asked us what floor we preferred, explains the hotel renovation and told us the 3rd/top floor had been completed. We chose it.
+The location was very easy to find, and in the middle of a very large business area so it was wonderfully quiet since I am sure this location gets Monday they Friday business travelers.
+Hotel was very clean.
+Rooms were spotless, great layout. Little nook for the bed, big "l" shaped couch that pulled out for a sleep sofa. 
+Fridge, microwave, clean and nice supply of dish ware. 
+Lovely scented soaps and lotion.
+Great desk space.
+Lots of plugs in the room for your gadgets.
+Great breakfast included. Nice selection of cereals, oatmeal and more toppings than I have ever seen, bagels, toasts, juices, coffees, eggs, sausage, waffles, yogurts. And the gentlemen in the breakfast Area making sure all items were full was great. We thanked him for getting us napkins and he replied with a genuine smile "it was my pleasure". 
+Bottom line, I would highly recommend this hotel, And hope the...Traveled to Dallas this past weekend for family event. Booked 2 rooms (324 &amp; 326) for 1 night (5/5) thru Expedia.com. Chose this hotel b cause of proximity to the function, and the price ($74.00/night per room). We checked in Friday night about 7:15 pm with an extremely professional and welcoming young man. I believe his name was Steven. Could not have been more courteous. Asked us what floor we preferred, explains the hotel renovation and told us the 3rd/top floor had been completed. We chose it.The location was very easy to find, and in the middle of a very large business area so it was wonderfully quiet since I am sure this location gets Monday they Friday business travelers.Hotel was very clean.Rooms were spotless, great layout. Little nook for the bed, big "l" shaped couch that pulled out for a sleep sofa. Fridge, microwave, clean and nice supply of dish ware. Lovely scented soaps and lotion.Great desk space.Lots of plugs in the room for your gadgets.Great breakfast included. Nice selection of cereals, oatmeal and more toppings than I have ever seen, bagels, toasts, juices, coffees, eggs, sausage, waffles, yogurts. And the gentlemen in the breakfast Area making sure all items were full was great. We thanked him for getting us napkins and he replied with a genuine smile "it was my pleasure". Bottom line, I would highly recommend this hotel, And hope the staff sees this review and knows how great it was. It truly was genuine customer service with a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r470026911-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>470026911</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Amazing rooms, great price and good breakfast. Convenient for airport stay. My office staff was accosted at night in parking lot and disappointed that the hotel had no outdoor security cameras. The hotels in a nice safe neighborhood but some outdoor cameras would be useful. Property is being remodeled and they are doing a great job.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Amazing rooms, great price and good breakfast. Convenient for airport stay. My office staff was accosted at night in parking lot and disappointed that the hotel had no outdoor security cameras. The hotels in a nice safe neighborhood but some outdoor cameras would be useful. Property is being remodeled and they are doing a great job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r465948994-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>465948994</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>The Worst Hotel Ever!</t>
+  </si>
+  <si>
+    <t>Room was so horrible I didn't stay, from seeing roach motel bait, white powder in the corners, (I assume roach powder) old dusty couch, loud noise in the hallway, at least 3 drug deals ( so it seemed)in the parking lot, it was by far the worst hotel I seen in my lifeMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Room was so horrible I didn't stay, from seeing roach motel bait, white powder in the corners, (I assume roach powder) old dusty couch, loud noise in the hallway, at least 3 drug deals ( so it seemed)in the parking lot, it was by far the worst hotel I seen in my lifeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r387586289-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>387586289</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>I am glad they are remodeling the interior, it really needs a facelift. Otherwise central location, friendly staff and very clean. I hope you don't kind the early flights because it is right on the takeoff runway but after 10 and after 7am only.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>I am glad they are remodeling the interior, it really needs a facelift. Otherwise central location, friendly staff and very clean. I hope you don't kind the early flights because it is right on the takeoff runway but after 10 and after 7am only.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r367305452-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>367305452</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay!!</t>
+  </si>
+  <si>
+    <t>Check in was fast because there is nobody LOL. Seem very few occupants when I check in. Property condition good, room ok but a little outdated .  Location is around corporate office and about 15 mins to airport car rental per my Gps . Not many restaurant around , just a Denny 2 mins away. There rest appx 5-10mins away 2 exit down.Breakfast same as other residence inn.Overall it's good. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Check in was fast because there is nobody LOL. Seem very few occupants when I check in. Property condition good, room ok but a little outdated .  Location is around corporate office and about 15 mins to airport car rental per my Gps . Not many restaurant around , just a Denny 2 mins away. There rest appx 5-10mins away 2 exit down.Breakfast same as other residence inn.Overall it's good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r363144731-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>363144731</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Renovation time!!</t>
+  </si>
+  <si>
+    <t>GREAT STAFF! Feel as if I'm coming home as everyone recognizes me and greets me by name. Locationi is perfect for my needs, close to the airport and training facilities.Currently undergoing renovation, which will make this property perfect in a month or so. Beds are too soft for my liking (I ended up with an extremely sore back) but have been told the mattresses shall be changed next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>GREAT STAFF! Feel as if I'm coming home as everyone recognizes me and greets me by name. Locationi is perfect for my needs, close to the airport and training facilities.Currently undergoing renovation, which will make this property perfect in a month or so. Beds are too soft for my liking (I ended up with an extremely sore back) but have been told the mattresses shall be changed next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r343140734-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>343140734</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Stranded in Dallas</t>
+  </si>
+  <si>
+    <t>With the storm on the was coast we were stranded in Dallas. As a Marriot loyal customer we went to the residence inn to fit our family of six. Though not the nicest residence inn I have stayed at, as always it met and exceeded our expectations. Clean, well appointed, great service and breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>With the storm on the was coast we were stranded in Dallas. As a Marriot loyal customer we went to the residence inn to fit our family of six. Though not the nicest residence inn I have stayed at, as always it met and exceeded our expectations. Clean, well appointed, great service and breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r336469451-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>336469451</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Quiet and comfortable</t>
+  </si>
+  <si>
+    <t>I spent two nights at this hotel and it was quiet and comfortable. The planes did fly over but it was disturbing unless you have the window open. It was fun to watch them fly in until the monsoon rain hit...they shut down the airport. The staff was very nice and the breakfast good. I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded January 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2016</t>
+  </si>
+  <si>
+    <t>I spent two nights at this hotel and it was quiet and comfortable. The planes did fly over but it was disturbing unless you have the window open. It was fun to watch them fly in until the monsoon rain hit...they shut down the airport. The staff was very nice and the breakfast good. I would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r327491082-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>327491082</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>A great and comfortable stay at this hotel.  We were in the area visiting from out of town.  The staff was very welcoming.  The hotel shuttle was an awesome added addition to our stay.  We were able to get a ride on the shuttle to the area restaurants.  It was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>A great and comfortable stay at this hotel.  We were in the area visiting from out of town.  The staff was very welcoming.  The hotel shuttle was an awesome added addition to our stay.  We were able to get a ride on the shuttle to the area restaurants.  It was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r316429461-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>316429461</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Same as last visit.  Sub par</t>
+  </si>
+  <si>
+    <t>Last visit cold shower.  Management didn't seem to care.  One month later the put back in the same room.  Hair dryer broken prior to a work day.  A lot has changed with Residence Inn Hotels.  No hot evening meal.  Cheese and Hummad with stale Chios and crackers.  Carrots and celary with ranch dressing.  For $200 per night I should have at least a salad and hot meal.  Let's see hat Tuesday meal brings.  We know Wednesday evening is desert night.  How about a hot meal?  Use to be Monday through Thursday hot meals.  Now they are more interested in making money than happy guest!  This is a rip off.  Go else where.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Last visit cold shower.  Management didn't seem to care.  One month later the put back in the same room.  Hair dryer broken prior to a work day.  A lot has changed with Residence Inn Hotels.  No hot evening meal.  Cheese and Hummad with stale Chios and crackers.  Carrots and celary with ranch dressing.  For $200 per night I should have at least a salad and hot meal.  Let's see hat Tuesday meal brings.  We know Wednesday evening is desert night.  How about a hot meal?  Use to be Monday through Thursday hot meals.  Now they are more interested in making money than happy guest!  This is a rip off.  Go else where.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r315551501-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>315551501</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Decent for business trip</t>
+  </si>
+  <si>
+    <t>Large clean rooms, older style residence inn.  This is located in an office park, no stores or restaurants within easy walking distance.  Breakfast was OK, a little below the typical residence inn standard (no granola for yogurt when i was there and the daily selection of meats/potatoes did not vary much).  Stayed for 4 days on business.  Would stay again if in this area of Irving.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Large clean rooms, older style residence inn.  This is located in an office park, no stores or restaurants within easy walking distance.  Breakfast was OK, a little below the typical residence inn standard (no granola for yogurt when i was there and the daily selection of meats/potatoes did not vary much).  Stayed for 4 days on business.  Would stay again if in this area of Irving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r314441324-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>314441324</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Noisy and mildew smelling rooms</t>
+  </si>
+  <si>
+    <t>Stayed here to catch early flight at DFW- won't do it again. Yes, other reviewers are correct, you can hear the planes, and quite clearly, even on the ground floor rooms. We stayed on ground floor and the slab is obviously cracked as the floor slopes terribly in multiple places making it weird to walk around the room. Also, the room has a dank smell to it. We didn't notice it when we first walked into the room, and it's possible it came from the A/C, but we both woke up with sore throats and feeling crummy and after going to get breakfast in the lobby, when we returned to our room we noticed the very pronounced moldy/mildewy smell to the room. I should note the breakfast offered was crap- we didn't eat anything and waited to eat at the airport. Everything was runny- runny eggs, runny oatmeal- yuck. The gym was a joke- so tiny. It's so small the elliptical is right in front of the glass door so everyone walking by can watch your behind as you run and with just one person (me) working out it got incredibly hot and uncomfortable in there. They have the elliptical, 2 treadmills and a weight bench with some dumbbells. Although the front desk staff was very nice, we won't be back to this hotel. I can't afford any sick days and I was sick with a cough for days after...Stayed here to catch early flight at DFW- won't do it again. Yes, other reviewers are correct, you can hear the planes, and quite clearly, even on the ground floor rooms. We stayed on ground floor and the slab is obviously cracked as the floor slopes terribly in multiple places making it weird to walk around the room. Also, the room has a dank smell to it. We didn't notice it when we first walked into the room, and it's possible it came from the A/C, but we both woke up with sore throats and feeling crummy and after going to get breakfast in the lobby, when we returned to our room we noticed the very pronounced moldy/mildewy smell to the room. I should note the breakfast offered was crap- we didn't eat anything and waited to eat at the airport. Everything was runny- runny eggs, runny oatmeal- yuck. The gym was a joke- so tiny. It's so small the elliptical is right in front of the glass door so everyone walking by can watch your behind as you run and with just one person (me) working out it got incredibly hot and uncomfortable in there. They have the elliptical, 2 treadmills and a weight bench with some dumbbells. Although the front desk staff was very nice, we won't be back to this hotel. I can't afford any sick days and I was sick with a cough for days after leaving this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here to catch early flight at DFW- won't do it again. Yes, other reviewers are correct, you can hear the planes, and quite clearly, even on the ground floor rooms. We stayed on ground floor and the slab is obviously cracked as the floor slopes terribly in multiple places making it weird to walk around the room. Also, the room has a dank smell to it. We didn't notice it when we first walked into the room, and it's possible it came from the A/C, but we both woke up with sore throats and feeling crummy and after going to get breakfast in the lobby, when we returned to our room we noticed the very pronounced moldy/mildewy smell to the room. I should note the breakfast offered was crap- we didn't eat anything and waited to eat at the airport. Everything was runny- runny eggs, runny oatmeal- yuck. The gym was a joke- so tiny. It's so small the elliptical is right in front of the glass door so everyone walking by can watch your behind as you run and with just one person (me) working out it got incredibly hot and uncomfortable in there. They have the elliptical, 2 treadmills and a weight bench with some dumbbells. Although the front desk staff was very nice, we won't be back to this hotel. I can't afford any sick days and I was sick with a cough for days after...Stayed here to catch early flight at DFW- won't do it again. Yes, other reviewers are correct, you can hear the planes, and quite clearly, even on the ground floor rooms. We stayed on ground floor and the slab is obviously cracked as the floor slopes terribly in multiple places making it weird to walk around the room. Also, the room has a dank smell to it. We didn't notice it when we first walked into the room, and it's possible it came from the A/C, but we both woke up with sore throats and feeling crummy and after going to get breakfast in the lobby, when we returned to our room we noticed the very pronounced moldy/mildewy smell to the room. I should note the breakfast offered was crap- we didn't eat anything and waited to eat at the airport. Everything was runny- runny eggs, runny oatmeal- yuck. The gym was a joke- so tiny. It's so small the elliptical is right in front of the glass door so everyone walking by can watch your behind as you run and with just one person (me) working out it got incredibly hot and uncomfortable in there. They have the elliptical, 2 treadmills and a weight bench with some dumbbells. Although the front desk staff was very nice, we won't be back to this hotel. I can't afford any sick days and I was sick with a cough for days after leaving this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r283260949-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>283260949</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>great stop over on road trip</t>
+  </si>
+  <si>
+    <t>We stayed here for one night with a late arrival flight. Room was ready and comfy and held until we arrived quite late. Comfy, safe feeling and friendly staff who was very helpful. It is very close to the airport, while you hear the planes, not unusually loud either which was a pleasant surprise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for one night with a late arrival flight. Room was ready and comfy and held until we arrived quite late. Comfy, safe feeling and friendly staff who was very helpful. It is very close to the airport, while you hear the planes, not unusually loud either which was a pleasant surprise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r282495342-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>282495342</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Very convenient to DFW</t>
+  </si>
+  <si>
+    <t>Stayed here for an overnight business trip.Hotel Shuttle from airport was quick, driver was professional and polite. The Desk Clerk checked me in quickly, provided me with take out menus and recommendations. I used the pool and found it clean and enjoyed some sunbathing. My room was clean and relatively quiet considering the planes flying overhhead. I slept comfortably and in the morning enjoyed the abundant and fresh breakfast buffett.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for an overnight business trip.Hotel Shuttle from airport was quick, driver was professional and polite. The Desk Clerk checked me in quickly, provided me with take out menus and recommendations. I used the pool and found it clean and enjoyed some sunbathing. My room was clean and relatively quiet considering the planes flying overhhead. I slept comfortably and in the morning enjoyed the abundant and fresh breakfast buffett.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r282471526-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>282471526</t>
+  </si>
+  <si>
+    <t>Fun time</t>
+  </si>
+  <si>
+    <t>This being a Father's Day trip for me, was happy that everything worked out so well. I called from the airport, they quickly had a shuttle come get me. At the desk I was about to ask for room on the upper floor but he quickly stated he had me room for me.He read my Marriott profile, I was all smiles. My family showed up, impressed with the large room, clean bathroom, TV and etc. I was a proud Father.....thanksMoreShow less</t>
+  </si>
+  <si>
+    <t>This being a Father's Day trip for me, was happy that everything worked out so well. I called from the airport, they quickly had a shuttle come get me. At the desk I was about to ask for room on the upper floor but he quickly stated he had me room for me.He read my Marriott profile, I was all smiles. My family showed up, impressed with the large room, clean bathroom, TV and etc. I was a proud Father.....thanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r258680332-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>258680332</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Spacious rooms in a dated hotel</t>
+  </si>
+  <si>
+    <t>Like most Residence Inns, the rooms are large with kitchens.  The room was clean.  The common areas, on the other hand, are not well maintained.  The stairwells and hallways are dirty.  You can see debris on the edges of the carpets.  The hotel interior is dated, older style Marriott interiors and they have not kept up.  The workout room was a joke.  Tiny with very limited equipment.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Like most Residence Inns, the rooms are large with kitchens.  The room was clean.  The common areas, on the other hand, are not well maintained.  The stairwells and hallways are dirty.  You can see debris on the edges of the carpets.  The hotel interior is dated, older style Marriott interiors and they have not kept up.  The workout room was a joke.  Tiny with very limited equipment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r255609809-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>255609809</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Employee stay</t>
+  </si>
+  <si>
+    <t>Far from the airport and restaurants but it was enjoyable to sleep in a comfortable bed. I would recommend staying here due to complementary breakfast, outside pool and lunch/dinner room service. The night auditor was very helpful and polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Far from the airport and restaurants but it was enjoyable to sleep in a comfortable bed. I would recommend staying here due to complementary breakfast, outside pool and lunch/dinner room service. The night auditor was very helpful and polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r243183215-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>243183215</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyable Stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went to watch the Cowboys play for thanksgiving and spent the weekend there after that. Room was large and comfortable, the staff was very friendly and accommodating. The complementary breakfast was good and hot and the lady in charge of the breakfast bar was very friendly, she and my wife enjoyed talking every morning; she was a treat.  We look forward to going back to Dallas and staying at this property. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r228026014-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>228026014</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Beware of staff allowing people into your room without your authorization</t>
+  </si>
+  <si>
+    <t>All in all I got what I expected.. reasonable price.. clean room.. peace and quiet. Went to Dallas to catch the Cowboy home opener. Checked in Friday solo. Had two relatives join me later. I was the only "authorized" guest (credit card/id) per the hotel. Unfortunately, this location allowed an individual without any identification to obtain an access card to my suite. Imagine the horror I felt while out having dinner after the game when I discovered that this individual was within my room. After advising the front desk as to what happened I was assured that the Manager and General Manager would handle the situation the next morning. To my surprise the next morning the Manager wanted to place the blame of the individual being in my room. Really? A complete stranger came to the front desk and requested a key to room 319 and your staff willingly gave the person a key without confirming with me if I approved or without any identification. Wow.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>All in all I got what I expected.. reasonable price.. clean room.. peace and quiet. Went to Dallas to catch the Cowboy home opener. Checked in Friday solo. Had two relatives join me later. I was the only "authorized" guest (credit card/id) per the hotel. Unfortunately, this location allowed an individual without any identification to obtain an access card to my suite. Imagine the horror I felt while out having dinner after the game when I discovered that this individual was within my room. After advising the front desk as to what happened I was assured that the Manager and General Manager would handle the situation the next morning. To my surprise the next morning the Manager wanted to place the blame of the individual being in my room. Really? A complete stranger came to the front desk and requested a key to room 319 and your staff willingly gave the person a key without confirming with me if I approved or without any identification. Wow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r226997696-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>226997696</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Stayed in 2BDRM SUITE, but older generation</t>
+  </si>
+  <si>
+    <t>General manager was working a double or triple...but was very accomodating when ran out of pillows etc. He was a good guy, in poor staffing situation,  and handled it well. Breakfast wasnt avail when we left at 5am, so that was a bummer. Front auditor took us to airport, and refused tips. She was sweet, and we will stay again in future!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2014</t>
+  </si>
+  <si>
+    <t>General manager was working a double or triple...but was very accomodating when ran out of pillows etc. He was a good guy, in poor staffing situation,  and handled it well. Breakfast wasnt avail when we left at 5am, so that was a bummer. Front auditor took us to airport, and refused tips. She was sweet, and we will stay again in future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r223439864-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>223439864</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Good customer service</t>
+  </si>
+  <si>
+    <t>I called when I landed at the airport and they sent a shuttle immediately over to pick me up and stayed on the phone to help navigate me to the right spot to be picked up. I was welcomed with a complimentary social hour (that they hold every weekday evening) which I enjoyed in the outside seating that is available. Breakfast had a fair selection of items, nothing extraordinary but I liked having eggs, some fresh fruit and yogurt available although would not recommend the tasteless oatmeal. The furniture in the room was in good condition. When I came back the next day they greeted me by name, asking if they could help me find anything. They were very personable. Fitness center is tiny but functional with an elliptical, stationary bike, two treadmills, bench and some limited free weights. Airplanes do go over head which can be fairly loud when sitting by the grill or pool area but it has a very short commute to DFW airport which made flying in for a work conference much easier. Negatives: The wifi connection was really weak and my phone would not connect to it. The printer wasn't working in the business center.  There is not much in the surrounding area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I called when I landed at the airport and they sent a shuttle immediately over to pick me up and stayed on the phone to help navigate me to the right spot to be picked up. I was welcomed with a complimentary social hour (that they hold every weekday evening) which I enjoyed in the outside seating that is available. Breakfast had a fair selection of items, nothing extraordinary but I liked having eggs, some fresh fruit and yogurt available although would not recommend the tasteless oatmeal. The furniture in the room was in good condition. When I came back the next day they greeted me by name, asking if they could help me find anything. They were very personable. Fitness center is tiny but functional with an elliptical, stationary bike, two treadmills, bench and some limited free weights. Airplanes do go over head which can be fairly loud when sitting by the grill or pool area but it has a very short commute to DFW airport which made flying in for a work conference much easier. Negatives: The wifi connection was really weak and my phone would not connect to it. The printer wasn't working in the business center.  There is not much in the surrounding area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r205348154-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>205348154</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Typical airport location hotel</t>
+  </si>
+  <si>
+    <t>We stay at Residence Inns frequently as we like the two bedroom suite option.  This is the first Residence Inn that I have stayed at that was extremely outdated.  Nothing in the kitchen or bath area has been updated.  The lobby presented a new and updated appearance, but when you got to the rooms they were old and worn.  Breakfast did not offer many options.  It was satisfactory for a stay close to the airport, but I would have been extremely disappointed if I had booked this hotel for a long term stay.  I paid the same price for this room as I did at another Residence Inn on this same trip which was tastefully updated and maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>We stay at Residence Inns frequently as we like the two bedroom suite option.  This is the first Residence Inn that I have stayed at that was extremely outdated.  Nothing in the kitchen or bath area has been updated.  The lobby presented a new and updated appearance, but when you got to the rooms they were old and worn.  Breakfast did not offer many options.  It was satisfactory for a stay close to the airport, but I would have been extremely disappointed if I had booked this hotel for a long term stay.  I paid the same price for this room as I did at another Residence Inn on this same trip which was tastefully updated and maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r203167099-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>203167099</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Exactly as promised</t>
+  </si>
+  <si>
+    <t>Exactly as promised for an airport stop-over hotel.  The casual, comfortable, clean expectation was met by Residence Inn/Marriott standards.  After claiming luggage, we phoned the hotel for a courtesy shuttle.  We were told were to wait and the new suv, shuttle was there in the promised time.  On arrival at the hotel, a quick and trouble free check-in.  Reservation as confirmed.  After dropping luggage in our room, we returned to the lobby for a free self/service dinner of grilled chicken breast, vegetables and salad served with free soft drinks, coffee/tea, beer and wine.  After a 15+ hour flight from Sydney, a warm meal and a comfortable bed was all we needed. Our flight the next morning was at 7AM, shuttle begins at 6AM.  When we inquired the evening on arrival about an earlier shuttle we were told it would be arranged. Actually, the breakfast cook, Mae, drove us to the airport. The breakfast was much more than continental with hot eggs, hash browns, sausage, etc...  All anyone needs to get going in the morning was offered, no charge. The room was as expected,we only stayed a night but could have moved in.  Full kitchen, living room opening to bedroom and bath.  After checking emails on free wifi, we turned the large flat screen television to watch in bed.Value for the money, you can't go wrong with Residence Inn and Marriott.  Enjoy this hotel and thank me later.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Exactly as promised for an airport stop-over hotel.  The casual, comfortable, clean expectation was met by Residence Inn/Marriott standards.  After claiming luggage, we phoned the hotel for a courtesy shuttle.  We were told were to wait and the new suv, shuttle was there in the promised time.  On arrival at the hotel, a quick and trouble free check-in.  Reservation as confirmed.  After dropping luggage in our room, we returned to the lobby for a free self/service dinner of grilled chicken breast, vegetables and salad served with free soft drinks, coffee/tea, beer and wine.  After a 15+ hour flight from Sydney, a warm meal and a comfortable bed was all we needed. Our flight the next morning was at 7AM, shuttle begins at 6AM.  When we inquired the evening on arrival about an earlier shuttle we were told it would be arranged. Actually, the breakfast cook, Mae, drove us to the airport. The breakfast was much more than continental with hot eggs, hash browns, sausage, etc...  All anyone needs to get going in the morning was offered, no charge. The room was as expected,we only stayed a night but could have moved in.  Full kitchen, living room opening to bedroom and bath.  After checking emails on free wifi, we turned the large flat screen television to watch in bed.Value for the money, you can't go wrong with Residence Inn and Marriott.  Enjoy this hotel and thank me later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r200032045-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>200032045</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>Overnight stay for Travel Agent and Family</t>
+  </si>
+  <si>
+    <t>My family overnighted in Dallas/Fort Worth en route to Cancun, staying at Residence Inn Dallas DFW Airport North/Irving on March 26, 2014.  I chose this hotel based on its courtesy airport shuttle, breakfast, and price.  
+Upon our late arrival at DFW airport, I placed a call to the hotel to request the courtesy shuttle.  The front desk person, "Guy", was very pleasant over the phone and was able to provide clear instructions on where to meet the shuttle driver, "Johnny".  Johnny arrived in a very nice and comfortable GMC suv approximately 15 minutes later.  We enjoyed our trip to the hotel.  After we checked in and delivered our baggage to the room, Johnny drove us to a nearby restaurant for dinner.  He also returned us safely to the hotel for a comfortable night's stay.
+The room was clean and well-furnished with a queen bed in the bedroom, decent-sized bathroom with vanity and sink located outside the toilet/shower area, two flat screen TVs, kitchenette, work desk, sofa bed and chairs.  
+Breakfast was provided in a large room near the lobby and offered all you expect--waffles, fruit, yogurt, breads, etc.  
+We scheduled a return shuttle and another efficient and friendly driver (whose name I cannot recall) delivered us safely back to the airport the next morning.
+Overall, a very nice place to stay.  It did appear that some remodeling is going on in various areas of the hotel, but nothing that interfered...My family overnighted in Dallas/Fort Worth en route to Cancun, staying at Residence Inn Dallas DFW Airport North/Irving on March 26, 2014.  I chose this hotel based on its courtesy airport shuttle, breakfast, and price.  Upon our late arrival at DFW airport, I placed a call to the hotel to request the courtesy shuttle.  The front desk person, "Guy", was very pleasant over the phone and was able to provide clear instructions on where to meet the shuttle driver, "Johnny".  Johnny arrived in a very nice and comfortable GMC suv approximately 15 minutes later.  We enjoyed our trip to the hotel.  After we checked in and delivered our baggage to the room, Johnny drove us to a nearby restaurant for dinner.  He also returned us safely to the hotel for a comfortable night's stay.The room was clean and well-furnished with a queen bed in the bedroom, decent-sized bathroom with vanity and sink located outside the toilet/shower area, two flat screen TVs, kitchenette, work desk, sofa bed and chairs.  Breakfast was provided in a large room near the lobby and offered all you expect--waffles, fruit, yogurt, breads, etc.  We scheduled a return shuttle and another efficient and friendly driver (whose name I cannot recall) delivered us safely back to the airport the next morning.Overall, a very nice place to stay.  It did appear that some remodeling is going on in various areas of the hotel, but nothing that interfered with our stay.  We did hear planes flying overhead despite being on the first floor.  The hotel is located in an industrial park, so most restaurants and shopping are a distance away.  The hotel courtesy shuttle, when not in use picking up/dropping off guests at the airport, is available to take you anywhere within five miles of the hotel, thus offering a wide variety of places to eat, shop, etc.I would not hesitate to recommend this hotel to anyone seeking a nicely furnished and comfortable room in an airport hotel near DFW.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My family overnighted in Dallas/Fort Worth en route to Cancun, staying at Residence Inn Dallas DFW Airport North/Irving on March 26, 2014.  I chose this hotel based on its courtesy airport shuttle, breakfast, and price.  
+Upon our late arrival at DFW airport, I placed a call to the hotel to request the courtesy shuttle.  The front desk person, "Guy", was very pleasant over the phone and was able to provide clear instructions on where to meet the shuttle driver, "Johnny".  Johnny arrived in a very nice and comfortable GMC suv approximately 15 minutes later.  We enjoyed our trip to the hotel.  After we checked in and delivered our baggage to the room, Johnny drove us to a nearby restaurant for dinner.  He also returned us safely to the hotel for a comfortable night's stay.
+The room was clean and well-furnished with a queen bed in the bedroom, decent-sized bathroom with vanity and sink located outside the toilet/shower area, two flat screen TVs, kitchenette, work desk, sofa bed and chairs.  
+Breakfast was provided in a large room near the lobby and offered all you expect--waffles, fruit, yogurt, breads, etc.  
+We scheduled a return shuttle and another efficient and friendly driver (whose name I cannot recall) delivered us safely back to the airport the next morning.
+Overall, a very nice place to stay.  It did appear that some remodeling is going on in various areas of the hotel, but nothing that interfered...My family overnighted in Dallas/Fort Worth en route to Cancun, staying at Residence Inn Dallas DFW Airport North/Irving on March 26, 2014.  I chose this hotel based on its courtesy airport shuttle, breakfast, and price.  Upon our late arrival at DFW airport, I placed a call to the hotel to request the courtesy shuttle.  The front desk person, "Guy", was very pleasant over the phone and was able to provide clear instructions on where to meet the shuttle driver, "Johnny".  Johnny arrived in a very nice and comfortable GMC suv approximately 15 minutes later.  We enjoyed our trip to the hotel.  After we checked in and delivered our baggage to the room, Johnny drove us to a nearby restaurant for dinner.  He also returned us safely to the hotel for a comfortable night's stay.The room was clean and well-furnished with a queen bed in the bedroom, decent-sized bathroom with vanity and sink located outside the toilet/shower area, two flat screen TVs, kitchenette, work desk, sofa bed and chairs.  Breakfast was provided in a large room near the lobby and offered all you expect--waffles, fruit, yogurt, breads, etc.  We scheduled a return shuttle and another efficient and friendly driver (whose name I cannot recall) delivered us safely back to the airport the next morning.Overall, a very nice place to stay.  It did appear that some remodeling is going on in various areas of the hotel, but nothing that interfered with our stay.  We did hear planes flying overhead despite being on the first floor.  The hotel is located in an industrial park, so most restaurants and shopping are a distance away.  The hotel courtesy shuttle, when not in use picking up/dropping off guests at the airport, is available to take you anywhere within five miles of the hotel, thus offering a wide variety of places to eat, shop, etc.I would not hesitate to recommend this hotel to anyone seeking a nicely furnished and comfortable room in an airport hotel near DFW.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191583352-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>191583352</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>Treated Like a Friend</t>
+  </si>
+  <si>
+    <t>I travel a lot for business and most hotel staffs are generally nice and polite.  However at Residence Inn Dallas DFW Airport North/Irving they treated me like a close family friend.  I felt welcome and never wanted for anything.Residence in is usually my 2nd or 3rd choice when I travel for business except when I go to Dallas.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191582339-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>191582339</t>
+  </si>
+  <si>
+    <t>Great staff and great stay</t>
+  </si>
+  <si>
+    <t>This Residence Inn and the staff simply make getting in, staying, and getting out as easy as possible.  They are exceptionally hospitable and helpful in every way.  The rooms are what you expect from a residence with plenty of space, the kitchenette, and well taken care of by the cleaning crews.  The hotel provides a variety of week night dinners that are well done and hit the spot after a long day.  They have a flexible shuttle service until 11pm that makes getting to and from the airport convenient.   Across the board, the staff seems to work together as a team and the guests are always treated with great care.  I've had a few extended stays at this property and would highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>This Residence Inn and the staff simply make getting in, staying, and getting out as easy as possible.  They are exceptionally hospitable and helpful in every way.  The rooms are what you expect from a residence with plenty of space, the kitchenette, and well taken care of by the cleaning crews.  The hotel provides a variety of week night dinners that are well done and hit the spot after a long day.  They have a flexible shuttle service until 11pm that makes getting to and from the airport convenient.   Across the board, the staff seems to work together as a team and the guests are always treated with great care.  I've had a few extended stays at this property and would highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191239589-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>191239589</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Good location for my business</t>
+  </si>
+  <si>
+    <t>This is a very convenient location to stay for my business which is within walking distance to the hotel.  Very isolated location though unless taking the hotel van which I believe is offered to local malls etc.  The staff has always been helpful beyond expectation, stayed here many times.  Sadly the property is getting a bit dated and last visit my bed just wasn't helping me get a good nights rest.  They have been working on the exterior and maybe they'll continue on the inside soon.  Breakfast is descent, evening reception becoming a bit minimal but a great, safe location if you have business in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>This is a very convenient location to stay for my business which is within walking distance to the hotel.  Very isolated location though unless taking the hotel van which I believe is offered to local malls etc.  The staff has always been helpful beyond expectation, stayed here many times.  Sadly the property is getting a bit dated and last visit my bed just wasn't helping me get a good nights rest.  They have been working on the exterior and maybe they'll continue on the inside soon.  Breakfast is descent, evening reception becoming a bit minimal but a great, safe location if you have business in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r185244358-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>185244358</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Close to airport and great rooms and staff</t>
+  </si>
+  <si>
+    <t>If you want to stay close to the airport and like a larger room with a kitchen,  this is a great hotel to stay at.  The rooms are very good size and have a full kitchen.  Staff was very friendly.  Very good breakfast included each day.   My family and friends stayed here for long weekend and it was a great location to get on the freeway to get to our site seeing spots.  It is close to the airport so during the day you do have planes flying over that are loud, but we were only around during the day for an hour or so, so this wasn't a big deal.  Didn't hear any planes at night so sleeping wasn't affected.  Beds are very comfortable.  Only slight minus is it is located in an office park and there are no restaurants near by.  (the good thing about being in an office park is on the weekend there is no traffic!)  But we found good restaurants about 10 minutes away so that's why it's only a slight minus.  I've been to other Residence Inns and have had good experiences at all of them..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>If you want to stay close to the airport and like a larger room with a kitchen,  this is a great hotel to stay at.  The rooms are very good size and have a full kitchen.  Staff was very friendly.  Very good breakfast included each day.   My family and friends stayed here for long weekend and it was a great location to get on the freeway to get to our site seeing spots.  It is close to the airport so during the day you do have planes flying over that are loud, but we were only around during the day for an hour or so, so this wasn't a big deal.  Didn't hear any planes at night so sleeping wasn't affected.  Beds are very comfortable.  Only slight minus is it is located in an office park and there are no restaurants near by.  (the good thing about being in an office park is on the weekend there is no traffic!)  But we found good restaurants about 10 minutes away so that's why it's only a slight minus.  I've been to other Residence Inns and have had good experiences at all of them..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r185193458-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>185193458</t>
+  </si>
+  <si>
+    <t>No real positives on this place.</t>
+  </si>
+  <si>
+    <t>This is a sub-par Residnce Inn.  Been to many over the years of travel/moving and this is way below Marriott's standard.  First, the kitchen is not well eqipped...two forks?!  4 small juice glasses, no can opener, or toaster!?  No kitchen towels or clothes. Min. amount of cleaning daily...and it's only me in this place, so it's not that dirty.  No vacumn in 5 days now....outside the entry door - garagbe still sits full sice bieng here 5 days.  Breakfast is nothing special...watery powered eggs, and rubber ham slices! MMMM.Price is okay...if you wanted something corrected you have to tell the front desk.  Things that should be corrected by staff or seen daily by staff to be done, like cleaning the hall floors and carpets, trash, main entry door windows cleaned...this shold be done automatically, not to brought to the attention of the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a sub-par Residnce Inn.  Been to many over the years of travel/moving and this is way below Marriott's standard.  First, the kitchen is not well eqipped...two forks?!  4 small juice glasses, no can opener, or toaster!?  No kitchen towels or clothes. Min. amount of cleaning daily...and it's only me in this place, so it's not that dirty.  No vacumn in 5 days now....outside the entry door - garagbe still sits full sice bieng here 5 days.  Breakfast is nothing special...watery powered eggs, and rubber ham slices! MMMM.Price is okay...if you wanted something corrected you have to tell the front desk.  Things that should be corrected by staff or seen daily by staff to be done, like cleaning the hall floors and carpets, trash, main entry door windows cleaned...this shold be done automatically, not to brought to the attention of the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r174244420-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>174244420</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Smells bad, first and last time</t>
+  </si>
+  <si>
+    <t>The hotel is located very close to the DFW airport - about 15 minutes. You can hear airplanes all day long through closed windows.There is nothing to do around the hotel.I was very surprised that after check in nobody means to escort me to the room and i have to walk an hour to find my room ( in another building).The pool is for kids and there is no shade at all.The furniture in the room was from my grandma's youth so i was shocked. Although the bed was very good.The breakfast is very poor, no fruits, no vegetables, every day all the same.No complaints about house keeping service- all was very good (in fact they ask to save resources  so i didn't ask to change towels or sheets during 1 week).When leaving i still was expecting mail to arrive so i asked at reception to decline all incoming packages - which wasn't done and they accepted my mail. This shows their "good" service and attention to the guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>The hotel is located very close to the DFW airport - about 15 minutes. You can hear airplanes all day long through closed windows.There is nothing to do around the hotel.I was very surprised that after check in nobody means to escort me to the room and i have to walk an hour to find my room ( in another building).The pool is for kids and there is no shade at all.The furniture in the room was from my grandma's youth so i was shocked. Although the bed was very good.The breakfast is very poor, no fruits, no vegetables, every day all the same.No complaints about house keeping service- all was very good (in fact they ask to save resources  so i didn't ask to change towels or sheets during 1 week).When leaving i still was expecting mail to arrive so i asked at reception to decline all incoming packages - which wasn't done and they accepted my mail. This shows their "good" service and attention to the guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r160326317-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>160326317</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Nice place but maybe not a good value.</t>
+  </si>
+  <si>
+    <t>I spent 4 nights here because of it's proximity to my work assignment at DFW.  Breakfast and  dinner buffets are included but were not to my liking.  The first breakfast I had was the last and I passed through each dinner buffet - on the way out to dinner.
+All the employees I encountered - shuttle drivers, desk managers, porters, cooks and landscapers - were very friendly and helpful.  
+This is a fairly new 3 story building, very clean and well maintained inside and out.   In the courtyard there's a barbecue grill, outdoor sofa and chairs, pool, and basketball half-court.  All these facilities look brand new.  The telltale evidence is in the carpeting, especially on the stairs.  That is where the hotel is showing it's age.  But this is not a deal-breaker.
+The suite kitchens are compact and well-designed with 2 burner gas stove, microwave oven, coffee machine, refrigerator and dish washer.  There are enough dishes, glasses and utensils for one person's daily needs.  There was plenty of kitchen cabinet space in case I had done grocery shopping.  Actually the hotel will handle the grocery shopping for you. If you give them a list in the morning the items will be ready later that day and the amount added to your bill.
+The suite is one large room - not separate bedroom/living area.  Enter with the kitchen on the left and looking straight into the living room.  2 large windows...I spent 4 nights here because of it's proximity to my work assignment at DFW.  Breakfast and  dinner buffets are included but were not to my liking.  The first breakfast I had was the last and I passed through each dinner buffet - on the way out to dinner.All the employees I encountered - shuttle drivers, desk managers, porters, cooks and landscapers - were very friendly and helpful.  This is a fairly new 3 story building, very clean and well maintained inside and out.   In the courtyard there's a barbecue grill, outdoor sofa and chairs, pool, and basketball half-court.  All these facilities look brand new.  The telltale evidence is in the carpeting, especially on the stairs.  That is where the hotel is showing it's age.  But this is not a deal-breaker.The suite kitchens are compact and well-designed with 2 burner gas stove, microwave oven, coffee machine, refrigerator and dish washer.  There are enough dishes, glasses and utensils for one person's daily needs.  There was plenty of kitchen cabinet space in case I had done grocery shopping.  Actually the hotel will handle the grocery shopping for you. If you give them a list in the morning the items will be ready later that day and the amount added to your bill.The suite is one large room - not separate bedroom/living area.  Enter with the kitchen on the left and looking straight into the living room.  2 large windows light up the room.  There's a desk with data-ports for quick business or work set up on the right. 2 steps into the suite you can see the queen size bed on the left.  The closet and bathroom are out-of-view until you reach the bed. The toilet/shower room is a straight line from the bed, past the bathroom sink and full closet.The bed was very comfortable and 4 small pillows make it easy to get the sleeping, reading or TV-watching angle that is most comfortable.The bathroom was perfectly clean and kept well stocked.  The shower was excellent, extra large, great shower head and a curtain that was actually large enough.I was disappointed that the "Market Room" where the hotel normally sells sundries and travel-sizes, was not well stocked.  I was also not happy to have to drive over a mile to the nearest off-property restaurant. Overall a nice place to stay as long as good food is a requirement.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I spent 4 nights here because of it's proximity to my work assignment at DFW.  Breakfast and  dinner buffets are included but were not to my liking.  The first breakfast I had was the last and I passed through each dinner buffet - on the way out to dinner.
+All the employees I encountered - shuttle drivers, desk managers, porters, cooks and landscapers - were very friendly and helpful.  
+This is a fairly new 3 story building, very clean and well maintained inside and out.   In the courtyard there's a barbecue grill, outdoor sofa and chairs, pool, and basketball half-court.  All these facilities look brand new.  The telltale evidence is in the carpeting, especially on the stairs.  That is where the hotel is showing it's age.  But this is not a deal-breaker.
+The suite kitchens are compact and well-designed with 2 burner gas stove, microwave oven, coffee machine, refrigerator and dish washer.  There are enough dishes, glasses and utensils for one person's daily needs.  There was plenty of kitchen cabinet space in case I had done grocery shopping.  Actually the hotel will handle the grocery shopping for you. If you give them a list in the morning the items will be ready later that day and the amount added to your bill.
+The suite is one large room - not separate bedroom/living area.  Enter with the kitchen on the left and looking straight into the living room.  2 large windows...I spent 4 nights here because of it's proximity to my work assignment at DFW.  Breakfast and  dinner buffets are included but were not to my liking.  The first breakfast I had was the last and I passed through each dinner buffet - on the way out to dinner.All the employees I encountered - shuttle drivers, desk managers, porters, cooks and landscapers - were very friendly and helpful.  This is a fairly new 3 story building, very clean and well maintained inside and out.   In the courtyard there's a barbecue grill, outdoor sofa and chairs, pool, and basketball half-court.  All these facilities look brand new.  The telltale evidence is in the carpeting, especially on the stairs.  That is where the hotel is showing it's age.  But this is not a deal-breaker.The suite kitchens are compact and well-designed with 2 burner gas stove, microwave oven, coffee machine, refrigerator and dish washer.  There are enough dishes, glasses and utensils for one person's daily needs.  There was plenty of kitchen cabinet space in case I had done grocery shopping.  Actually the hotel will handle the grocery shopping for you. If you give them a list in the morning the items will be ready later that day and the amount added to your bill.The suite is one large room - not separate bedroom/living area.  Enter with the kitchen on the left and looking straight into the living room.  2 large windows light up the room.  There's a desk with data-ports for quick business or work set up on the right. 2 steps into the suite you can see the queen size bed on the left.  The closet and bathroom are out-of-view until you reach the bed. The toilet/shower room is a straight line from the bed, past the bathroom sink and full closet.The bed was very comfortable and 4 small pillows make it easy to get the sleeping, reading or TV-watching angle that is most comfortable.The bathroom was perfectly clean and kept well stocked.  The shower was excellent, extra large, great shower head and a curtain that was actually large enough.I was disappointed that the "Market Room" where the hotel normally sells sundries and travel-sizes, was not well stocked.  I was also not happy to have to drive over a mile to the nearest off-property restaurant. Overall a nice place to stay as long as good food is a requirement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r160000382-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>160000382</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Nice stay, Nice staff</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel 2 days for a family wedding.  Rooms were very nice, plenty of space and comfortable.The staff was very helpful in sorting out rooms with multiple reservations for many family members.Breakfast was great with a lot of good selections for everyone.Very conveniently located near the airport and multiple major roads, freeways, shopping and restaurants.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r157621834-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>157621834</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>It Meets Basic Needs - But Could Do With Improvement</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one week, and my review is based on my daily experiences. 
+This hotel is very close to the airport with quick and easy access to I-635, TX 114, and TX 161. It is also very quick and convenient to get to the Los Colinas business district. The hotel really is centrally located in the DFW metroplex.
+STAFF MEMBERS:
+Out of several interactions with staff members, only one worker was pleasant and professional. He literally went out of his way to be of service. The rest of the staff left a lot to be desired as they were very curt, and at times, blatantly rude.
+HOTEL ROOM:
+My room (a 1 bedroom suite with living room and kitchen) was nice enough and met all basic needs. The bedroom and bathroom were clean, however, the living room had not been cleaned very well (there was a little bit of trash and a soda lid on the floor) and neither had the kitchen. The table had a food residue on it (which easily came off when I used a clean rag), and several of the dishes had not been cleaned. Also, the few dishes in the cupboard were VERY basic and quite old. Several of the cooking utensils were beginning to rust.
+On a positive note, the bed was quite comfortable with plenty of pillows, and the shower had good pressure and plenty of hot water. The...I stayed at this hotel for one week, and my review is based on my daily experiences. This hotel is very close to the airport with quick and easy access to I-635, TX 114, and TX 161. It is also very quick and convenient to get to the Los Colinas business district. The hotel really is centrally located in the DFW metroplex.STAFF MEMBERS:Out of several interactions with staff members, only one worker was pleasant and professional. He literally went out of his way to be of service. The rest of the staff left a lot to be desired as they were very curt, and at times, blatantly rude.HOTEL ROOM:My room (a 1 bedroom suite with living room and kitchen) was nice enough and met all basic needs. The bedroom and bathroom were clean, however, the living room had not been cleaned very well (there was a little bit of trash and a soda lid on the floor) and neither had the kitchen. The table had a food residue on it (which easily came off when I used a clean rag), and several of the dishes had not been cleaned. Also, the few dishes in the cupboard were VERY basic and quite old. Several of the cooking utensils were beginning to rust.On a positive note, the bed was quite comfortable with plenty of pillows, and the shower had good pressure and plenty of hot water. The room had lots of available lighting and did not feel dark or dingy. I did not hear very much noise from any other guests. In fact, I would say that my entire stay was very quiet and calm.IMPORTANT NOTE:This hotel is DIRECTLY under the flight path for planes landing on 17L at DFW (or taking off on 35R). The landing/takeoff noise starts around 6:45am and doesn't really taper off until about 11pm. When the larger planes are landing, you can quite literally feel the noise.SUMMARY:If you are looking for a basic hotel that offers a small kitchenette and is conveniently located close to the DFW airport, this would be a good choice. With some staff attitude adjustments, better cleaning, and better kitchenware, I would have happily given it a higher rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one week, and my review is based on my daily experiences. 
+This hotel is very close to the airport with quick and easy access to I-635, TX 114, and TX 161. It is also very quick and convenient to get to the Los Colinas business district. The hotel really is centrally located in the DFW metroplex.
+STAFF MEMBERS:
+Out of several interactions with staff members, only one worker was pleasant and professional. He literally went out of his way to be of service. The rest of the staff left a lot to be desired as they were very curt, and at times, blatantly rude.
+HOTEL ROOM:
+My room (a 1 bedroom suite with living room and kitchen) was nice enough and met all basic needs. The bedroom and bathroom were clean, however, the living room had not been cleaned very well (there was a little bit of trash and a soda lid on the floor) and neither had the kitchen. The table had a food residue on it (which easily came off when I used a clean rag), and several of the dishes had not been cleaned. Also, the few dishes in the cupboard were VERY basic and quite old. Several of the cooking utensils were beginning to rust.
+On a positive note, the bed was quite comfortable with plenty of pillows, and the shower had good pressure and plenty of hot water. The...I stayed at this hotel for one week, and my review is based on my daily experiences. This hotel is very close to the airport with quick and easy access to I-635, TX 114, and TX 161. It is also very quick and convenient to get to the Los Colinas business district. The hotel really is centrally located in the DFW metroplex.STAFF MEMBERS:Out of several interactions with staff members, only one worker was pleasant and professional. He literally went out of his way to be of service. The rest of the staff left a lot to be desired as they were very curt, and at times, blatantly rude.HOTEL ROOM:My room (a 1 bedroom suite with living room and kitchen) was nice enough and met all basic needs. The bedroom and bathroom were clean, however, the living room had not been cleaned very well (there was a little bit of trash and a soda lid on the floor) and neither had the kitchen. The table had a food residue on it (which easily came off when I used a clean rag), and several of the dishes had not been cleaned. Also, the few dishes in the cupboard were VERY basic and quite old. Several of the cooking utensils were beginning to rust.On a positive note, the bed was quite comfortable with plenty of pillows, and the shower had good pressure and plenty of hot water. The room had lots of available lighting and did not feel dark or dingy. I did not hear very much noise from any other guests. In fact, I would say that my entire stay was very quiet and calm.IMPORTANT NOTE:This hotel is DIRECTLY under the flight path for planes landing on 17L at DFW (or taking off on 35R). The landing/takeoff noise starts around 6:45am and doesn't really taper off until about 11pm. When the larger planes are landing, you can quite literally feel the noise.SUMMARY:If you are looking for a basic hotel that offers a small kitchenette and is conveniently located close to the DFW airport, this would be a good choice. With some staff attitude adjustments, better cleaning, and better kitchenware, I would have happily given it a higher rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r154120333-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>154120333</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Please call Hotel Impossible's Anthony Melchiorri to help with renovation</t>
+  </si>
+  <si>
+    <t>My colleagues &amp; I have often stayed here on business trip but I think it's time this place gets a major facelift.  Room carpeting needs to be changed, bathroom sink drains very slowly as well as the bathtub.  I came back to my room one afternoon during lunch and found my room half made with all my pillows scattered on the floor. It just makes me wonder how often the pillows get changed if they're being thrown on the floor by housekeeping.  Breakfast menu also needs to be updated. Same boring breakfast menu is served everyday. Please add some strawberry jelly also and bacon.  I consider this entity a sub par status for a Marriott brand hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My colleagues &amp; I have often stayed here on business trip but I think it's time this place gets a major facelift.  Room carpeting needs to be changed, bathroom sink drains very slowly as well as the bathtub.  I came back to my room one afternoon during lunch and found my room half made with all my pillows scattered on the floor. It just makes me wonder how often the pillows get changed if they're being thrown on the floor by housekeeping.  Breakfast menu also needs to be updated. Same boring breakfast menu is served everyday. Please add some strawberry jelly also and bacon.  I consider this entity a sub par status for a Marriott brand hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r153565952-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>153565952</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Good enough for a night</t>
+  </si>
+  <si>
+    <t>Stayed here at the last minute after crappy American Airlines couldn't find a pilot for our flight.  Aa offered vouchers to a motel 6 and a Ramada but knowing what I know about this area, there's no way I'm spending even a free night there. So I took a shot with paying for the residence inn.  All we needed was a comfy bed and a shower.  Shower was a little run down, but other than that, we were too tired to notice anything to not like.  It was comfortable and that's all I needed.  Alas, in and around DFW airport is not the best neighborhoods but it sufficed...kudos though too the night girl at the front desk and the shuttle to the airport.  Nice parts to the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Stayed here at the last minute after crappy American Airlines couldn't find a pilot for our flight.  Aa offered vouchers to a motel 6 and a Ramada but knowing what I know about this area, there's no way I'm spending even a free night there. So I took a shot with paying for the residence inn.  All we needed was a comfy bed and a shower.  Shower was a little run down, but other than that, we were too tired to notice anything to not like.  It was comfortable and that's all I needed.  Alas, in and around DFW airport is not the best neighborhoods but it sufficed...kudos though too the night girl at the front desk and the shuttle to the airport.  Nice parts to the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r153071063-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>153071063</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Old Inn</t>
+  </si>
+  <si>
+    <t>This place is in serious need of renovation. Torn carpets, tack strips showing, old caulking three or four layers deep, same breakfast menu daily. Staff is OK but often rooms are not cleaned promptly for those already staying.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r143026358-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>143026358</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>Remarkably Poor ServiceI</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 weeks, during that stay they brought the bill a whole day early and then when I got back to the room at 5 PM, they said they had to 6 PM to clean it. That was in the middel of the week after being there for several weeks. I was told that was their policy. Internet is OK but not fast, business services are adequate but not good (very old computers). Breakfast is the same every day (there is a Denny's just down the street. Because of their policy regarding the late cleaning of the rooms I could not recommend this hotel for business purposes.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 weeks, during that stay they brought the bill a whole day early and then when I got back to the room at 5 PM, they said they had to 6 PM to clean it. That was in the middel of the week after being there for several weeks. I was told that was their policy. Internet is OK but not fast, business services are adequate but not good (very old computers). Breakfast is the same every day (there is a Denny's just down the street. Because of their policy regarding the late cleaning of the rooms I could not recommend this hotel for business purposes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r136129176-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>136129176</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>Close to Dallas airport</t>
+  </si>
+  <si>
+    <t>We were promised a two bedroom suite would be ready for us at 3 pm. We got there close to 3:45 and the room was not ready. We were told it would be ready in 15 minutes. We waited 15 minutes in the room and it was more like 25 minutes before anyone got there to even start cleaning. The room was a mess, the pillows were thrown on the floor. Trash was everywhere. I complained to the front desk and was given 2 nice rooms instead. We are Marriott Rewards members, stay at Marriott's all over the country and I do not expect to have cleanliness and tardiness an issue.  Again, check the room for problems before you settle in.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We were promised a two bedroom suite would be ready for us at 3 pm. We got there close to 3:45 and the room was not ready. We were told it would be ready in 15 minutes. We waited 15 minutes in the room and it was more like 25 minutes before anyone got there to even start cleaning. The room was a mess, the pillows were thrown on the floor. Trash was everywhere. I complained to the front desk and was given 2 nice rooms instead. We are Marriott Rewards members, stay at Marriott's all over the country and I do not expect to have cleanliness and tardiness an issue.  Again, check the room for problems before you settle in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r134061015-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>134061015</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>awesome time in this hotel, the service was super, and the shuttle service perfect to pick me up and take me to the hotel as long as it was before 11 PM, it tok me to a convention in a closer hotel, I was very pleased, I didin't need to rent a car, I defenetly will use this hotel again.the breakfast was good. very close tot he airport.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r128404590-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>128404590</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>A Great Place to Stay When in Dallas</t>
+  </si>
+  <si>
+    <t>It was not really a special occassion, just my 55th birthday.  I was warmly greeted and the room was spotless and the staff was attentive.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r127362393-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>127362393</t>
+  </si>
+  <si>
+    <t>04/06/2012</t>
+  </si>
+  <si>
+    <t>Amazing customer service!</t>
+  </si>
+  <si>
+    <t>I got stranded in Dallas a few days ago when the tornadoes shut down the airport.  Every single staff member at this hotel was INCREDIBLY kind, positive, and on top of their game.  I was picked up within 20 minutes, even with all the chaos.  I got a great room, that was very comfortable, clean, and relieving after such a crazy day.  They let me check out late without an issue when my flight was cancelled (again) the next day and even went to the store to buy some contact solution for me.  They have a "social" every night with a little food, wine &amp; beer, which was a welcome respite.  I really can't say enough nice things about the service I received here!MoreShow less</t>
+  </si>
+  <si>
+    <t>I got stranded in Dallas a few days ago when the tornadoes shut down the airport.  Every single staff member at this hotel was INCREDIBLY kind, positive, and on top of their game.  I was picked up within 20 minutes, even with all the chaos.  I got a great room, that was very comfortable, clean, and relieving after such a crazy day.  They let me check out late without an issue when my flight was cancelled (again) the next day and even went to the store to buy some contact solution for me.  They have a "social" every night with a little food, wine &amp; beer, which was a welcome respite.  I really can't say enough nice things about the service I received here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r123327238-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>123327238</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>Comfortable.......But,</t>
+  </si>
+  <si>
+    <t>The internet was unfortunately very slow in the suite. Both wired and wireless. Shower is hard to stand in as sides slope and its uncomfortable under foot. But water pressure is quite good. You can hear planes overhead. Breakfast was subpar &amp; boring for a Residence Inn. Other than these issues, its a nice place to stay, bed was perfect! A/C &amp; heat were both great. Felt safe traveling solo. Easy access to airport, Irving business' and retail spots as well as Grapevine Mills.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r120595304-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>120595304</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights over a weekend.   The staff was very pleaseant, the breakfast had good variety, and the rooms were clean.  The location was OK.   There are many corporate businesses near the hotel so I am assuming that they cater more to the business crowd than the weekend clientele as there were virtually no restaurants or shopping nearby.  Overall we were very pleased with the hotel..</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r119996875-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>119996875</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Not quite what I need as a traveler...</t>
+  </si>
+  <si>
+    <t>We had a two bedroom suite with two baths that met our needs.  But this property needs some tender loving care.  The rooms and decor need updating and a complete scrub down. Noise level from airport not too much of an issue. We suggest elsewhere until property upgraded.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r117906787-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>117906787</t>
+  </si>
+  <si>
+    <t>09/10/2011</t>
+  </si>
+  <si>
+    <t>IHRCO - don't grow too big you lose sight of the details</t>
+  </si>
+  <si>
+    <t>This was a brief, overnight stay as I arrived from the airport after 11:00 pm and was out of the hotel by 7:30am.  The room itself was your typical, well appointed suite that you would expect from Residence Inn.  The front desk staff was very friendly and helpful at check-in and check-out.  Breakfast had the usual fare with scrambled eggs, sausage, cereals, muffins, coffee, juices, etc.There are several opportunities for improvement at the hotel.  As another reviewer noted, the internet is slow, even when I was accessing it at midnight.  The room was missing an iron and ironing board, which was quickly delivered upon request.  The iron leaked water and I needed to push the reset button repeatedly in order to keep it on.  The shower in the morning was tepid at best which I thought was unusual to run low of hot water at 6:30 in the morning.  What really needs to be addressed is the very rancid odor in the hallways.  The good news is that it is not noticeable in the suite.I asked at check-out about who managed the hotel and the front desk noted it was Interstate Hotels.  I know that Interstate is one of the largest hotel management companies and going through a significant period of growth.  As such, I would hope they do not stretch their staff too thin that they lose sight of the small details.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>This was a brief, overnight stay as I arrived from the airport after 11:00 pm and was out of the hotel by 7:30am.  The room itself was your typical, well appointed suite that you would expect from Residence Inn.  The front desk staff was very friendly and helpful at check-in and check-out.  Breakfast had the usual fare with scrambled eggs, sausage, cereals, muffins, coffee, juices, etc.There are several opportunities for improvement at the hotel.  As another reviewer noted, the internet is slow, even when I was accessing it at midnight.  The room was missing an iron and ironing board, which was quickly delivered upon request.  The iron leaked water and I needed to push the reset button repeatedly in order to keep it on.  The shower in the morning was tepid at best which I thought was unusual to run low of hot water at 6:30 in the morning.  What really needs to be addressed is the very rancid odor in the hallways.  The good news is that it is not noticeable in the suite.I asked at check-out about who managed the hotel and the front desk noted it was Interstate Hotels.  I know that Interstate is one of the largest hotel management companies and going through a significant period of growth.  As such, I would hope they do not stretch their staff too thin that they lose sight of the small details.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r116307104-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>116307104</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>Exceeded my Expectations</t>
+  </si>
+  <si>
+    <t>From the Free Shuttle ride from the Airport I felt like I was at home.  The staff was warm, friendly and very helpful.  Thank you for providing warm when the tempature reached 105+ everyday.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r84839704-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>84839704</t>
+  </si>
+  <si>
+    <t>10/25/2010</t>
+  </si>
+  <si>
+    <t>The worst Marriott property ever</t>
+  </si>
+  <si>
+    <t>Over the years, Marriott has won my confidence with consistent, high quality properties. This hotel should not be part of the Marriott family. The hotel was understaffed across the board from check-in to housekeeping. The first room they checked me into had ripped carpet and smelled of cat urine. After waiting thru 5 other patrons with the one lady checking people in, they checked me into another room that was devoid of towels. The quality of the room was more like a Clarion or Motel 6...at double the price. So decided to go to the pool to unwind and was met with unleashed dogs running around and a broken hot tub. Called someone to fix the situation, called again, called again...then gave up. Glad I brought my WIFI card because their wireless web was down!!The only good thing was the kitchen staff - very helpful and polite. Other than that, do yourself a favor and avoid this hotel...it's not worth more than $100 per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Over the years, Marriott has won my confidence with consistent, high quality properties. This hotel should not be part of the Marriott family. The hotel was understaffed across the board from check-in to housekeeping. The first room they checked me into had ripped carpet and smelled of cat urine. After waiting thru 5 other patrons with the one lady checking people in, they checked me into another room that was devoid of towels. The quality of the room was more like a Clarion or Motel 6...at double the price. So decided to go to the pool to unwind and was met with unleashed dogs running around and a broken hot tub. Called someone to fix the situation, called again, called again...then gave up. Glad I brought my WIFI card because their wireless web was down!!The only good thing was the kitchen staff - very helpful and polite. Other than that, do yourself a favor and avoid this hotel...it's not worth more than $100 per night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r80592135-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>80592135</t>
+  </si>
+  <si>
+    <t>09/22/2010</t>
+  </si>
+  <si>
+    <t>Sincerely friendly staff, Great Stay</t>
+  </si>
+  <si>
+    <t>Definitely a strong recommendation.  Yes there were a couple minor issues.  It's in the final approach for the airport, so you get a lot of low flying jets  Sound Insulation was great, never heard a plane from my room.  Not the newest or fanciest hotel, but well maintained and comfortable. Staff goes out of their way to make you feel like they really care about you as a guest not just a receipt</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r6182666-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>6182666</t>
+  </si>
+  <si>
+    <t>11/26/2006</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful!!</t>
+  </si>
+  <si>
+    <t>This residence inn marriott DFW-North Irving is great. Its a very short 10 minute drive from the airport. This hotel is very well maintained. Looks and feels new... The rooms were VERY VERY clean and nice furniture, kitchens with everything you would ever need...Bed was perfect with nice linens. Outdoor pool/spa was very nice. Free breakfast (6:30-9am everyday) was above expectations. Your normal continental breakfast plus hot food (eggs, sausage, bacon, waffles)... Free coffee 24/7... They have a free "social hour" monday-thurs 5:30-7pm. which they have different foods each day... (example - lasagne/corn/salad one night). They also offer free soda, beer, wine. Very nice! Definately stay here if you are in the dallas area. And if you are a Cowboys fan, Texas stadium is only 10 mins away. downtown is approx 15mins.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>This residence inn marriott DFW-North Irving is great. Its a very short 10 minute drive from the airport. This hotel is very well maintained. Looks and feels new... The rooms were VERY VERY clean and nice furniture, kitchens with everything you would ever need...Bed was perfect with nice linens. Outdoor pool/spa was very nice. Free breakfast (6:30-9am everyday) was above expectations. Your normal continental breakfast plus hot food (eggs, sausage, bacon, waffles)... Free coffee 24/7... They have a free "social hour" monday-thurs 5:30-7pm. which they have different foods each day... (example - lasagne/corn/salad one night). They also offer free soda, beer, wine. Very nice! Definately stay here if you are in the dallas area. And if you are a Cowboys fan, Texas stadium is only 10 mins away. downtown is approx 15mins.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r5703090-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>5703090</t>
+  </si>
+  <si>
+    <t>08/22/2006</t>
+  </si>
+  <si>
+    <t>Don't Reside Here</t>
+  </si>
+  <si>
+    <t>Front desk assured me on the phone AND at check-in that I had a room facing the inside courtyard and not the street. Not so. It faces the street. There is no wireless internet in the rooms. I'm in a 2-bedroom suite with livingroom and kitchen. Out of all these rooms there is only one wired internet access. One. No others available. The sofa cushions are covered in splots of unknown liquids. Apparently no attempt has been made to clean them but someone did turn the worst sides down. Ugh. There are hairs on the bathroom floors. The shower has only a flimsy cloth curtain. No bathroom fan. There is no business center with internet access, fax or copier. You can use WI-FI if you'd like to work out in the breakfast room. Need I say more?MoreShow less</t>
+  </si>
+  <si>
+    <t>KeriKen, Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded April 24, 2009</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2009</t>
+  </si>
+  <si>
+    <t>Front desk assured me on the phone AND at check-in that I had a room facing the inside courtyard and not the street. Not so. It faces the street. There is no wireless internet in the rooms. I'm in a 2-bedroom suite with livingroom and kitchen. Out of all these rooms there is only one wired internet access. One. No others available. The sofa cushions are covered in splots of unknown liquids. Apparently no attempt has been made to clean them but someone did turn the worst sides down. Ugh. There are hairs on the bathroom floors. The shower has only a flimsy cloth curtain. No bathroom fan. There is no business center with internet access, fax or copier. You can use WI-FI if you'd like to work out in the breakfast room. Need I say more?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r5033886-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>5033886</t>
+  </si>
+  <si>
+    <t>05/03/2006</t>
+  </si>
+  <si>
+    <t>Save yourself - Don't Stay here</t>
+  </si>
+  <si>
+    <t>Staying at the Residence Inn Irving, is like being in a bad movie. The check-in took forever, due to a very unmotivated deskclerk. The room, (they are all suites, like a medium sized studio apartment) was not only dirty, but the loveseat had stains on it, ewww. And, the carpet was stained. So, I refused to take my shoes off. And, it also made me quite reluctant to put anything on the stained comforter, more less climb into the sheets. I went back to the front desk, only to be told that they were completely booked, so they could not put me in another room. A housekeeper came and changed the bedding so I had a little bit of comfort in at least knowing the sheets were changed. The next afternoon, I returned to the room mid-day to find a rather large housekeeper sitting on the couch, watching the television! IN MY ROOM! My presence really did not even startle her in the least bit. In fact she was quite reluctant and slow to get up and leave my room. Wouldn't want her to miss any of her soap operas I guess. Complaints to the front desk reaped zero action. Being in town on business, I had to stay one more day before moving on. I have contacted my corporate office about removing this hotel from the list of required stay hotels.  If you have any sense and want a...Staying at the Residence Inn Irving, is like being in a bad movie. The check-in took forever, due to a very unmotivated deskclerk. The room, (they are all suites, like a medium sized studio apartment) was not only dirty, but the loveseat had stains on it, ewww. And, the carpet was stained. So, I refused to take my shoes off. And, it also made me quite reluctant to put anything on the stained comforter, more less climb into the sheets. I went back to the front desk, only to be told that they were completely booked, so they could not put me in another room. A housekeeper came and changed the bedding so I had a little bit of comfort in at least knowing the sheets were changed. The next afternoon, I returned to the room mid-day to find a rather large housekeeper sitting on the couch, watching the television! IN MY ROOM! My presence really did not even startle her in the least bit. In fact she was quite reluctant and slow to get up and leave my room. Wouldn't want her to miss any of her soap operas I guess. Complaints to the front desk reaped zero action. Being in town on business, I had to stay one more day before moving on. I have contacted my corporate office about removing this hotel from the list of required stay hotels.  If you have any sense and want a good place to stay, try to get into the OMNI hotel which is just down the street. THAT is a great hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2006</t>
+  </si>
+  <si>
+    <t>Staying at the Residence Inn Irving, is like being in a bad movie. The check-in took forever, due to a very unmotivated deskclerk. The room, (they are all suites, like a medium sized studio apartment) was not only dirty, but the loveseat had stains on it, ewww. And, the carpet was stained. So, I refused to take my shoes off. And, it also made me quite reluctant to put anything on the stained comforter, more less climb into the sheets. I went back to the front desk, only to be told that they were completely booked, so they could not put me in another room. A housekeeper came and changed the bedding so I had a little bit of comfort in at least knowing the sheets were changed. The next afternoon, I returned to the room mid-day to find a rather large housekeeper sitting on the couch, watching the television! IN MY ROOM! My presence really did not even startle her in the least bit. In fact she was quite reluctant and slow to get up and leave my room. Wouldn't want her to miss any of her soap operas I guess. Complaints to the front desk reaped zero action. Being in town on business, I had to stay one more day before moving on. I have contacted my corporate office about removing this hotel from the list of required stay hotels.  If you have any sense and want a...Staying at the Residence Inn Irving, is like being in a bad movie. The check-in took forever, due to a very unmotivated deskclerk. The room, (they are all suites, like a medium sized studio apartment) was not only dirty, but the loveseat had stains on it, ewww. And, the carpet was stained. So, I refused to take my shoes off. And, it also made me quite reluctant to put anything on the stained comforter, more less climb into the sheets. I went back to the front desk, only to be told that they were completely booked, so they could not put me in another room. A housekeeper came and changed the bedding so I had a little bit of comfort in at least knowing the sheets were changed. The next afternoon, I returned to the room mid-day to find a rather large housekeeper sitting on the couch, watching the television! IN MY ROOM! My presence really did not even startle her in the least bit. In fact she was quite reluctant and slow to get up and leave my room. Wouldn't want her to miss any of her soap operas I guess. Complaints to the front desk reaped zero action. Being in town on business, I had to stay one more day before moving on. I have contacted my corporate office about removing this hotel from the list of required stay hotels.  If you have any sense and want a good place to stay, try to get into the OMNI hotel which is just down the street. THAT is a great hotel!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1889,3526 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>227</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>235</v>
+      </c>
+      <c r="X25" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" t="s">
+        <v>289</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>292</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>304</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>311</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K39" t="s">
+        <v>335</v>
+      </c>
+      <c r="L39" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>337</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" t="s">
+        <v>341</v>
+      </c>
+      <c r="K40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s">
+        <v>347</v>
+      </c>
+      <c r="L41" t="s">
+        <v>348</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>349</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>352</v>
+      </c>
+      <c r="J42" t="s">
+        <v>353</v>
+      </c>
+      <c r="K42" t="s">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s">
+        <v>355</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>359</v>
+      </c>
+      <c r="J43" t="s">
+        <v>360</v>
+      </c>
+      <c r="K43" t="s">
+        <v>361</v>
+      </c>
+      <c r="L43" t="s">
+        <v>362</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>363</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s">
+        <v>374</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>381</v>
+      </c>
+      <c r="O46" t="s">
+        <v>97</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" t="s">
+        <v>384</v>
+      </c>
+      <c r="K47" t="s">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s">
+        <v>386</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" t="s">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s">
+        <v>392</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>398</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s">
+        <v>404</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>405</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s">
+        <v>409</v>
+      </c>
+      <c r="L51" t="s">
+        <v>410</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>411</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>414</v>
+      </c>
+      <c r="J52" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>418</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>227</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" t="s">
+        <v>428</v>
+      </c>
+      <c r="K54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s">
+        <v>430</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>431</v>
+      </c>
+      <c r="X54" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>434</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>435</v>
+      </c>
+      <c r="J55" t="s">
+        <v>436</v>
+      </c>
+      <c r="K55" t="s">
+        <v>437</v>
+      </c>
+      <c r="L55" t="s">
+        <v>438</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>439</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>431</v>
+      </c>
+      <c r="X55" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_652.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_652.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>pamelahthompson</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>I have been staying here for 6 mos. on a job and they have made my stay here like being home with family.  Sandra is always ready to help you in whatever you need, Maylene makes the evening mixers just like hanging out with family.  Brenda and Joyce make sure you have a good breakfast and enough left over for snacks.  The front desk people are wonderful, Amy always has your packages and mail before you even ask.  As my time to check out draws close, I can’t help but be sad.  I will miss my Residence Inn family.  They have made my time away from home easier to bear.More</t>
   </si>
   <si>
+    <t>addtraveler10101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r515593626-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>We stayed at this hotel once before because it's proximity to the airport. The rooms were clean and a little dated.  The hotel is being renovated and the rooms are great.  We had no idea the hotel was under construction AT ALL.  There was no sound of machinery.  No workman roaming around. Quiet and peaceful, can't wait to see the finished product. One hint- To get to any shopping or restaurants, you will need have a car or Uber it. There are really only offices in walking distance.More</t>
   </si>
   <si>
+    <t>ram995</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r513813386-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -235,6 +244,9 @@
   </si>
   <si>
     <t>This is a good hotel nearer to Highway and to many work places like Ayaya.The breakfast is good, staff is very co-operative. Restaurants are within 2 miles.Laundry is in second floor. Elevator is very slowMore</t>
+  </si>
+  <si>
+    <t>biloxibound</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r483041108-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -287,6 +299,9 @@
 Bottom line, I would highly recommend this hotel, And hope the...Traveled to Dallas this past weekend for family event. Booked 2 rooms (324 &amp; 326) for 1 night (5/5) thru Expedia.com. Chose this hotel b cause of proximity to the function, and the price ($74.00/night per room). We checked in Friday night about 7:15 pm with an extremely professional and welcoming young man. I believe his name was Steven. Could not have been more courteous. Asked us what floor we preferred, explains the hotel renovation and told us the 3rd/top floor had been completed. We chose it.The location was very easy to find, and in the middle of a very large business area so it was wonderfully quiet since I am sure this location gets Monday they Friday business travelers.Hotel was very clean.Rooms were spotless, great layout. Little nook for the bed, big "l" shaped couch that pulled out for a sleep sofa. Fridge, microwave, clean and nice supply of dish ware. Lovely scented soaps and lotion.Great desk space.Lots of plugs in the room for your gadgets.Great breakfast included. Nice selection of cereals, oatmeal and more toppings than I have ever seen, bagels, toasts, juices, coffees, eggs, sausage, waffles, yogurts. And the gentlemen in the breakfast Area making sure all items were full was great. We thanked him for getting us napkins and he replied with a genuine smile "it was my pleasure". Bottom line, I would highly recommend this hotel, And hope the staff sees this review and knows how great it was. It truly was genuine customer service with a smile.More</t>
   </si>
   <si>
+    <t>ub0b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r470026911-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -314,6 +329,9 @@
     <t>Amazing rooms, great price and good breakfast. Convenient for airport stay. My office staff was accosted at night in parking lot and disappointed that the hotel had no outdoor security cameras. The hotels in a nice safe neighborhood but some outdoor cameras would be useful. Property is being remodeled and they are doing a great job.More</t>
   </si>
   <si>
+    <t>Eboni B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r465948994-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -341,6 +359,9 @@
     <t>Room was so horrible I didn't stay, from seeing roach motel bait, white powder in the corners, (I assume roach powder) old dusty couch, loud noise in the hallway, at least 3 drug deals ( so it seemed)in the parking lot, it was by far the worst hotel I seen in my lifeMore</t>
   </si>
   <si>
+    <t>Yorka V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r387586289-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -368,6 +389,9 @@
     <t>I am glad they are remodeling the interior, it really needs a facelift. Otherwise central location, friendly staff and very clean. I hope you don't kind the early flights because it is right on the takeoff runway but after 10 and after 7am only.More</t>
   </si>
   <si>
+    <t>jt93664</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r367305452-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -395,6 +419,9 @@
     <t>Check in was fast because there is nobody LOL. Seem very few occupants when I check in. Property condition good, room ok but a little outdated .  Location is around corporate office and about 15 mins to airport car rental per my Gps . Not many restaurant around , just a Denny 2 mins away. There rest appx 5-10mins away 2 exit down.Breakfast same as other residence inn.Overall it's good. More</t>
   </si>
   <si>
+    <t>Ghost4314</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r363144731-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -419,6 +446,9 @@
     <t>GREAT STAFF! Feel as if I'm coming home as everyone recognizes me and greets me by name. Locationi is perfect for my needs, close to the airport and training facilities.Currently undergoing renovation, which will make this property perfect in a month or so. Beds are too soft for my liking (I ended up with an extremely sore back) but have been told the mattresses shall be changed next year.More</t>
   </si>
   <si>
+    <t>food4thought518</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r343140734-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -446,6 +476,9 @@
     <t>With the storm on the was coast we were stranded in Dallas. As a Marriot loyal customer we went to the residence inn to fit our family of six. Though not the nicest residence inn I have stayed at, as always it met and exceeded our expectations. Clean, well appointed, great service and breakfast.More</t>
   </si>
   <si>
+    <t>KEE_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r336469451-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -473,6 +506,9 @@
     <t>I spent two nights at this hotel and it was quiet and comfortable. The planes did fly over but it was disturbing unless you have the window open. It was fun to watch them fly in until the monsoon rain hit...they shut down the airport. The staff was very nice and the breakfast good. I would stay here again!More</t>
   </si>
   <si>
+    <t>ndhavon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r327491082-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -500,6 +536,9 @@
     <t>A great and comfortable stay at this hotel.  We were in the area visiting from out of town.  The staff was very welcoming.  The hotel shuttle was an awesome added addition to our stay.  We were able to get a ride on the shuttle to the area restaurants.  It was great.More</t>
   </si>
   <si>
+    <t>Aviegirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r316429461-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -527,6 +566,9 @@
     <t>Last visit cold shower.  Management didn't seem to care.  One month later the put back in the same room.  Hair dryer broken prior to a work day.  A lot has changed with Residence Inn Hotels.  No hot evening meal.  Cheese and Hummad with stale Chios and crackers.  Carrots and celary with ranch dressing.  For $200 per night I should have at least a salad and hot meal.  Let's see hat Tuesday meal brings.  We know Wednesday evening is desert night.  How about a hot meal?  Use to be Monday through Thursday hot meals.  Now they are more interested in making money than happy guest!  This is a rip off.  Go else where.More</t>
   </si>
   <si>
+    <t>USR1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r315551501-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -548,6 +590,9 @@
     <t>Large clean rooms, older style residence inn.  This is located in an office park, no stores or restaurants within easy walking distance.  Breakfast was OK, a little below the typical residence inn standard (no granola for yogurt when i was there and the daily selection of meats/potatoes did not vary much).  Stayed for 4 days on business.  Would stay again if in this area of Irving.More</t>
   </si>
   <si>
+    <t>REmom2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r314441324-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -572,6 +617,9 @@
     <t>Stayed here to catch early flight at DFW- won't do it again. Yes, other reviewers are correct, you can hear the planes, and quite clearly, even on the ground floor rooms. We stayed on ground floor and the slab is obviously cracked as the floor slopes terribly in multiple places making it weird to walk around the room. Also, the room has a dank smell to it. We didn't notice it when we first walked into the room, and it's possible it came from the A/C, but we both woke up with sore throats and feeling crummy and after going to get breakfast in the lobby, when we returned to our room we noticed the very pronounced moldy/mildewy smell to the room. I should note the breakfast offered was crap- we didn't eat anything and waited to eat at the airport. Everything was runny- runny eggs, runny oatmeal- yuck. The gym was a joke- so tiny. It's so small the elliptical is right in front of the glass door so everyone walking by can watch your behind as you run and with just one person (me) working out it got incredibly hot and uncomfortable in there. They have the elliptical, 2 treadmills and a weight bench with some dumbbells. Although the front desk staff was very nice, we won't be back to this hotel. I can't afford any sick days and I was sick with a cough for days after...Stayed here to catch early flight at DFW- won't do it again. Yes, other reviewers are correct, you can hear the planes, and quite clearly, even on the ground floor rooms. We stayed on ground floor and the slab is obviously cracked as the floor slopes terribly in multiple places making it weird to walk around the room. Also, the room has a dank smell to it. We didn't notice it when we first walked into the room, and it's possible it came from the A/C, but we both woke up with sore throats and feeling crummy and after going to get breakfast in the lobby, when we returned to our room we noticed the very pronounced moldy/mildewy smell to the room. I should note the breakfast offered was crap- we didn't eat anything and waited to eat at the airport. Everything was runny- runny eggs, runny oatmeal- yuck. The gym was a joke- so tiny. It's so small the elliptical is right in front of the glass door so everyone walking by can watch your behind as you run and with just one person (me) working out it got incredibly hot and uncomfortable in there. They have the elliptical, 2 treadmills and a weight bench with some dumbbells. Although the front desk staff was very nice, we won't be back to this hotel. I can't afford any sick days and I was sick with a cough for days after leaving this hotel.More</t>
   </si>
   <si>
+    <t>gak909</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r283260949-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -596,6 +644,9 @@
     <t>We stayed here for one night with a late arrival flight. Room was ready and comfy and held until we arrived quite late. Comfy, safe feeling and friendly staff who was very helpful. It is very close to the airport, while you hear the planes, not unusually loud either which was a pleasant surprise.More</t>
   </si>
   <si>
+    <t>ZeeBabester</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r282495342-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -614,6 +665,9 @@
     <t>Stayed here for an overnight business trip.Hotel Shuttle from airport was quick, driver was professional and polite. The Desk Clerk checked me in quickly, provided me with take out menus and recommendations. I used the pool and found it clean and enjoyed some sunbathing. My room was clean and relatively quiet considering the planes flying overhhead. I slept comfortably and in the morning enjoyed the abundant and fresh breakfast buffett.More</t>
   </si>
   <si>
+    <t>Earl H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r282471526-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -629,6 +683,9 @@
     <t>This being a Father's Day trip for me, was happy that everything worked out so well. I called from the airport, they quickly had a shuttle come get me. At the desk I was about to ask for room on the upper floor but he quickly stated he had me room for me.He read my Marriott profile, I was all smiles. My family showed up, impressed with the large room, clean bathroom, TV and etc. I was a proud Father.....thanksMore</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r258680332-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -656,6 +713,9 @@
     <t>Like most Residence Inns, the rooms are large with kitchens.  The room was clean.  The common areas, on the other hand, are not well maintained.  The stairwells and hallways are dirty.  You can see debris on the edges of the carpets.  The hotel interior is dated, older style Marriott interiors and they have not kept up.  The workout room was a joke.  Tiny with very limited equipment.More</t>
   </si>
   <si>
+    <t>Tommy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r255609809-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -683,6 +743,9 @@
     <t>Far from the airport and restaurants but it was enjoyable to sleep in a comfortable bed. I would recommend staying here due to complementary breakfast, outside pool and lunch/dinner room service. The night auditor was very helpful and polite.More</t>
   </si>
   <si>
+    <t>Saltexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r243183215-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -701,6 +764,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Wen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r228026014-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -725,6 +791,9 @@
     <t>All in all I got what I expected.. reasonable price.. clean room.. peace and quiet. Went to Dallas to catch the Cowboy home opener. Checked in Friday solo. Had two relatives join me later. I was the only "authorized" guest (credit card/id) per the hotel. Unfortunately, this location allowed an individual without any identification to obtain an access card to my suite. Imagine the horror I felt while out having dinner after the game when I discovered that this individual was within my room. After advising the front desk as to what happened I was assured that the Manager and General Manager would handle the situation the next morning. To my surprise the next morning the Manager wanted to place the blame of the individual being in my room. Really? A complete stranger came to the front desk and requested a key to room 319 and your staff willingly gave the person a key without confirming with me if I approved or without any identification. Wow.More</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r226997696-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -752,6 +821,9 @@
     <t>General manager was working a double or triple...but was very accomodating when ran out of pillows etc. He was a good guy, in poor staffing situation,  and handled it well. Breakfast wasnt avail when we left at 5am, so that was a bummer. Front auditor took us to airport, and refused tips. She was sweet, and we will stay again in future!More</t>
   </si>
   <si>
+    <t>bizmarit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r223439864-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -773,6 +845,9 @@
     <t>I called when I landed at the airport and they sent a shuttle immediately over to pick me up and stayed on the phone to help navigate me to the right spot to be picked up. I was welcomed with a complimentary social hour (that they hold every weekday evening) which I enjoyed in the outside seating that is available. Breakfast had a fair selection of items, nothing extraordinary but I liked having eggs, some fresh fruit and yogurt available although would not recommend the tasteless oatmeal. The furniture in the room was in good condition. When I came back the next day they greeted me by name, asking if they could help me find anything. They were very personable. Fitness center is tiny but functional with an elliptical, stationary bike, two treadmills, bench and some limited free weights. Airplanes do go over head which can be fairly loud when sitting by the grill or pool area but it has a very short commute to DFW airport which made flying in for a work conference much easier. Negatives: The wifi connection was really weak and my phone would not connect to it. The printer wasn't working in the business center.  There is not much in the surrounding area.More</t>
   </si>
   <si>
+    <t>lvstravling</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r205348154-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -797,6 +872,9 @@
     <t>We stay at Residence Inns frequently as we like the two bedroom suite option.  This is the first Residence Inn that I have stayed at that was extremely outdated.  Nothing in the kitchen or bath area has been updated.  The lobby presented a new and updated appearance, but when you got to the rooms they were old and worn.  Breakfast did not offer many options.  It was satisfactory for a stay close to the airport, but I would have been extremely disappointed if I had booked this hotel for a long term stay.  I paid the same price for this room as I did at another Residence Inn on this same trip which was tastefully updated and maintained.More</t>
   </si>
   <si>
+    <t>SalemTravelBureau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r203167099-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
   </si>
   <si>
     <t>Exactly as promised for an airport stop-over hotel.  The casual, comfortable, clean expectation was met by Residence Inn/Marriott standards.  After claiming luggage, we phoned the hotel for a courtesy shuttle.  We were told were to wait and the new suv, shuttle was there in the promised time.  On arrival at the hotel, a quick and trouble free check-in.  Reservation as confirmed.  After dropping luggage in our room, we returned to the lobby for a free self/service dinner of grilled chicken breast, vegetables and salad served with free soft drinks, coffee/tea, beer and wine.  After a 15+ hour flight from Sydney, a warm meal and a comfortable bed was all we needed. Our flight the next morning was at 7AM, shuttle begins at 6AM.  When we inquired the evening on arrival about an earlier shuttle we were told it would be arranged. Actually, the breakfast cook, Mae, drove us to the airport. The breakfast was much more than continental with hot eggs, hash browns, sausage, etc...  All anyone needs to get going in the morning was offered, no charge. The room was as expected,we only stayed a night but could have moved in.  Full kitchen, living room opening to bedroom and bath.  After checking emails on free wifi, we turned the large flat screen television to watch in bed.Value for the money, you can't go wrong with Residence Inn and Marriott.  Enjoy this hotel and thank me later.More</t>
+  </si>
+  <si>
+    <t>JenniferW2430</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r200032045-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -849,6 +930,9 @@
 Overall, a very nice place to stay.  It did appear that some remodeling is going on in various areas of the hotel, but nothing that interfered...My family overnighted in Dallas/Fort Worth en route to Cancun, staying at Residence Inn Dallas DFW Airport North/Irving on March 26, 2014.  I chose this hotel based on its courtesy airport shuttle, breakfast, and price.  Upon our late arrival at DFW airport, I placed a call to the hotel to request the courtesy shuttle.  The front desk person, "Guy", was very pleasant over the phone and was able to provide clear instructions on where to meet the shuttle driver, "Johnny".  Johnny arrived in a very nice and comfortable GMC suv approximately 15 minutes later.  We enjoyed our trip to the hotel.  After we checked in and delivered our baggage to the room, Johnny drove us to a nearby restaurant for dinner.  He also returned us safely to the hotel for a comfortable night's stay.The room was clean and well-furnished with a queen bed in the bedroom, decent-sized bathroom with vanity and sink located outside the toilet/shower area, two flat screen TVs, kitchenette, work desk, sofa bed and chairs.  Breakfast was provided in a large room near the lobby and offered all you expect--waffles, fruit, yogurt, breads, etc.  We scheduled a return shuttle and another efficient and friendly driver (whose name I cannot recall) delivered us safely back to the airport the next morning.Overall, a very nice place to stay.  It did appear that some remodeling is going on in various areas of the hotel, but nothing that interfered with our stay.  We did hear planes flying overhead despite being on the first floor.  The hotel is located in an industrial park, so most restaurants and shopping are a distance away.  The hotel courtesy shuttle, when not in use picking up/dropping off guests at the airport, is available to take you anywhere within five miles of the hotel, thus offering a wide variety of places to eat, shop, etc.I would not hesitate to recommend this hotel to anyone seeking a nicely furnished and comfortable room in an airport hotel near DFW.More</t>
   </si>
   <si>
+    <t>Jason W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191583352-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -867,6 +951,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Jeff_S_Bell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191582339-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
     <t>This Residence Inn and the staff simply make getting in, staying, and getting out as easy as possible.  They are exceptionally hospitable and helpful in every way.  The rooms are what you expect from a residence with plenty of space, the kitchenette, and well taken care of by the cleaning crews.  The hotel provides a variety of week night dinners that are well done and hit the spot after a long day.  They have a flexible shuttle service until 11pm that makes getting to and from the airport convenient.   Across the board, the staff seems to work together as a team and the guests are always treated with great care.  I've had a few extended stays at this property and would highly recommend it!More</t>
   </si>
   <si>
+    <t>Cabot M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191239589-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -909,6 +999,9 @@
     <t>This is a very convenient location to stay for my business which is within walking distance to the hotel.  Very isolated location though unless taking the hotel van which I believe is offered to local malls etc.  The staff has always been helpful beyond expectation, stayed here many times.  Sadly the property is getting a bit dated and last visit my bed just wasn't helping me get a good nights rest.  They have been working on the exterior and maybe they'll continue on the inside soon.  Breakfast is descent, evening reception becoming a bit minimal but a great, safe location if you have business in the area.More</t>
   </si>
   <si>
+    <t>CPofMN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r185244358-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1023,9 @@
     <t>If you want to stay close to the airport and like a larger room with a kitchen,  this is a great hotel to stay at.  The rooms are very good size and have a full kitchen.  Staff was very friendly.  Very good breakfast included each day.   My family and friends stayed here for long weekend and it was a great location to get on the freeway to get to our site seeing spots.  It is close to the airport so during the day you do have planes flying over that are loud, but we were only around during the day for an hour or so, so this wasn't a big deal.  Didn't hear any planes at night so sleeping wasn't affected.  Beds are very comfortable.  Only slight minus is it is located in an office park and there are no restaurants near by.  (the good thing about being in an office park is on the weekend there is no traffic!)  But we found good restaurants about 10 minutes away so that's why it's only a slight minus.  I've been to other Residence Inns and have had good experiences at all of them..More</t>
   </si>
   <si>
+    <t>Glenn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r185193458-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1041,9 @@
     <t>This is a sub-par Residnce Inn.  Been to many over the years of travel/moving and this is way below Marriott's standard.  First, the kitchen is not well eqipped...two forks?!  4 small juice glasses, no can opener, or toaster!?  No kitchen towels or clothes. Min. amount of cleaning daily...and it's only me in this place, so it's not that dirty.  No vacumn in 5 days now....outside the entry door - garagbe still sits full sice bieng here 5 days.  Breakfast is nothing special...watery powered eggs, and rubber ham slices! MMMM.Price is okay...if you wanted something corrected you have to tell the front desk.  Things that should be corrected by staff or seen daily by staff to be done, like cleaning the hall floors and carpets, trash, main entry door windows cleaned...this shold be done automatically, not to brought to the attention of the front desk.More</t>
   </si>
   <si>
+    <t>olis-propolis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r174244420-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -964,6 +1063,9 @@
   </si>
   <si>
     <t>The hotel is located very close to the DFW airport - about 15 minutes. You can hear airplanes all day long through closed windows.There is nothing to do around the hotel.I was very surprised that after check in nobody means to escort me to the room and i have to walk an hour to find my room ( in another building).The pool is for kids and there is no shade at all.The furniture in the room was from my grandma's youth so i was shocked. Although the bed was very good.The breakfast is very poor, no fruits, no vegetables, every day all the same.No complaints about house keeping service- all was very good (in fact they ask to save resources  so i didn't ask to change towels or sheets during 1 week).When leaving i still was expecting mail to arrive so i asked at reception to decline all incoming packages - which wasn't done and they accepted my mail. This shows their "good" service and attention to the guests.More</t>
+  </si>
+  <si>
+    <t>Josh L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r160326317-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -995,6 +1097,9 @@
 The suite is one large room - not separate bedroom/living area.  Enter with the kitchen on the left and looking straight into the living room.  2 large windows...I spent 4 nights here because of it's proximity to my work assignment at DFW.  Breakfast and  dinner buffets are included but were not to my liking.  The first breakfast I had was the last and I passed through each dinner buffet - on the way out to dinner.All the employees I encountered - shuttle drivers, desk managers, porters, cooks and landscapers - were very friendly and helpful.  This is a fairly new 3 story building, very clean and well maintained inside and out.   In the courtyard there's a barbecue grill, outdoor sofa and chairs, pool, and basketball half-court.  All these facilities look brand new.  The telltale evidence is in the carpeting, especially on the stairs.  That is where the hotel is showing it's age.  But this is not a deal-breaker.The suite kitchens are compact and well-designed with 2 burner gas stove, microwave oven, coffee machine, refrigerator and dish washer.  There are enough dishes, glasses and utensils for one person's daily needs.  There was plenty of kitchen cabinet space in case I had done grocery shopping.  Actually the hotel will handle the grocery shopping for you. If you give them a list in the morning the items will be ready later that day and the amount added to your bill.The suite is one large room - not separate bedroom/living area.  Enter with the kitchen on the left and looking straight into the living room.  2 large windows light up the room.  There's a desk with data-ports for quick business or work set up on the right. 2 steps into the suite you can see the queen size bed on the left.  The closet and bathroom are out-of-view until you reach the bed. The toilet/shower room is a straight line from the bed, past the bathroom sink and full closet.The bed was very comfortable and 4 small pillows make it easy to get the sleeping, reading or TV-watching angle that is most comfortable.The bathroom was perfectly clean and kept well stocked.  The shower was excellent, extra large, great shower head and a curtain that was actually large enough.I was disappointed that the "Market Room" where the hotel normally sells sundries and travel-sizes, was not well stocked.  I was also not happy to have to drive over a mile to the nearest off-property restaurant. Overall a nice place to stay as long as good food is a requirement.More</t>
   </si>
   <si>
+    <t>Michiganuncledoug</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r160000382-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1116,9 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>MikeThePilgrim</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r157621834-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1046,6 +1154,9 @@
 On a positive note, the bed was quite comfortable with plenty of pillows, and the shower had good pressure and plenty of hot water. The...I stayed at this hotel for one week, and my review is based on my daily experiences. This hotel is very close to the airport with quick and easy access to I-635, TX 114, and TX 161. It is also very quick and convenient to get to the Los Colinas business district. The hotel really is centrally located in the DFW metroplex.STAFF MEMBERS:Out of several interactions with staff members, only one worker was pleasant and professional. He literally went out of his way to be of service. The rest of the staff left a lot to be desired as they were very curt, and at times, blatantly rude.HOTEL ROOM:My room (a 1 bedroom suite with living room and kitchen) was nice enough and met all basic needs. The bedroom and bathroom were clean, however, the living room had not been cleaned very well (there was a little bit of trash and a soda lid on the floor) and neither had the kitchen. The table had a food residue on it (which easily came off when I used a clean rag), and several of the dishes had not been cleaned. Also, the few dishes in the cupboard were VERY basic and quite old. Several of the cooking utensils were beginning to rust.On a positive note, the bed was quite comfortable with plenty of pillows, and the shower had good pressure and plenty of hot water. The room had lots of available lighting and did not feel dark or dingy. I did not hear very much noise from any other guests. In fact, I would say that my entire stay was very quiet and calm.IMPORTANT NOTE:This hotel is DIRECTLY under the flight path for planes landing on 17L at DFW (or taking off on 35R). The landing/takeoff noise starts around 6:45am and doesn't really taper off until about 11pm. When the larger planes are landing, you can quite literally feel the noise.SUMMARY:If you are looking for a basic hotel that offers a small kitchenette and is conveniently located close to the DFW airport, this would be a good choice. With some staff attitude adjustments, better cleaning, and better kitchenware, I would have happily given it a higher rating.More</t>
   </si>
   <si>
+    <t>HotWingsDotCom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r154120333-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1175,9 @@
     <t>My colleagues &amp; I have often stayed here on business trip but I think it's time this place gets a major facelift.  Room carpeting needs to be changed, bathroom sink drains very slowly as well as the bathtub.  I came back to my room one afternoon during lunch and found my room half made with all my pillows scattered on the floor. It just makes me wonder how often the pillows get changed if they're being thrown on the floor by housekeeping.  Breakfast menu also needs to be updated. Same boring breakfast menu is served everyday. Please add some strawberry jelly also and bacon.  I consider this entity a sub par status for a Marriott brand hotel!!!More</t>
   </si>
   <si>
+    <t>R W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r153565952-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1085,6 +1199,9 @@
     <t>Stayed here at the last minute after crappy American Airlines couldn't find a pilot for our flight.  Aa offered vouchers to a motel 6 and a Ramada but knowing what I know about this area, there's no way I'm spending even a free night there. So I took a shot with paying for the residence inn.  All we needed was a comfy bed and a shower.  Shower was a little run down, but other than that, we were too tired to notice anything to not like.  It was comfortable and that's all I needed.  Alas, in and around DFW airport is not the best neighborhoods but it sufficed...kudos though too the night girl at the front desk and the shuttle to the airport.  Nice parts to the place.More</t>
   </si>
   <si>
+    <t>rjohns13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r153071063-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1121,6 +1238,9 @@
     <t>I stayed here for 6 weeks, during that stay they brought the bill a whole day early and then when I got back to the room at 5 PM, they said they had to 6 PM to clean it. That was in the middel of the week after being there for several weeks. I was told that was their policy. Internet is OK but not fast, business services are adequate but not good (very old computers). Breakfast is the same every day (there is a Denny's just down the street. Because of their policy regarding the late cleaning of the rooms I could not recommend this hotel for business purposes.More</t>
   </si>
   <si>
+    <t>lovestocruise1998</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r136129176-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1262,9 @@
     <t>We were promised a two bedroom suite would be ready for us at 3 pm. We got there close to 3:45 and the room was not ready. We were told it would be ready in 15 minutes. We waited 15 minutes in the room and it was more like 25 minutes before anyone got there to even start cleaning. The room was a mess, the pillows were thrown on the floor. Trash was everywhere. I complained to the front desk and was given 2 nice rooms instead. We are Marriott Rewards members, stay at Marriott's all over the country and I do not expect to have cleanliness and tardiness an issue.  Again, check the room for problems before you settle in.More</t>
   </si>
   <si>
+    <t>jackiesamy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r134061015-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1283,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>MDKIII</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r128404590-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1178,6 +1304,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r127362393-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1325,9 @@
     <t>I got stranded in Dallas a few days ago when the tornadoes shut down the airport.  Every single staff member at this hotel was INCREDIBLY kind, positive, and on top of their game.  I was picked up within 20 minutes, even with all the chaos.  I got a great room, that was very comfortable, clean, and relieving after such a crazy day.  They let me check out late without an issue when my flight was cancelled (again) the next day and even went to the store to buy some contact solution for me.  They have a "social" every night with a little food, wine &amp; beer, which was a welcome respite.  I really can't say enough nice things about the service I received here!More</t>
   </si>
   <si>
+    <t>north2111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r123327238-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1346,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Brian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r120595304-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1367,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>godfather24601</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r119996875-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1385,9 @@
     <t>We had a two bedroom suite with two baths that met our needs.  But this property needs some tender loving care.  The rooms and decor need updating and a complete scrub down. Noise level from airport not too much of an issue. We suggest elsewhere until property upgraded.</t>
   </si>
   <si>
+    <t>1Gman1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r117906787-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1268,6 +1409,9 @@
     <t>This was a brief, overnight stay as I arrived from the airport after 11:00 pm and was out of the hotel by 7:30am.  The room itself was your typical, well appointed suite that you would expect from Residence Inn.  The front desk staff was very friendly and helpful at check-in and check-out.  Breakfast had the usual fare with scrambled eggs, sausage, cereals, muffins, coffee, juices, etc.There are several opportunities for improvement at the hotel.  As another reviewer noted, the internet is slow, even when I was accessing it at midnight.  The room was missing an iron and ironing board, which was quickly delivered upon request.  The iron leaked water and I needed to push the reset button repeatedly in order to keep it on.  The shower in the morning was tepid at best which I thought was unusual to run low of hot water at 6:30 in the morning.  What really needs to be addressed is the very rancid odor in the hallways.  The good news is that it is not noticeable in the suite.I asked at check-out about who managed the hotel and the front desk noted it was Interstate Hotels.  I know that Interstate is one of the largest hotel management companies and going through a significant period of growth.  As such, I would hope they do not stretch their staff too thin that they lose sight of the small details.More</t>
   </si>
   <si>
+    <t>MikeWalshIII</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r116307104-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1286,6 +1430,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>Salesgrok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r84839704-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1307,6 +1454,9 @@
     <t>Over the years, Marriott has won my confidence with consistent, high quality properties. This hotel should not be part of the Marriott family. The hotel was understaffed across the board from check-in to housekeeping. The first room they checked me into had ripped carpet and smelled of cat urine. After waiting thru 5 other patrons with the one lady checking people in, they checked me into another room that was devoid of towels. The quality of the room was more like a Clarion or Motel 6...at double the price. So decided to go to the pool to unwind and was met with unleashed dogs running around and a broken hot tub. Called someone to fix the situation, called again, called again...then gave up. Glad I brought my WIFI card because their wireless web was down!!The only good thing was the kitchen staff - very helpful and polite. Other than that, do yourself a favor and avoid this hotel...it's not worth more than $100 per night.More</t>
   </si>
   <si>
+    <t>selford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r80592135-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1325,6 +1475,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>mvprime21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r6182666-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1346,6 +1499,9 @@
     <t>This residence inn marriott DFW-North Irving is great. Its a very short 10 minute drive from the airport. This hotel is very well maintained. Looks and feels new... The rooms were VERY VERY clean and nice furniture, kitchens with everything you would ever need...Bed was perfect with nice linens. Outdoor pool/spa was very nice. Free breakfast (6:30-9am everyday) was above expectations. Your normal continental breakfast plus hot food (eggs, sausage, bacon, waffles)... Free coffee 24/7... They have a free "social hour" monday-thurs 5:30-7pm. which they have different foods each day... (example - lasagne/corn/salad one night). They also offer free soda, beer, wine. Very nice! Definately stay here if you are in the dallas area. And if you are a Cowboys fan, Texas stadium is only 10 mins away. downtown is approx 15mins.More</t>
   </si>
   <si>
+    <t>texasroseII</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r5703090-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1524,9 @@
   </si>
   <si>
     <t>Front desk assured me on the phone AND at check-in that I had a room facing the inside courtyard and not the street. Not so. It faces the street. There is no wireless internet in the rooms. I'm in a 2-bedroom suite with livingroom and kitchen. Out of all these rooms there is only one wired internet access. One. No others available. The sofa cushions are covered in splots of unknown liquids. Apparently no attempt has been made to clean them but someone did turn the worst sides down. Ugh. There are hairs on the bathroom floors. The shower has only a flimsy cloth curtain. No bathroom fan. There is no business center with internet access, fax or copier. You can use WI-FI if you'd like to work out in the breakfast room. Need I say more?More</t>
+  </si>
+  <si>
+    <t>Dragonfly972</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r5033886-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1893,43 +2052,47 @@
       <c r="A2" t="n">
         <v>41694</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175646</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1941,56 +2104,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41694</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175647</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2008,56 +2175,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41694</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175648</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2073,56 +2244,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41694</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175649</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2138,56 +2313,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41694</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175650</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2199,56 +2378,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41694</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175651</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2260,56 +2443,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41694</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175652</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2321,56 +2508,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41694</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175653</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2382,56 +2573,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41694</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175654</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2449,56 +2644,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41694</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175655</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2510,56 +2709,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41694</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175656</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2575,56 +2778,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41694</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>92265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2642,56 +2849,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41694</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175657</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2709,56 +2920,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41694</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175658</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2770,56 +2985,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41694</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175659</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2837,56 +3056,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41694</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175660</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2904,56 +3127,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41694</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175661</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2969,56 +3196,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41694</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175662</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3034,56 +3265,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41694</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3101,56 +3336,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41694</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>35966</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3162,56 +3401,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="X21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41694</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175663</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3225,50 +3468,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41694</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175664</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3286,50 +3533,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41694</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3341,56 +3592,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41694</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175665</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3406,56 +3661,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X25" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41694</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175666</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3477,56 +3736,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41694</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175667</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3550,50 +3813,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41694</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175668</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3617,50 +3884,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41694</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3684,50 +3955,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41694</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175669</v>
+      </c>
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3751,50 +4026,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41694</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175670</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3816,56 +4095,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41694</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175671</v>
+      </c>
+      <c r="C32" t="s">
+        <v>317</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="O32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3889,50 +4172,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41694</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>13106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3956,50 +4243,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41694</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175672</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4023,50 +4314,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41694</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>93172</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4090,50 +4385,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41694</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175673</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4157,50 +4456,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41694</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175674</v>
+      </c>
+      <c r="C37" t="s">
+        <v>354</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4224,50 +4527,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41694</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>175675</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4291,50 +4598,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41694</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>4995</v>
+      </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="K39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="L39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4358,41 +4669,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41694</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175676</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
@@ -4421,50 +4736,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41694</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175675</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4488,50 +4807,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41694</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175677</v>
+      </c>
+      <c r="C42" t="s">
+        <v>390</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="K42" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="O42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4555,50 +4878,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41694</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175678</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="J43" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="L43" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4622,50 +4949,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41694</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>135849</v>
+      </c>
+      <c r="C44" t="s">
+        <v>405</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="J44" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="O44" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4689,50 +5020,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41694</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C45" t="s">
+        <v>412</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="K45" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="O45" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4756,50 +5091,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41694</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175679</v>
+      </c>
+      <c r="C46" t="s">
+        <v>419</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="J46" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="K46" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="O46" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4823,50 +5162,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41694</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>6579</v>
+      </c>
+      <c r="C47" t="s">
+        <v>426</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="J47" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="K47" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="O47" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4890,41 +5233,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41694</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>175680</v>
+      </c>
+      <c r="C48" t="s">
+        <v>433</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="J48" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="K48" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
@@ -4953,50 +5300,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41694</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>175681</v>
+      </c>
+      <c r="C49" t="s">
+        <v>439</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="J49" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="K49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5016,50 +5367,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41694</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175682</v>
+      </c>
+      <c r="C50" t="s">
+        <v>447</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="J50" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="K50" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5079,50 +5434,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41694</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175683</v>
+      </c>
+      <c r="C51" t="s">
+        <v>454</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="J51" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="K51" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="L51" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5146,50 +5505,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41694</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175684</v>
+      </c>
+      <c r="C52" t="s">
+        <v>462</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="J52" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="K52" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="L52" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5213,50 +5576,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41694</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>175685</v>
+      </c>
+      <c r="C53" t="s">
+        <v>469</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="O53" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5280,41 +5647,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41694</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175686</v>
+      </c>
+      <c r="C54" t="s">
+        <v>477</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="J54" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="K54" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="L54" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -5331,56 +5702,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="X54" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="Y54" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41694</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>175687</v>
+      </c>
+      <c r="C55" t="s">
+        <v>486</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="J55" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="K55" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="L55" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5400,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="X55" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="Y55" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_652.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_652.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="705">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,126 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>pamelahthompson</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r609548962-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>223937</t>
+  </si>
+  <si>
+    <t>609548962</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Incredible relaxing mini vacation</t>
+  </si>
+  <si>
+    <t>For two weeks I had the pleasure of staying in a massive suite. The room was very very clean. Probably the cleanest room I've ever seen in a hotel. The suite including two bedrooms and a living area complete with kitchen.  The front desk was very friendly. Anita is an amazing front desk attendant. I enjoyed having a relaxed mixer Mon-Wed. I would have stayed longer if i had the money to afford it. Heck, I could live here.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r590040267-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>590040267</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Quiet, hidden in office park</t>
+  </si>
+  <si>
+    <t>If you like very, very quiet evenings and weekends this is the place.  Located in a huge office park you’ll see few outsiders during that time. Clean and peaceful.It’s busier on the weekdays when the offices are open.Great for introverts.  You may want to avoid if you’re an extravert.  The introverts would appreciate it :)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Anita V, Front Office Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>If you like very, very quiet evenings and weekends this is the place.  Located in a huge office park you’ll see few outsiders during that time. Clean and peaceful.It’s busier on the weekdays when the offices are open.Great for introverts.  You may want to avoid if you’re an extravert.  The introverts would appreciate it :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r581769133-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>581769133</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent stay for one night </t>
+  </si>
+  <si>
+    <t>I was flying in for a interview with envoy air. The staff were very friendly and checked me in for that night. The breakfast was so good. The only thing was the ac was very loud when it on. It woke me up every time it came on. I was ok since I was there only one night. This was in room 240. If any more interviews with envoy air I will stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Anita V, Front Office Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>I was flying in for a interview with envoy air. The staff were very friendly and checked me in for that night. The breakfast was so good. The only thing was the ac was very loud when it on. It woke me up every time it came on. I was ok since I was there only one night. This was in room 240. If any more interviews with envoy air I will stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r569157853-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>569157853</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Excellent accommodations!</t>
+  </si>
+  <si>
+    <t>What a fantastic stay! Flew in to stay overnight prior to trans-Pacific flight! Friendly, fantastic staff greeted us upon arrival. The room was exceptionally comfortable! Very guest-oriented staff! Highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Anita V, Front Office Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>What a fantastic stay! Flew in to stay overnight prior to trans-Pacific flight! Friendly, fantastic staff greeted us upon arrival. The room was exceptionally comfortable! Very guest-oriented staff! Highly recommend this hotel!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r562808953-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>223937</t>
-  </si>
-  <si>
     <t>562808953</t>
   </si>
   <si>
@@ -177,9 +282,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Anita V, Front Office Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded February 27, 2018</t>
   </si>
   <si>
@@ -189,9 +291,6 @@
     <t>I have been staying here for 6 mos. on a job and they have made my stay here like being home with family.  Sandra is always ready to help you in whatever you need, Maylene makes the evening mixers just like hanging out with family.  Brenda and Joyce make sure you have a good breakfast and enough left over for snacks.  The front desk people are wonderful, Amy always has your packages and mail before you even ask.  As my time to check out draws close, I can’t help but be sad.  I will miss my Residence Inn family.  They have made my time away from home easier to bear.More</t>
   </si>
   <si>
-    <t>addtraveler10101</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r515593626-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -222,9 +321,6 @@
     <t>We stayed at this hotel once before because it's proximity to the airport. The rooms were clean and a little dated.  The hotel is being renovated and the rooms are great.  We had no idea the hotel was under construction AT ALL.  There was no sound of machinery.  No workman roaming around. Quiet and peaceful, can't wait to see the finished product. One hint- To get to any shopping or restaurants, you will need have a car or Uber it. There are really only offices in walking distance.More</t>
   </si>
   <si>
-    <t>ram995</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r513813386-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -246,7 +342,52 @@
     <t>This is a good hotel nearer to Highway and to many work places like Ayaya.The breakfast is good, staff is very co-operative. Restaurants are within 2 miles.Laundry is in second floor. Elevator is very slowMore</t>
   </si>
   <si>
-    <t>biloxibound</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r506834469-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>506834469</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Super nice staff, ok hotel</t>
+  </si>
+  <si>
+    <t>I debated between 3 and 4 "stars." For the price, this extended stay hotel is a good deal but it's not one of the better options for business travelers.  The staff are really nice and if management addresses a few items, this could be a much better experience.Positives:+ Conveniences like laundry  room (but no change machine), free breakfast, some free meals during the week, airport shuttle that also takes you within 5 miles of the hotel (for example, to the nearby Kroger).  + The rooms are cleaned well.  Kitchenette is typical.Here's what would help:- Better fitness center: on the plus side, it's open 24/7.  Unfortunately, it's tiny and not cleaned frequently, and there's no drinking water in the room.- The kidney-shaped, outdoor pool is warm and mainly for wading - not big enough for swimming.  Families and kids enjoyed it, however.- Need to equip the "business center," which is literally a small room with furniture from the 1970s.  No printer, no computer, no supplies.  You have to ask the front desk to print things for you.- Staff up for breakfast, esp. on weekends:  they can't keep up with the crowds, either in terms of food availability or wiping down tables. The location is convenient to the airport but the nearest restaurants are a mile away and you will hear and see planes constantly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>I debated between 3 and 4 "stars." For the price, this extended stay hotel is a good deal but it's not one of the better options for business travelers.  The staff are really nice and if management addresses a few items, this could be a much better experience.Positives:+ Conveniences like laundry  room (but no change machine), free breakfast, some free meals during the week, airport shuttle that also takes you within 5 miles of the hotel (for example, to the nearby Kroger).  + The rooms are cleaned well.  Kitchenette is typical.Here's what would help:- Better fitness center: on the plus side, it's open 24/7.  Unfortunately, it's tiny and not cleaned frequently, and there's no drinking water in the room.- The kidney-shaped, outdoor pool is warm and mainly for wading - not big enough for swimming.  Families and kids enjoyed it, however.- Need to equip the "business center," which is literally a small room with furniture from the 1970s.  No printer, no computer, no supplies.  You have to ask the front desk to print things for you.- Staff up for breakfast, esp. on weekends:  they can't keep up with the crowds, either in terms of food availability or wiping down tables. The location is convenient to the airport but the nearest restaurants are a mile away and you will hear and see planes constantly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r503700656-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>503700656</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Making much needed renovations</t>
+  </si>
+  <si>
+    <t>IN town for 2 nights for business. I like Residence Inns for the room size, kitchen and living room area. This facility is presently getting repairs made and that is a good idea. Staff helpful. Lobby printers unavailable so desk staff will print out your airline boarding pass for you. Airport shuttle does not leave early enough. Airplanes overhead all day an into the night so be prepared for the nice. Not a place for a light sleeperMoreShow less</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>IN town for 2 nights for business. I like Residence Inns for the room size, kitchen and living room area. This facility is presently getting repairs made and that is a good idea. Staff helpful. Lobby printers unavailable so desk staff will print out your airline boarding pass for you. Airport shuttle does not leave early enough. Airplanes overhead all day an into the night so be prepared for the nice. Not a place for a light sleeperMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r483041108-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -277,9 +418,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded May 30, 2017</t>
   </si>
   <si>
@@ -299,9 +437,6 @@
 Bottom line, I would highly recommend this hotel, And hope the...Traveled to Dallas this past weekend for family event. Booked 2 rooms (324 &amp; 326) for 1 night (5/5) thru Expedia.com. Chose this hotel b cause of proximity to the function, and the price ($74.00/night per room). We checked in Friday night about 7:15 pm with an extremely professional and welcoming young man. I believe his name was Steven. Could not have been more courteous. Asked us what floor we preferred, explains the hotel renovation and told us the 3rd/top floor had been completed. We chose it.The location was very easy to find, and in the middle of a very large business area so it was wonderfully quiet since I am sure this location gets Monday they Friday business travelers.Hotel was very clean.Rooms were spotless, great layout. Little nook for the bed, big "l" shaped couch that pulled out for a sleep sofa. Fridge, microwave, clean and nice supply of dish ware. Lovely scented soaps and lotion.Great desk space.Lots of plugs in the room for your gadgets.Great breakfast included. Nice selection of cereals, oatmeal and more toppings than I have ever seen, bagels, toasts, juices, coffees, eggs, sausage, waffles, yogurts. And the gentlemen in the breakfast Area making sure all items were full was great. We thanked him for getting us napkins and he replied with a genuine smile "it was my pleasure". Bottom line, I would highly recommend this hotel, And hope the staff sees this review and knows how great it was. It truly was genuine customer service with a smile.More</t>
   </si>
   <si>
-    <t>ub0b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r470026911-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -329,9 +464,6 @@
     <t>Amazing rooms, great price and good breakfast. Convenient for airport stay. My office staff was accosted at night in parking lot and disappointed that the hotel had no outdoor security cameras. The hotels in a nice safe neighborhood but some outdoor cameras would be useful. Property is being remodeled and they are doing a great job.More</t>
   </si>
   <si>
-    <t>Eboni B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r465948994-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -347,9 +479,6 @@
     <t>Room was so horrible I didn't stay, from seeing roach motel bait, white powder in the corners, (I assume roach powder) old dusty couch, loud noise in the hallway, at least 3 drug deals ( so it seemed)in the parking lot, it was by far the worst hotel I seen in my lifeMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded March 12, 2017</t>
   </si>
   <si>
@@ -359,7 +488,58 @@
     <t>Room was so horrible I didn't stay, from seeing roach motel bait, white powder in the corners, (I assume roach powder) old dusty couch, loud noise in the hallway, at least 3 drug deals ( so it seemed)in the parking lot, it was by far the worst hotel I seen in my lifeMore</t>
   </si>
   <si>
-    <t>Yorka V</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r455210005-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>455210005</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>My daughter was flying to Kansas State to go back to school.  With 2 plane cancellations due to mechanical issues and the 3rd cancelled due to horrific weather, American Airlines "kicked her to the curb" with no options available.  Went into "Mom mode" knowing my daughter would need a place to stay in Dallas and Marriott was my go to hotel.  WOW, I called Residence Inn in Dallas and spoke to Steven.  Clearly he could hear my concerns for my daughter and he assured me that all would be ok and it was perfect.  Due to delay at the airport my daughter missed the shuttle bus to the RI by minutes.  No problem as she called Steven at the RI and he got the shuttle to turn around to pick her up.  When she arrived he made sure she was secure (tornado warnings) and room was arranged.  My daughter said the rooms are beautiful and the next morning breakfast was fantastic.  Shuttle was prompt in taking her back to the airport.  I sincerely want to thank Steven for giving me comfort in knowing my daughter would be well taken care of, given the horrible circumstances she experienced with her flights.  Marriott - my go to favorite!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>My daughter was flying to Kansas State to go back to school.  With 2 plane cancellations due to mechanical issues and the 3rd cancelled due to horrific weather, American Airlines "kicked her to the curb" with no options available.  Went into "Mom mode" knowing my daughter would need a place to stay in Dallas and Marriott was my go to hotel.  WOW, I called Residence Inn in Dallas and spoke to Steven.  Clearly he could hear my concerns for my daughter and he assured me that all would be ok and it was perfect.  Due to delay at the airport my daughter missed the shuttle bus to the RI by minutes.  No problem as she called Steven at the RI and he got the shuttle to turn around to pick her up.  When she arrived he made sure she was secure (tornado warnings) and room was arranged.  My daughter said the rooms are beautiful and the next morning breakfast was fantastic.  Shuttle was prompt in taking her back to the airport.  I sincerely want to thank Steven for giving me comfort in knowing my daughter would be well taken care of, given the horrible circumstances she experienced with her flights.  Marriott - my go to favorite!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r419913659-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>419913659</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Slipping....</t>
+  </si>
+  <si>
+    <t>I normally stay at this property during my visits to Dallas; however, in this instance I felt things were slipping. Staff, although very nice, do not really seem to care about the little things. Very disappointing indeed! I started to iron my clothes but rust filled water was discharged all over the ironing board from the iron. No dish soap in my room and no desire to rectify the issue. Beds are too soft, room smelled of mold from the air conditioning. Exercise room had one towel, no water or cleaner to wipe down equipment. Overall, the impression I had was one of "I don't care anymore". I was booked for an eight day stay, but checked out after one night. Renovations have been taking place since April 2016, but I did not witness anything of significance which would account for the condition of the property or the smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>I normally stay at this property during my visits to Dallas; however, in this instance I felt things were slipping. Staff, although very nice, do not really seem to care about the little things. Very disappointing indeed! I started to iron my clothes but rust filled water was discharged all over the ironing board from the iron. No dish soap in my room and no desire to rectify the issue. Beds are too soft, room smelled of mold from the air conditioning. Exercise room had one towel, no water or cleaner to wipe down equipment. Overall, the impression I had was one of "I don't care anymore". I was booked for an eight day stay, but checked out after one night. Renovations have been taking place since April 2016, but I did not witness anything of significance which would account for the condition of the property or the smell.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r387586289-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -389,9 +569,6 @@
     <t>I am glad they are remodeling the interior, it really needs a facelift. Otherwise central location, friendly staff and very clean. I hope you don't kind the early flights because it is right on the takeoff runway but after 10 and after 7am only.More</t>
   </si>
   <si>
-    <t>jt93664</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r367305452-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -419,9 +596,6 @@
     <t>Check in was fast because there is nobody LOL. Seem very few occupants when I check in. Property condition good, room ok but a little outdated .  Location is around corporate office and about 15 mins to airport car rental per my Gps . Not many restaurant around , just a Denny 2 mins away. There rest appx 5-10mins away 2 exit down.Breakfast same as other residence inn.Overall it's good. More</t>
   </si>
   <si>
-    <t>Ghost4314</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r363144731-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -446,7 +620,49 @@
     <t>GREAT STAFF! Feel as if I'm coming home as everyone recognizes me and greets me by name. Locationi is perfect for my needs, close to the airport and training facilities.Currently undergoing renovation, which will make this property perfect in a month or so. Beds are too soft for my liking (I ended up with an extremely sore back) but have been told the mattresses shall be changed next year.More</t>
   </si>
   <si>
-    <t>food4thought518</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r357652138-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>357652138</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient</t>
+  </si>
+  <si>
+    <t>I just finished a one night stay.  The hotel is a pretty typical Residence Inn - lots of long hall ways and separated buildings from the main lobby.  It is very clean and well maintained but a little dated.  The staff were all very helpful and friendly.The hotel is very convenient to both DFW (with a free shuttle) and with easy access to 635.On the down side, there can be some aircraft noise since it is very near the approach and departure paths - not bad, but noticeable.I prefer to stay at the DFW Marriott North, but this is a good alternative and good value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>I just finished a one night stay.  The hotel is a pretty typical Residence Inn - lots of long hall ways and separated buildings from the main lobby.  It is very clean and well maintained but a little dated.  The staff were all very helpful and friendly.The hotel is very convenient to both DFW (with a free shuttle) and with easy access to 635.On the down side, there can be some aircraft noise since it is very near the approach and departure paths - not bad, but noticeable.I prefer to stay at the DFW Marriott North, but this is a good alternative and good value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r355017420-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>355017420</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant stay </t>
+  </si>
+  <si>
+    <t>Pleasant &amp; quiet stay. A little confusing as to how to get to the front desk from my room but the more I walked down the corridors I found my way. Lol!! Guest services had a smile while replacing the toaster and brought up pans for top stove burner. I would recommend this hotel for any form of stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Pleasant &amp; quiet stay. A little confusing as to how to get to the front desk from my room but the more I walked down the corridors I found my way. Lol!! Guest services had a smile while replacing the toaster and brought up pans for top stove burner. I would recommend this hotel for any form of stay. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r343140734-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -476,9 +692,6 @@
     <t>With the storm on the was coast we were stranded in Dallas. As a Marriot loyal customer we went to the residence inn to fit our family of six. Though not the nicest residence inn I have stayed at, as always it met and exceeded our expectations. Clean, well appointed, great service and breakfast.More</t>
   </si>
   <si>
-    <t>KEE_12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r336469451-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -506,9 +719,6 @@
     <t>I spent two nights at this hotel and it was quiet and comfortable. The planes did fly over but it was disturbing unless you have the window open. It was fun to watch them fly in until the monsoon rain hit...they shut down the airport. The staff was very nice and the breakfast good. I would stay here again!More</t>
   </si>
   <si>
-    <t>ndhavon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r327491082-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -536,7 +746,58 @@
     <t>A great and comfortable stay at this hotel.  We were in the area visiting from out of town.  The staff was very welcoming.  The hotel shuttle was an awesome added addition to our stay.  We were able to get a ride on the shuttle to the area restaurants.  It was great.More</t>
   </si>
   <si>
-    <t>Aviegirl</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r322163963-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>322163963</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for approximately 4 weeks.  The hotel staff is very nice.  Honorable mention to the morning cook, Kim the hotel driver, and JESSICA!!!  Jessica went above and beyond.  I had to leave the hotel unexpectedly and she went to my room 233, and packed up the belongings I left behind and shipped them to me.  I am not sure what other hotels do, but for me, this meant the world.  All of my dainty underlings were left behind.  It's always nice to have new things, but I just wanted my stuff and she was kind enough to take care of this for me.  Jessica, I am forever in debt for your kindness and follow through.  The customer service at this hotel cannot be beat.  Kudos to Jessica and give her a raise.  Kimberly Duggins room 233MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for approximately 4 weeks.  The hotel staff is very nice.  Honorable mention to the morning cook, Kim the hotel driver, and JESSICA!!!  Jessica went above and beyond.  I had to leave the hotel unexpectedly and she went to my room 233, and packed up the belongings I left behind and shipped them to me.  I am not sure what other hotels do, but for me, this meant the world.  All of my dainty underlings were left behind.  It's always nice to have new things, but I just wanted my stuff and she was kind enough to take care of this for me.  Jessica, I am forever in debt for your kindness and follow through.  The customer service at this hotel cannot be beat.  Kudos to Jessica and give her a raise.  Kimberly Duggins room 233More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r317317229-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>317317229</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Hotel staff was extremely friendly and helpful especially when checking out. Laundry room was very convenient $2 for wash and $1 for dryer. Hotel gym could get crowded at times but it was very empty in the mornings. Overall a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Hotel staff was extremely friendly and helpful especially when checking out. Laundry room was very convenient $2 for wash and $1 for dryer. Hotel gym could get crowded at times but it was very empty in the mornings. Overall a great stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r316429461-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -554,9 +815,6 @@
     <t>Last visit cold shower.  Management didn't seem to care.  One month later the put back in the same room.  Hair dryer broken prior to a work day.  A lot has changed with Residence Inn Hotels.  No hot evening meal.  Cheese and Hummad with stale Chios and crackers.  Carrots and celary with ranch dressing.  For $200 per night I should have at least a salad and hot meal.  Let's see hat Tuesday meal brings.  We know Wednesday evening is desert night.  How about a hot meal?  Use to be Monday through Thursday hot meals.  Now they are more interested in making money than happy guest!  This is a rip off.  Go else where.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded October 6, 2015</t>
   </si>
   <si>
@@ -566,9 +824,6 @@
     <t>Last visit cold shower.  Management didn't seem to care.  One month later the put back in the same room.  Hair dryer broken prior to a work day.  A lot has changed with Residence Inn Hotels.  No hot evening meal.  Cheese and Hummad with stale Chios and crackers.  Carrots and celary with ranch dressing.  For $200 per night I should have at least a salad and hot meal.  Let's see hat Tuesday meal brings.  We know Wednesday evening is desert night.  How about a hot meal?  Use to be Monday through Thursday hot meals.  Now they are more interested in making money than happy guest!  This is a rip off.  Go else where.More</t>
   </si>
   <si>
-    <t>USR1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r315551501-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -584,15 +839,9 @@
     <t>Large clean rooms, older style residence inn.  This is located in an office park, no stores or restaurants within easy walking distance.  Breakfast was OK, a little below the typical residence inn standard (no granola for yogurt when i was there and the daily selection of meats/potatoes did not vary much).  Stayed for 4 days on business.  Would stay again if in this area of Irving.MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>Large clean rooms, older style residence inn.  This is located in an office park, no stores or restaurants within easy walking distance.  Breakfast was OK, a little below the typical residence inn standard (no granola for yogurt when i was there and the daily selection of meats/potatoes did not vary much).  Stayed for 4 days on business.  Would stay again if in this area of Irving.More</t>
   </si>
   <si>
-    <t>REmom2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r314441324-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -617,7 +866,64 @@
     <t>Stayed here to catch early flight at DFW- won't do it again. Yes, other reviewers are correct, you can hear the planes, and quite clearly, even on the ground floor rooms. We stayed on ground floor and the slab is obviously cracked as the floor slopes terribly in multiple places making it weird to walk around the room. Also, the room has a dank smell to it. We didn't notice it when we first walked into the room, and it's possible it came from the A/C, but we both woke up with sore throats and feeling crummy and after going to get breakfast in the lobby, when we returned to our room we noticed the very pronounced moldy/mildewy smell to the room. I should note the breakfast offered was crap- we didn't eat anything and waited to eat at the airport. Everything was runny- runny eggs, runny oatmeal- yuck. The gym was a joke- so tiny. It's so small the elliptical is right in front of the glass door so everyone walking by can watch your behind as you run and with just one person (me) working out it got incredibly hot and uncomfortable in there. They have the elliptical, 2 treadmills and a weight bench with some dumbbells. Although the front desk staff was very nice, we won't be back to this hotel. I can't afford any sick days and I was sick with a cough for days after...Stayed here to catch early flight at DFW- won't do it again. Yes, other reviewers are correct, you can hear the planes, and quite clearly, even on the ground floor rooms. We stayed on ground floor and the slab is obviously cracked as the floor slopes terribly in multiple places making it weird to walk around the room. Also, the room has a dank smell to it. We didn't notice it when we first walked into the room, and it's possible it came from the A/C, but we both woke up with sore throats and feeling crummy and after going to get breakfast in the lobby, when we returned to our room we noticed the very pronounced moldy/mildewy smell to the room. I should note the breakfast offered was crap- we didn't eat anything and waited to eat at the airport. Everything was runny- runny eggs, runny oatmeal- yuck. The gym was a joke- so tiny. It's so small the elliptical is right in front of the glass door so everyone walking by can watch your behind as you run and with just one person (me) working out it got incredibly hot and uncomfortable in there. They have the elliptical, 2 treadmills and a weight bench with some dumbbells. Although the front desk staff was very nice, we won't be back to this hotel. I can't afford any sick days and I was sick with a cough for days after leaving this hotel.More</t>
   </si>
   <si>
-    <t>gak909</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r288707934-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>288707934</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Pluses and Minuses</t>
+  </si>
+  <si>
+    <t>We booked an attractive deal online at this property because of its proximity to DFW for early morning flights, and we received the essence of what we were hoping ... proximity and a good deal.  
+To be fair, guests should know that even though "rollaway bed" is an option online, you are informed upon arrival that there are no rollaway beds anywhere on the property due to city code.  The front desk representative was very apologetic.
+For us, that meant using Plan B, the pullout sofa sleeper.  Sheets and a blanket are provided, but no pillows.  Upon checking with the front desk, we were also informed that no pillows are available.  A different front desk representative was also very apologetic.
+The 1 bed in our suite was a double (not a queen) and was hilariously sloped toward the middle.  Apparently, a LOT of folks have been attracted to this property's affordability and proximity!
+At that point, we just started laughing to ourselves realizing that, once again, you get what you pay for.
+So, when we awoke a few hours later and saw the giant cockroach scurrying about on the carpet, we were motivated to check out even quicker which, alas, due to that convenient proximity, meant we were through security and waiting on our plane with plenty of time to spare! 
+This property did let us check in hours before the normal check in time, for which we were very...We booked an attractive deal online at this property because of its proximity to DFW for early morning flights, and we received the essence of what we were hoping ... proximity and a good deal.  To be fair, guests should know that even though "rollaway bed" is an option online, you are informed upon arrival that there are no rollaway beds anywhere on the property due to city code.  The front desk representative was very apologetic.For us, that meant using Plan B, the pullout sofa sleeper.  Sheets and a blanket are provided, but no pillows.  Upon checking with the front desk, we were also informed that no pillows are available.  A different front desk representative was also very apologetic.The 1 bed in our suite was a double (not a queen) and was hilariously sloped toward the middle.  Apparently, a LOT of folks have been attracted to this property's affordability and proximity!At that point, we just started laughing to ourselves realizing that, once again, you get what you pay for.So, when we awoke a few hours later and saw the giant cockroach scurrying about on the carpet, we were motivated to check out even quicker which, alas, due to that convenient proximity, meant we were through security and waiting on our plane with plenty of time to spare! This property did let us check in hours before the normal check in time, for which we were very grateful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Ron W, Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>We booked an attractive deal online at this property because of its proximity to DFW for early morning flights, and we received the essence of what we were hoping ... proximity and a good deal.  
+To be fair, guests should know that even though "rollaway bed" is an option online, you are informed upon arrival that there are no rollaway beds anywhere on the property due to city code.  The front desk representative was very apologetic.
+For us, that meant using Plan B, the pullout sofa sleeper.  Sheets and a blanket are provided, but no pillows.  Upon checking with the front desk, we were also informed that no pillows are available.  A different front desk representative was also very apologetic.
+The 1 bed in our suite was a double (not a queen) and was hilariously sloped toward the middle.  Apparently, a LOT of folks have been attracted to this property's affordability and proximity!
+At that point, we just started laughing to ourselves realizing that, once again, you get what you pay for.
+So, when we awoke a few hours later and saw the giant cockroach scurrying about on the carpet, we were motivated to check out even quicker which, alas, due to that convenient proximity, meant we were through security and waiting on our plane with plenty of time to spare! 
+This property did let us check in hours before the normal check in time, for which we were very...We booked an attractive deal online at this property because of its proximity to DFW for early morning flights, and we received the essence of what we were hoping ... proximity and a good deal.  To be fair, guests should know that even though "rollaway bed" is an option online, you are informed upon arrival that there are no rollaway beds anywhere on the property due to city code.  The front desk representative was very apologetic.For us, that meant using Plan B, the pullout sofa sleeper.  Sheets and a blanket are provided, but no pillows.  Upon checking with the front desk, we were also informed that no pillows are available.  A different front desk representative was also very apologetic.The 1 bed in our suite was a double (not a queen) and was hilariously sloped toward the middle.  Apparently, a LOT of folks have been attracted to this property's affordability and proximity!At that point, we just started laughing to ourselves realizing that, once again, you get what you pay for.So, when we awoke a few hours later and saw the giant cockroach scurrying about on the carpet, we were motivated to check out even quicker which, alas, due to that convenient proximity, meant we were through security and waiting on our plane with plenty of time to spare! This property did let us check in hours before the normal check in time, for which we were very grateful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r287712739-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>287712739</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Convenient to DFW</t>
+  </si>
+  <si>
+    <t>Stayed here one night to catch an early flight.  The hotel is exactly what you'd expect from a Residence Inn. The room was larger than typical hotel/motel room and spotless. The staff helpful and friendly. There is an airport shuttle to pick and drop off. They were ready  and waiting for pick up at our prearranged time. Didn't have time to eat, so I can't comment on the complimentary breakfast. The guests that were eating seemed satisfied. A good stress free place to start a holiday.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here one night to catch an early flight.  The hotel is exactly what you'd expect from a Residence Inn. The room was larger than typical hotel/motel room and spotless. The staff helpful and friendly. There is an airport shuttle to pick and drop off. They were ready  and waiting for pick up at our prearranged time. Didn't have time to eat, so I can't comment on the complimentary breakfast. The guests that were eating seemed satisfied. A good stress free place to start a holiday.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r283260949-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -644,9 +950,6 @@
     <t>We stayed here for one night with a late arrival flight. Room was ready and comfy and held until we arrived quite late. Comfy, safe feeling and friendly staff who was very helpful. It is very close to the airport, while you hear the planes, not unusually loud either which was a pleasant surprise.More</t>
   </si>
   <si>
-    <t>ZeeBabester</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r282495342-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -665,9 +968,6 @@
     <t>Stayed here for an overnight business trip.Hotel Shuttle from airport was quick, driver was professional and polite. The Desk Clerk checked me in quickly, provided me with take out menus and recommendations. I used the pool and found it clean and enjoyed some sunbathing. My room was clean and relatively quiet considering the planes flying overhhead. I slept comfortably and in the morning enjoyed the abundant and fresh breakfast buffett.More</t>
   </si>
   <si>
-    <t>Earl H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r282471526-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -683,7 +983,61 @@
     <t>This being a Father's Day trip for me, was happy that everything worked out so well. I called from the airport, they quickly had a shuttle come get me. At the desk I was about to ask for room on the upper floor but he quickly stated he had me room for me.He read my Marriott profile, I was all smiles. My family showed up, impressed with the large room, clean bathroom, TV and etc. I was a proud Father.....thanksMore</t>
   </si>
   <si>
-    <t>Robert B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r274260050-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>274260050</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Great Airport Hotel</t>
+  </si>
+  <si>
+    <t>Picked this hotel near to DFW.  A good choice.  Room was great.  Staff was great.  Location near to DFW but not right on the doorstep.  Two couples traveling together had a two bedroom two bath suite.  A little noisy in the morning when  a compressor started near the room.  All in all a good experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Picked this hotel near to DFW.  A good choice.  Room was great.  Staff was great.  Location near to DFW but not right on the doorstep.  Two couples traveling together had a two bedroom two bath suite.  A little noisy in the morning when  a compressor started near the room.  All in all a good experienceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r261555993-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>261555993</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>2nd Class Citizen</t>
+  </si>
+  <si>
+    <t>I stayed this past weekend. This was my first time to the property. Upon arrival I met with a very "matter of fact" desk agent who told us that if we wanted to check in early we would have to pay for an extra night--even if arriving on the day of check in. We declined the offer and she refused to check us in. So we sat in the lobby for 6 hours before being offered a less of a room (studio when we booked 1 bedroom suite, however the manager just couldn't give us an upgrade to a 2 bed suite) just to get us into something so we could get some rest. I believe this treatment was because of the rate I was paying and the color of our skin. I have worked in hotels for over 10 years and have always allowed guests to check in early if I had rooms available, upgrades as well. I never made a guest sleep in a lobby for 6 hours while telling them it would be a couple hours every 2 hours we asked about it. The room itself was fine. The hotel shows its age in the common areas and in some parts of the room. The hotel is on a flight path for the DFW airport so if you want a jet whisking 200ft above your hotel room every 45 seconds you may want to choose another option....I stayed this past weekend. This was my first time to the property. Upon arrival I met with a very "matter of fact" desk agent who told us that if we wanted to check in early we would have to pay for an extra night--even if arriving on the day of check in. We declined the offer and she refused to check us in. So we sat in the lobby for 6 hours before being offered a less of a room (studio when we booked 1 bedroom suite, however the manager just couldn't give us an upgrade to a 2 bed suite) just to get us into something so we could get some rest. I believe this treatment was because of the rate I was paying and the color of our skin. I have worked in hotels for over 10 years and have always allowed guests to check in early if I had rooms available, upgrades as well. I never made a guest sleep in a lobby for 6 hours while telling them it would be a couple hours every 2 hours we asked about it. The room itself was fine. The hotel shows its age in the common areas and in some parts of the room. The hotel is on a flight path for the DFW airport so if you want a jet whisking 200ft above your hotel room every 45 seconds you may want to choose another option. But the service and employees from the General Manager to the night auditor to the ditzy morning clerk that relived her that morning all were unaccommodating and very matter of fact. I won't be back, there are too many other hotels in the Dallas area to put up with that crap.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>I stayed this past weekend. This was my first time to the property. Upon arrival I met with a very "matter of fact" desk agent who told us that if we wanted to check in early we would have to pay for an extra night--even if arriving on the day of check in. We declined the offer and she refused to check us in. So we sat in the lobby for 6 hours before being offered a less of a room (studio when we booked 1 bedroom suite, however the manager just couldn't give us an upgrade to a 2 bed suite) just to get us into something so we could get some rest. I believe this treatment was because of the rate I was paying and the color of our skin. I have worked in hotels for over 10 years and have always allowed guests to check in early if I had rooms available, upgrades as well. I never made a guest sleep in a lobby for 6 hours while telling them it would be a couple hours every 2 hours we asked about it. The room itself was fine. The hotel shows its age in the common areas and in some parts of the room. The hotel is on a flight path for the DFW airport so if you want a jet whisking 200ft above your hotel room every 45 seconds you may want to choose another option....I stayed this past weekend. This was my first time to the property. Upon arrival I met with a very "matter of fact" desk agent who told us that if we wanted to check in early we would have to pay for an extra night--even if arriving on the day of check in. We declined the offer and she refused to check us in. So we sat in the lobby for 6 hours before being offered a less of a room (studio when we booked 1 bedroom suite, however the manager just couldn't give us an upgrade to a 2 bed suite) just to get us into something so we could get some rest. I believe this treatment was because of the rate I was paying and the color of our skin. I have worked in hotels for over 10 years and have always allowed guests to check in early if I had rooms available, upgrades as well. I never made a guest sleep in a lobby for 6 hours while telling them it would be a couple hours every 2 hours we asked about it. The room itself was fine. The hotel shows its age in the common areas and in some parts of the room. The hotel is on a flight path for the DFW airport so if you want a jet whisking 200ft above your hotel room every 45 seconds you may want to choose another option. But the service and employees from the General Manager to the night auditor to the ditzy morning clerk that relived her that morning all were unaccommodating and very matter of fact. I won't be back, there are too many other hotels in the Dallas area to put up with that crap.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r258680332-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -701,9 +1055,6 @@
     <t>Like most Residence Inns, the rooms are large with kitchens.  The room was clean.  The common areas, on the other hand, are not well maintained.  The stairwells and hallways are dirty.  You can see debris on the edges of the carpets.  The hotel interior is dated, older style Marriott interiors and they have not kept up.  The workout room was a joke.  Tiny with very limited equipment.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded March 10, 2015</t>
   </si>
   <si>
@@ -713,9 +1064,6 @@
     <t>Like most Residence Inns, the rooms are large with kitchens.  The room was clean.  The common areas, on the other hand, are not well maintained.  The stairwells and hallways are dirty.  You can see debris on the edges of the carpets.  The hotel interior is dated, older style Marriott interiors and they have not kept up.  The workout room was a joke.  Tiny with very limited equipment.More</t>
   </si>
   <si>
-    <t>Tommy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r255609809-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -743,9 +1091,6 @@
     <t>Far from the airport and restaurants but it was enjoyable to sleep in a comfortable bed. I would recommend staying here due to complementary breakfast, outside pool and lunch/dinner room service. The night auditor was very helpful and polite.More</t>
   </si>
   <si>
-    <t>Saltexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r243183215-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -764,7 +1109,40 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Wen B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r232894502-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>232894502</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We only stayed bc of convenience to airport. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My boyfriend had an early flight the next morning so we checked into this place. The rooms were really small and the hotel looked older. The room was small and the television in the bedroom didn't get the same channel as in the living room so I couldn't watch my choice of show. Airplanes all night long were flying right over our room. We could only hear that all night long. Stay here if you need to be close to airport for an early flight out not for convenience. They do have a microwave and refrigerator. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r232205401-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>232205401</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Vinnie needs a gold star!</t>
+  </si>
+  <si>
+    <t>After a long day of travel and few stressful moments with the airlines, it was nice to see a helpful and smiling face at the end of our journey.  Vinnie, the night desk clerk at the Residence Inn was very positive and upbeat at 10:00PM.  He checked us in quickly and provided us info on a very good pizza place that delivered.  He in essence took a lot of the stress out of our day.  It was also very good to get into a nice Marriott Room and go to bed in a comfy bed.  We love Marriott and Vinnie made it much better..</t>
+  </si>
+  <si>
+    <t>September 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r228026014-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -782,18 +1160,9 @@
     <t>All in all I got what I expected.. reasonable price.. clean room.. peace and quiet. Went to Dallas to catch the Cowboy home opener. Checked in Friday solo. Had two relatives join me later. I was the only "authorized" guest (credit card/id) per the hotel. Unfortunately, this location allowed an individual without any identification to obtain an access card to my suite. Imagine the horror I felt while out having dinner after the game when I discovered that this individual was within my room. After advising the front desk as to what happened I was assured that the Manager and General Manager would handle the situation the next morning. To my surprise the next morning the Manager wanted to place the blame of the individual being in my room. Really? A complete stranger came to the front desk and requested a key to room 319 and your staff willingly gave the person a key without confirming with me if I approved or without any identification. Wow.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>All in all I got what I expected.. reasonable price.. clean room.. peace and quiet. Went to Dallas to catch the Cowboy home opener. Checked in Friday solo. Had two relatives join me later. I was the only "authorized" guest (credit card/id) per the hotel. Unfortunately, this location allowed an individual without any identification to obtain an access card to my suite. Imagine the horror I felt while out having dinner after the game when I discovered that this individual was within my room. After advising the front desk as to what happened I was assured that the Manager and General Manager would handle the situation the next morning. To my surprise the next morning the Manager wanted to place the blame of the individual being in my room. Really? A complete stranger came to the front desk and requested a key to room 319 and your staff willingly gave the person a key without confirming with me if I approved or without any identification. Wow.More</t>
   </si>
   <si>
-    <t>Jennifer M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r226997696-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -821,9 +1190,6 @@
     <t>General manager was working a double or triple...but was very accomodating when ran out of pillows etc. He was a good guy, in poor staffing situation,  and handled it well. Breakfast wasnt avail when we left at 5am, so that was a bummer. Front auditor took us to airport, and refused tips. She was sweet, and we will stay again in future!More</t>
   </si>
   <si>
-    <t>bizmarit</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r223439864-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -845,7 +1211,40 @@
     <t>I called when I landed at the airport and they sent a shuttle immediately over to pick me up and stayed on the phone to help navigate me to the right spot to be picked up. I was welcomed with a complimentary social hour (that they hold every weekday evening) which I enjoyed in the outside seating that is available. Breakfast had a fair selection of items, nothing extraordinary but I liked having eggs, some fresh fruit and yogurt available although would not recommend the tasteless oatmeal. The furniture in the room was in good condition. When I came back the next day they greeted me by name, asking if they could help me find anything. They were very personable. Fitness center is tiny but functional with an elliptical, stationary bike, two treadmills, bench and some limited free weights. Airplanes do go over head which can be fairly loud when sitting by the grill or pool area but it has a very short commute to DFW airport which made flying in for a work conference much easier. Negatives: The wifi connection was really weak and my phone would not connect to it. The printer wasn't working in the business center.  There is not much in the surrounding area.More</t>
   </si>
   <si>
-    <t>lvstravling</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r216476472-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>216476472</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>We stayed here because my husband had an early flight at DFW. It took us 15 minutes to get checked in then we had to go back to the front desk because she hadn't activated our keys. Their shuttle service doesn't start until 6 am which did us no good for his 6:15 flight. The hotel seemed old and the elevator smelled horrible. The room looked like it hadn't been updated for 15 years outside of a small flat screen tv and smelled bad.  It is in an industrial area so nothing nearby and with the condition of the room I ended up not coming back to the room after I left the airport.  The hallways and entryways looked like they hadn't been swept all weekend and our room was tiny.  The breakfast area reminded me of a very low end hotel, not at all what I would expect from a Marriott brand location.  I've stayed at other Residence Inns and they were so much nicer than this, definitely won't ever be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here because my husband had an early flight at DFW. It took us 15 minutes to get checked in then we had to go back to the front desk because she hadn't activated our keys. Their shuttle service doesn't start until 6 am which did us no good for his 6:15 flight. The hotel seemed old and the elevator smelled horrible. The room looked like it hadn't been updated for 15 years outside of a small flat screen tv and smelled bad.  It is in an industrial area so nothing nearby and with the condition of the room I ended up not coming back to the room after I left the airport.  The hallways and entryways looked like they hadn't been swept all weekend and our room was tiny.  The breakfast area reminded me of a very low end hotel, not at all what I would expect from a Marriott brand location.  I've stayed at other Residence Inns and they were so much nicer than this, definitely won't ever be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r206542401-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>206542401</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Nice and Clean Hotel with Marriott Standard</t>
+  </si>
+  <si>
+    <t>Fast and friendly check in. The receptionist (Guy) was very helpful with informations about room location, parking, complimentary social hour and breakfast. The room was very clean. The breakfast buffet had a good variety of food and a very nice lady took care of filling up the whole time.The free WiFi in the room was reliable. Before leaving I wanted to print out my boarding pass, and the very helpful receptionist (Shannon ?) did it for me.  All in all: nice, clean hotel with a very good and friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Fast and friendly check in. The receptionist (Guy) was very helpful with informations about room location, parking, complimentary social hour and breakfast. The room was very clean. The breakfast buffet had a good variety of food and a very nice lady took care of filling up the whole time.The free WiFi in the room was reliable. Before leaving I wanted to print out my boarding pass, and the very helpful receptionist (Shannon ?) did it for me.  All in all: nice, clean hotel with a very good and friendly staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r205348154-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -872,9 +1271,6 @@
     <t>We stay at Residence Inns frequently as we like the two bedroom suite option.  This is the first Residence Inn that I have stayed at that was extremely outdated.  Nothing in the kitchen or bath area has been updated.  The lobby presented a new and updated appearance, but when you got to the rooms they were old and worn.  Breakfast did not offer many options.  It was satisfactory for a stay close to the airport, but I would have been extremely disappointed if I had booked this hotel for a long term stay.  I paid the same price for this room as I did at another Residence Inn on this same trip which was tastefully updated and maintained.More</t>
   </si>
   <si>
-    <t>SalemTravelBureau</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r203167099-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -894,9 +1290,6 @@
   </si>
   <si>
     <t>Exactly as promised for an airport stop-over hotel.  The casual, comfortable, clean expectation was met by Residence Inn/Marriott standards.  After claiming luggage, we phoned the hotel for a courtesy shuttle.  We were told were to wait and the new suv, shuttle was there in the promised time.  On arrival at the hotel, a quick and trouble free check-in.  Reservation as confirmed.  After dropping luggage in our room, we returned to the lobby for a free self/service dinner of grilled chicken breast, vegetables and salad served with free soft drinks, coffee/tea, beer and wine.  After a 15+ hour flight from Sydney, a warm meal and a comfortable bed was all we needed. Our flight the next morning was at 7AM, shuttle begins at 6AM.  When we inquired the evening on arrival about an earlier shuttle we were told it would be arranged. Actually, the breakfast cook, Mae, drove us to the airport. The breakfast was much more than continental with hot eggs, hash browns, sausage, etc...  All anyone needs to get going in the morning was offered, no charge. The room was as expected,we only stayed a night but could have moved in.  Full kitchen, living room opening to bedroom and bath.  After checking emails on free wifi, we turned the large flat screen television to watch in bed.Value for the money, you can't go wrong with Residence Inn and Marriott.  Enjoy this hotel and thank me later.More</t>
-  </si>
-  <si>
-    <t>JenniferW2430</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r200032045-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -930,7 +1323,40 @@
 Overall, a very nice place to stay.  It did appear that some remodeling is going on in various areas of the hotel, but nothing that interfered...My family overnighted in Dallas/Fort Worth en route to Cancun, staying at Residence Inn Dallas DFW Airport North/Irving on March 26, 2014.  I chose this hotel based on its courtesy airport shuttle, breakfast, and price.  Upon our late arrival at DFW airport, I placed a call to the hotel to request the courtesy shuttle.  The front desk person, "Guy", was very pleasant over the phone and was able to provide clear instructions on where to meet the shuttle driver, "Johnny".  Johnny arrived in a very nice and comfortable GMC suv approximately 15 minutes later.  We enjoyed our trip to the hotel.  After we checked in and delivered our baggage to the room, Johnny drove us to a nearby restaurant for dinner.  He also returned us safely to the hotel for a comfortable night's stay.The room was clean and well-furnished with a queen bed in the bedroom, decent-sized bathroom with vanity and sink located outside the toilet/shower area, two flat screen TVs, kitchenette, work desk, sofa bed and chairs.  Breakfast was provided in a large room near the lobby and offered all you expect--waffles, fruit, yogurt, breads, etc.  We scheduled a return shuttle and another efficient and friendly driver (whose name I cannot recall) delivered us safely back to the airport the next morning.Overall, a very nice place to stay.  It did appear that some remodeling is going on in various areas of the hotel, but nothing that interfered with our stay.  We did hear planes flying overhead despite being on the first floor.  The hotel is located in an industrial park, so most restaurants and shopping are a distance away.  The hotel courtesy shuttle, when not in use picking up/dropping off guests at the airport, is available to take you anywhere within five miles of the hotel, thus offering a wide variety of places to eat, shop, etc.I would not hesitate to recommend this hotel to anyone seeking a nicely furnished and comfortable room in an airport hotel near DFW.More</t>
   </si>
   <si>
-    <t>Jason W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r199208073-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>199208073</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Impressed by the staff</t>
+  </si>
+  <si>
+    <t>When you landed at DFW and called for the shuttle.  We were picked up by an unmarked small SUV (ask for the make, model and color).  We waited about 30 mins from the time we landed because we missed him the first time. It took about 10-15 mins to get to the hotel. The vehicle fits 5 with carry-on luggages or 4 people with lots of luggages. After dropping of our luggages we went to our favorite seafood restaurant for dinner.  The driver gave us a courtesy drop-off and pick-up for our dinner.  We had a great experience with our 1 night stop over at this hotel.  There is a basketball court, BBQ grill with nice patio furnitures and a tiny pool.  Other basics include a small gym, business center and snack for purchase.MoreShow less</t>
+  </si>
+  <si>
+    <t>When you landed at DFW and called for the shuttle.  We were picked up by an unmarked small SUV (ask for the make, model and color).  We waited about 30 mins from the time we landed because we missed him the first time. It took about 10-15 mins to get to the hotel. The vehicle fits 5 with carry-on luggages or 4 people with lots of luggages. After dropping of our luggages we went to our favorite seafood restaurant for dinner.  The driver gave us a courtesy drop-off and pick-up for our dinner.  We had a great experience with our 1 night stop over at this hotel.  There is a basketball court, BBQ grill with nice patio furnitures and a tiny pool.  Other basics include a small gym, business center and snack for purchase.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r195446272-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>195446272</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>great place to stay close to DFW</t>
+  </si>
+  <si>
+    <t>This hotel is in a business park area. It took us a while to find it, but once we did, we were happy ! comfortable rooms and nice bathrooms. Standard RI breakfast. The front desk staff is very friendly and hospitable, especially Shannon and Anita. I would recommend this hotel to anyone that wants to be close to DFW and have some space !</t>
+  </si>
+  <si>
+    <t>February 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191583352-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -951,9 +1377,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Jeff_S_Bell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191582339-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -969,9 +1392,6 @@
     <t>This Residence Inn and the staff simply make getting in, staying, and getting out as easy as possible.  They are exceptionally hospitable and helpful in every way.  The rooms are what you expect from a residence with plenty of space, the kitchenette, and well taken care of by the cleaning crews.  The hotel provides a variety of week night dinners that are well done and hit the spot after a long day.  They have a flexible shuttle service until 11pm that makes getting to and from the airport convenient.   Across the board, the staff seems to work together as a team and the guests are always treated with great care.  I've had a few extended stays at this property and would highly recommend it!More</t>
   </si>
   <si>
-    <t>Cabot M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r191239589-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -999,7 +1419,63 @@
     <t>This is a very convenient location to stay for my business which is within walking distance to the hotel.  Very isolated location though unless taking the hotel van which I believe is offered to local malls etc.  The staff has always been helpful beyond expectation, stayed here many times.  Sadly the property is getting a bit dated and last visit my bed just wasn't helping me get a good nights rest.  They have been working on the exterior and maybe they'll continue on the inside soon.  Breakfast is descent, evening reception becoming a bit minimal but a great, safe location if you have business in the area.More</t>
   </si>
   <si>
-    <t>CPofMN</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r188700331-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>188700331</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Not a lot of pride in the service or appearance of this hotel</t>
+  </si>
+  <si>
+    <t>The hotel is located right near the airport.  You are going to hear noise.
+Negatives:
+-- Upon entering the room, the temp inside the room was 62 degrees.  It was 30 degrees outside.  When you are giving out rooms, please ensure it's at an acceptable temp level.  It took a couple of hours for the room to be tolerable.  
+-- No coffee pot in the room.  All of the ingredients were there but no coffee pot.  We asked twice, left a note but never received copy. 
+-- Card readers on the doors do not work properly.  We were told of the "secret maneuver" to make them work by the front office desk staff.  Fix the readers please.
+-- Front office desk was poorly dressed:  he had rips tears in his shirt and was not professional in dealing with us at all.  I think we interrupted him from his Halo 3 game or internet porn surfing.
+-- Door to the bathroom did not shut properly.  When it's business time I like a little privacy.  Fix the doors please.
+Full disclosure:  I am a Marriott Elite Rewards member and stay at Marriott properties whenever I can.  That being said, I will NEVER stay at this hotel again.  It was easily the worst experience we have had at a Marriott property.  I contacted the Mgmt and they were to give me some additional rewards points.  Like all things at this property, it was...The hotel is located right near the airport.  You are going to hear noise.Negatives:-- Upon entering the room, the temp inside the room was 62 degrees.  It was 30 degrees outside.  When you are giving out rooms, please ensure it's at an acceptable temp level.  It took a couple of hours for the room to be tolerable.  -- No coffee pot in the room.  All of the ingredients were there but no coffee pot.  We asked twice, left a note but never received copy. -- Card readers on the doors do not work properly.  We were told of the "secret maneuver" to make them work by the front office desk staff.  Fix the readers please.-- Front office desk was poorly dressed:  he had rips tears in his shirt and was not professional in dealing with us at all.  I think we interrupted him from his Halo 3 game or internet porn surfing.-- Door to the bathroom did not shut properly.  When it's business time I like a little privacy.  Fix the doors please.Full disclosure:  I am a Marriott Elite Rewards member and stay at Marriott properties whenever I can.  That being said, I will NEVER stay at this hotel again.  It was easily the worst experience we have had at a Marriott property.  I contacted the Mgmt and they were to give me some additional rewards points.  Like all things at this property, it was not taken care of and it's been over a month now.  Oh well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Ron W, General Manager at Residence Inn Dallas DFW Airport North/Irving, responded to this reviewResponded January 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is located right near the airport.  You are going to hear noise.
+Negatives:
+-- Upon entering the room, the temp inside the room was 62 degrees.  It was 30 degrees outside.  When you are giving out rooms, please ensure it's at an acceptable temp level.  It took a couple of hours for the room to be tolerable.  
+-- No coffee pot in the room.  All of the ingredients were there but no coffee pot.  We asked twice, left a note but never received copy. 
+-- Card readers on the doors do not work properly.  We were told of the "secret maneuver" to make them work by the front office desk staff.  Fix the readers please.
+-- Front office desk was poorly dressed:  he had rips tears in his shirt and was not professional in dealing with us at all.  I think we interrupted him from his Halo 3 game or internet porn surfing.
+-- Door to the bathroom did not shut properly.  When it's business time I like a little privacy.  Fix the doors please.
+Full disclosure:  I am a Marriott Elite Rewards member and stay at Marriott properties whenever I can.  That being said, I will NEVER stay at this hotel again.  It was easily the worst experience we have had at a Marriott property.  I contacted the Mgmt and they were to give me some additional rewards points.  Like all things at this property, it was...The hotel is located right near the airport.  You are going to hear noise.Negatives:-- Upon entering the room, the temp inside the room was 62 degrees.  It was 30 degrees outside.  When you are giving out rooms, please ensure it's at an acceptable temp level.  It took a couple of hours for the room to be tolerable.  -- No coffee pot in the room.  All of the ingredients were there but no coffee pot.  We asked twice, left a note but never received copy. -- Card readers on the doors do not work properly.  We were told of the "secret maneuver" to make them work by the front office desk staff.  Fix the readers please.-- Front office desk was poorly dressed:  he had rips tears in his shirt and was not professional in dealing with us at all.  I think we interrupted him from his Halo 3 game or internet porn surfing.-- Door to the bathroom did not shut properly.  When it's business time I like a little privacy.  Fix the doors please.Full disclosure:  I am a Marriott Elite Rewards member and stay at Marriott properties whenever I can.  That being said, I will NEVER stay at this hotel again.  It was easily the worst experience we have had at a Marriott property.  I contacted the Mgmt and they were to give me some additional rewards points.  Like all things at this property, it was not taken care of and it's been over a month now.  Oh well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r187108182-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>187108182</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>Take it or leave it</t>
+  </si>
+  <si>
+    <t>By location I knew that the aircraft noise would be an issue, didn't know that the sub par construction helped make it worse.  This hotel needs a complete overhaul.  The staff was hit or miss and in a power outage, there is no standby gen for this property.  The panty was bare and poorly stocked for the over 5 days stayed there (and yes, comments were made and zero done about it)You will need a car, van service is spotty and might not be "available" at their discretion, which means without notice. Over all, I'll find another hotel to stay at next time.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r185244358-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1017,15 +1493,9 @@
     <t>If you want to stay close to the airport and like a larger room with a kitchen,  this is a great hotel to stay at.  The rooms are very good size and have a full kitchen.  Staff was very friendly.  Very good breakfast included each day.   My family and friends stayed here for long weekend and it was a great location to get on the freeway to get to our site seeing spots.  It is close to the airport so during the day you do have planes flying over that are loud, but we were only around during the day for an hour or so, so this wasn't a big deal.  Didn't hear any planes at night so sleeping wasn't affected.  Beds are very comfortable.  Only slight minus is it is located in an office park and there are no restaurants near by.  (the good thing about being in an office park is on the weekend there is no traffic!)  But we found good restaurants about 10 minutes away so that's why it's only a slight minus.  I've been to other Residence Inns and have had good experiences at all of them..MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>If you want to stay close to the airport and like a larger room with a kitchen,  this is a great hotel to stay at.  The rooms are very good size and have a full kitchen.  Staff was very friendly.  Very good breakfast included each day.   My family and friends stayed here for long weekend and it was a great location to get on the freeway to get to our site seeing spots.  It is close to the airport so during the day you do have planes flying over that are loud, but we were only around during the day for an hour or so, so this wasn't a big deal.  Didn't hear any planes at night so sleeping wasn't affected.  Beds are very comfortable.  Only slight minus is it is located in an office park and there are no restaurants near by.  (the good thing about being in an office park is on the weekend there is no traffic!)  But we found good restaurants about 10 minutes away so that's why it's only a slight minus.  I've been to other Residence Inns and have had good experiences at all of them..More</t>
   </si>
   <si>
-    <t>Glenn S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r185193458-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1041,9 +1511,6 @@
     <t>This is a sub-par Residnce Inn.  Been to many over the years of travel/moving and this is way below Marriott's standard.  First, the kitchen is not well eqipped...two forks?!  4 small juice glasses, no can opener, or toaster!?  No kitchen towels or clothes. Min. amount of cleaning daily...and it's only me in this place, so it's not that dirty.  No vacumn in 5 days now....outside the entry door - garagbe still sits full sice bieng here 5 days.  Breakfast is nothing special...watery powered eggs, and rubber ham slices! MMMM.Price is okay...if you wanted something corrected you have to tell the front desk.  Things that should be corrected by staff or seen daily by staff to be done, like cleaning the hall floors and carpets, trash, main entry door windows cleaned...this shold be done automatically, not to brought to the attention of the front desk.More</t>
   </si>
   <si>
-    <t>olis-propolis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r174244420-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1065,7 +1532,40 @@
     <t>The hotel is located very close to the DFW airport - about 15 minutes. You can hear airplanes all day long through closed windows.There is nothing to do around the hotel.I was very surprised that after check in nobody means to escort me to the room and i have to walk an hour to find my room ( in another building).The pool is for kids and there is no shade at all.The furniture in the room was from my grandma's youth so i was shocked. Although the bed was very good.The breakfast is very poor, no fruits, no vegetables, every day all the same.No complaints about house keeping service- all was very good (in fact they ask to save resources  so i didn't ask to change towels or sheets during 1 week).When leaving i still was expecting mail to arrive so i asked at reception to decline all incoming packages - which wasn't done and they accepted my mail. This shows their "good" service and attention to the guests.More</t>
   </si>
   <si>
-    <t>Josh L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r167778450-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>167778450</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>I wish I could take this hotel with me</t>
+  </si>
+  <si>
+    <t>I love this hotel.  The room is fantastic.  The bed is very comfortable with 5 pillows to choose from that are different.  The bed is medium firmness so just right for me, not too hard.  There is a desk to work on and best of all, a small kitchen with a breakfast bar.  The room has plenty of space.  I like the shower with the shower massager.  And the breakfast is good - real eggs, hash browns, biscuits and gravy, sausage, fruit, oatmeal, walnuts, and more.  The staff is friendly and helpful.  The hotel is very quiet even though it is near the airport, about 12 min. away.  It's in a business area.  Restaurants are about 5 to 10 min. away with lots of choices.  And the price on the weekend was great.  I have my Reiki class here three times a year and it works out great for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I love this hotel.  The room is fantastic.  The bed is very comfortable with 5 pillows to choose from that are different.  The bed is medium firmness so just right for me, not too hard.  There is a desk to work on and best of all, a small kitchen with a breakfast bar.  The room has plenty of space.  I like the shower with the shower massager.  And the breakfast is good - real eggs, hash browns, biscuits and gravy, sausage, fruit, oatmeal, walnuts, and more.  The staff is friendly and helpful.  The hotel is very quiet even though it is near the airport, about 12 min. away.  It's in a business area.  Restaurants are about 5 to 10 min. away with lots of choices.  And the price on the weekend was great.  I have my Reiki class here three times a year and it works out great for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r167332824-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>167332824</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Nice stay, friendly staff, quiet</t>
+  </si>
+  <si>
+    <t>Stayed here on a trip for work based on location.  I'd give this 3.5 circles. Easy access in and out for location and for dinner as there is not much in the immediate area other than other hotels and Denny's so you will need to drive.  Convenient to DFW.  Front desk staff and breakfast staff were welcoming and pleasant.  Usual Residence Inn breakfast fare.  Small workout space and decent pool.  Hot tub wasn't working. Third Residence Inn in a row where this is an occurrence.  Having the extra room space over the box hotels is good.  Room was quiet.  No jet noise.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r160326317-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1097,9 +1597,6 @@
 The suite is one large room - not separate bedroom/living area.  Enter with the kitchen on the left and looking straight into the living room.  2 large windows...I spent 4 nights here because of it's proximity to my work assignment at DFW.  Breakfast and  dinner buffets are included but were not to my liking.  The first breakfast I had was the last and I passed through each dinner buffet - on the way out to dinner.All the employees I encountered - shuttle drivers, desk managers, porters, cooks and landscapers - were very friendly and helpful.  This is a fairly new 3 story building, very clean and well maintained inside and out.   In the courtyard there's a barbecue grill, outdoor sofa and chairs, pool, and basketball half-court.  All these facilities look brand new.  The telltale evidence is in the carpeting, especially on the stairs.  That is where the hotel is showing it's age.  But this is not a deal-breaker.The suite kitchens are compact and well-designed with 2 burner gas stove, microwave oven, coffee machine, refrigerator and dish washer.  There are enough dishes, glasses and utensils for one person's daily needs.  There was plenty of kitchen cabinet space in case I had done grocery shopping.  Actually the hotel will handle the grocery shopping for you. If you give them a list in the morning the items will be ready later that day and the amount added to your bill.The suite is one large room - not separate bedroom/living area.  Enter with the kitchen on the left and looking straight into the living room.  2 large windows light up the room.  There's a desk with data-ports for quick business or work set up on the right. 2 steps into the suite you can see the queen size bed on the left.  The closet and bathroom are out-of-view until you reach the bed. The toilet/shower room is a straight line from the bed, past the bathroom sink and full closet.The bed was very comfortable and 4 small pillows make it easy to get the sleeping, reading or TV-watching angle that is most comfortable.The bathroom was perfectly clean and kept well stocked.  The shower was excellent, extra large, great shower head and a curtain that was actually large enough.I was disappointed that the "Market Room" where the hotel normally sells sundries and travel-sizes, was not well stocked.  I was also not happy to have to drive over a mile to the nearest off-property restaurant. Overall a nice place to stay as long as good food is a requirement.More</t>
   </si>
   <si>
-    <t>Michiganuncledoug</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r160000382-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1116,9 +1613,6 @@
   </si>
   <si>
     <t>April 2013</t>
-  </si>
-  <si>
-    <t>MikeThePilgrim</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r157621834-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1154,7 +1648,40 @@
 On a positive note, the bed was quite comfortable with plenty of pillows, and the shower had good pressure and plenty of hot water. The...I stayed at this hotel for one week, and my review is based on my daily experiences. This hotel is very close to the airport with quick and easy access to I-635, TX 114, and TX 161. It is also very quick and convenient to get to the Los Colinas business district. The hotel really is centrally located in the DFW metroplex.STAFF MEMBERS:Out of several interactions with staff members, only one worker was pleasant and professional. He literally went out of his way to be of service. The rest of the staff left a lot to be desired as they were very curt, and at times, blatantly rude.HOTEL ROOM:My room (a 1 bedroom suite with living room and kitchen) was nice enough and met all basic needs. The bedroom and bathroom were clean, however, the living room had not been cleaned very well (there was a little bit of trash and a soda lid on the floor) and neither had the kitchen. The table had a food residue on it (which easily came off when I used a clean rag), and several of the dishes had not been cleaned. Also, the few dishes in the cupboard were VERY basic and quite old. Several of the cooking utensils were beginning to rust.On a positive note, the bed was quite comfortable with plenty of pillows, and the shower had good pressure and plenty of hot water. The room had lots of available lighting and did not feel dark or dingy. I did not hear very much noise from any other guests. In fact, I would say that my entire stay was very quiet and calm.IMPORTANT NOTE:This hotel is DIRECTLY under the flight path for planes landing on 17L at DFW (or taking off on 35R). The landing/takeoff noise starts around 6:45am and doesn't really taper off until about 11pm. When the larger planes are landing, you can quite literally feel the noise.SUMMARY:If you are looking for a basic hotel that offers a small kitchenette and is conveniently located close to the DFW airport, this would be a good choice. With some staff attitude adjustments, better cleaning, and better kitchenware, I would have happily given it a higher rating.More</t>
   </si>
   <si>
-    <t>HotWingsDotCom</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r155692609-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>155692609</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>more than adequate</t>
+  </si>
+  <si>
+    <t>We knew that the drive of 25 miles through heavy construction from Fort Worth to a birthday party at an Irving Country Club was perilous. Not wanting to make the return trip after the party, we decided to check out Priceline.com. We got a very spacious room just a short hop away from the party on low-traffic streets. The room had a queen bed and a fold-out couch for $60. It was well worth the money!They put us close to the lobby (liked that); so we just took a very short trip to the breakfast which was very good. Excellent assortment of pastries, juices, milk, pancakes, eggs and sausage, biscuits and gravy......all very good. All was very clean and the staff was quite helpful and courteous. The drive back home was so easy on a Sunday morning compared to what it is like on Saturday night....we were so glad we stayed at the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We knew that the drive of 25 miles through heavy construction from Fort Worth to a birthday party at an Irving Country Club was perilous. Not wanting to make the return trip after the party, we decided to check out Priceline.com. We got a very spacious room just a short hop away from the party on low-traffic streets. The room had a queen bed and a fold-out couch for $60. It was well worth the money!They put us close to the lobby (liked that); so we just took a very short trip to the breakfast which was very good. Excellent assortment of pastries, juices, milk, pancakes, eggs and sausage, biscuits and gravy......all very good. All was very clean and the staff was quite helpful and courteous. The drive back home was so easy on a Sunday morning compared to what it is like on Saturday night....we were so glad we stayed at the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r154634330-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>154634330</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Staff Makes It Worth it!</t>
+  </si>
+  <si>
+    <t>I was stranded at the airport for a night and chose this location.  Despite a terrible flight experience and challenges with the hotel shuttle ending too early, the staff more than made up for my frustrations - They CARED about the problems, took care of me with genuine concern, and went above and beyond the call of duty.  I had a super early morning flight and the shuttle was not running - but because there were 4 of us, they chose to actually run an early shuttle.  In this day and age, I will take a slightly older hotel with a staff that cares over a brand new room anyday!  The one caution I would offer is that this hotel has two seperate buildings, one for the office and breakfast and a second for rooms - so you do have to go outside to get to your room.  Not my favorite situation but I promise I will return here anytime I have a night at the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was stranded at the airport for a night and chose this location.  Despite a terrible flight experience and challenges with the hotel shuttle ending too early, the staff more than made up for my frustrations - They CARED about the problems, took care of me with genuine concern, and went above and beyond the call of duty.  I had a super early morning flight and the shuttle was not running - but because there were 4 of us, they chose to actually run an early shuttle.  In this day and age, I will take a slightly older hotel with a staff that cares over a brand new room anyday!  The one caution I would offer is that this hotel has two seperate buildings, one for the office and breakfast and a second for rooms - so you do have to go outside to get to your room.  Not my favorite situation but I promise I will return here anytime I have a night at the airport.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r154120333-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1175,9 +1702,6 @@
     <t>My colleagues &amp; I have often stayed here on business trip but I think it's time this place gets a major facelift.  Room carpeting needs to be changed, bathroom sink drains very slowly as well as the bathtub.  I came back to my room one afternoon during lunch and found my room half made with all my pillows scattered on the floor. It just makes me wonder how often the pillows get changed if they're being thrown on the floor by housekeeping.  Breakfast menu also needs to be updated. Same boring breakfast menu is served everyday. Please add some strawberry jelly also and bacon.  I consider this entity a sub par status for a Marriott brand hotel!!!More</t>
   </si>
   <si>
-    <t>R W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r153565952-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1199,9 +1723,6 @@
     <t>Stayed here at the last minute after crappy American Airlines couldn't find a pilot for our flight.  Aa offered vouchers to a motel 6 and a Ramada but knowing what I know about this area, there's no way I'm spending even a free night there. So I took a shot with paying for the residence inn.  All we needed was a comfy bed and a shower.  Shower was a little run down, but other than that, we were too tired to notice anything to not like.  It was comfortable and that's all I needed.  Alas, in and around DFW airport is not the best neighborhoods but it sufficed...kudos though too the night girl at the front desk and the shuttle to the airport.  Nice parts to the place.More</t>
   </si>
   <si>
-    <t>rjohns13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r153071063-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1217,6 +1738,42 @@
     <t>This place is in serious need of renovation. Torn carpets, tack strips showing, old caulking three or four layers deep, same breakfast menu daily. Staff is OK but often rooms are not cleaned promptly for those already staying.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r151256853-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>151256853</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>A good stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 weeks. Generally you get what they offer! Very comfortable and spacious room. Free internet and breakfast and shuttle to anywhere within 5 miles of the hotel.The restaurant food in the hotel was generally very good.In house launderette(nice and clean) was very handy.The hotel is well run and the room was impeccably clean.Small niggles here and there are inevitable over 3 weeks, but I will go back without a doubt.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r145818469-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>145818469</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>Past Resident Trash</t>
+  </si>
+  <si>
+    <t>One thing I cannot abide is a place that has obviously been glossed over and not cleaned. We found a dirty sock under a chair. Trash under the bedside table. A set of earphones hanging off the bedside lamp.  The front desk staff were very cordial, but their cleaning staff needs lessons.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r143026358-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1238,9 +1795,6 @@
     <t>I stayed here for 6 weeks, during that stay they brought the bill a whole day early and then when I got back to the room at 5 PM, they said they had to 6 PM to clean it. That was in the middel of the week after being there for several weeks. I was told that was their policy. Internet is OK but not fast, business services are adequate but not good (very old computers). Breakfast is the same every day (there is a Denny's just down the street. Because of their policy regarding the late cleaning of the rooms I could not recommend this hotel for business purposes.More</t>
   </si>
   <si>
-    <t>lovestocruise1998</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r136129176-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1262,9 +1816,6 @@
     <t>We were promised a two bedroom suite would be ready for us at 3 pm. We got there close to 3:45 and the room was not ready. We were told it would be ready in 15 minutes. We waited 15 minutes in the room and it was more like 25 minutes before anyone got there to even start cleaning. The room was a mess, the pillows were thrown on the floor. Trash was everywhere. I complained to the front desk and was given 2 nice rooms instead. We are Marriott Rewards members, stay at Marriott's all over the country and I do not expect to have cleanliness and tardiness an issue.  Again, check the room for problems before you settle in.More</t>
   </si>
   <si>
-    <t>jackiesamy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r134061015-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1283,7 +1834,40 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>MDKIII</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r132385378-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>132385378</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Good location, nice hotel</t>
+  </si>
+  <si>
+    <t>Good location and quiet and pleasent restful place. We stayed there for two nights and were impressed how quiet and peacefull place is. Room was clean and cool. Everything was arrainged to make sure we are comfortable. Matresses are bad they have huge indentations so they needs to be turned regularly, my back was killing me after first night.Front lobby needs to have a bottled water in stock and breakfast needs to be improved, food is really really bad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r131099817-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>131099817</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>My favorite place to stay near DFW</t>
+  </si>
+  <si>
+    <t>I often travel to DFW for business.   I've stayed at numerous hotels in the area over the years and have found this hotel to be my favorite overall.  First it's very close to the middle of the airport where I work so it's easy to commute back and forth.  Second and perhaps most importantly...it's very quiet considering its proximity to the airport.   Sure you hear a plane go overhead once in a while....but I rarely hear anything else of any significance.   It's so quiet at times I have to wonder if anyone is checked into the adjoining rooms.  The internet is adequate, but could be faster.   The breakfast is consistently good...but could use a little more variation for long time stayers.  The evening snack and drinks are definitely a little subpar and could use some improvement.  The exercise room is on the small side for a Residence Inn, but is generally adequate.  My rooms have always been clean and comfortable and the staff always pleasant and attentive.  I just hope that my positive review doesn't fill them up so much that I can't get in the next time I'm in town!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I often travel to DFW for business.   I've stayed at numerous hotels in the area over the years and have found this hotel to be my favorite overall.  First it's very close to the middle of the airport where I work so it's easy to commute back and forth.  Second and perhaps most importantly...it's very quiet considering its proximity to the airport.   Sure you hear a plane go overhead once in a while....but I rarely hear anything else of any significance.   It's so quiet at times I have to wonder if anyone is checked into the adjoining rooms.  The internet is adequate, but could be faster.   The breakfast is consistently good...but could use a little more variation for long time stayers.  The evening snack and drinks are definitely a little subpar and could use some improvement.  The exercise room is on the small side for a Residence Inn, but is generally adequate.  My rooms have always been clean and comfortable and the staff always pleasant and attentive.  I just hope that my positive review doesn't fill them up so much that I can't get in the next time I'm in town!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r128404590-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1304,9 +1888,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>Stephanie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r127362393-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1325,9 +1906,6 @@
     <t>I got stranded in Dallas a few days ago when the tornadoes shut down the airport.  Every single staff member at this hotel was INCREDIBLY kind, positive, and on top of their game.  I was picked up within 20 minutes, even with all the chaos.  I got a great room, that was very comfortable, clean, and relieving after such a crazy day.  They let me check out late without an issue when my flight was cancelled (again) the next day and even went to the store to buy some contact solution for me.  They have a "social" every night with a little food, wine &amp; beer, which was a welcome respite.  I really can't say enough nice things about the service I received here!More</t>
   </si>
   <si>
-    <t>north2111</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r123327238-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1346,7 +1924,34 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>Brian B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r123000715-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>123000715</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>My wife and I spent two nights at this hotel. Suite was clean, bed is comfortable and clean. It was nice to have all you need right there in your room. Front desk Staff very friendly. Hot breakfast was very good. Coffee was excellent! I would highly recommend it. Stayed there to be at the Cotton Bowl (ARK vs Kansas State) our team won. Overall, it was a great experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r120775101-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>120775101</t>
+  </si>
+  <si>
+    <t>11/19/2011</t>
+  </si>
+  <si>
+    <t>Very nice hotel, needs better internet</t>
+  </si>
+  <si>
+    <t>I spent one week here for training for my job. Due to its secluded location (it's in the middle of a business park 1.5 miles from the closest restaurant), I would only recommend it for something like I had or for a quick overnight stay. But the hotel was very nice and clean, had a great continental breakfast, free social some nights during the week, and had a great staff. Very friendly and willing to assist. As others have pointed out, they do need to improve their internet, both wired and wireless. It sucked at peak times like 7pm but was still slow at midnight or 2pm.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r120595304-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1367,9 +1972,6 @@
     <t>November 2011</t>
   </si>
   <si>
-    <t>godfather24601</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r119996875-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1385,9 +1987,6 @@
     <t>We had a two bedroom suite with two baths that met our needs.  But this property needs some tender loving care.  The rooms and decor need updating and a complete scrub down. Noise level from airport not too much of an issue. We suggest elsewhere until property upgraded.</t>
   </si>
   <si>
-    <t>1Gman1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r117906787-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1409,7 +2008,40 @@
     <t>This was a brief, overnight stay as I arrived from the airport after 11:00 pm and was out of the hotel by 7:30am.  The room itself was your typical, well appointed suite that you would expect from Residence Inn.  The front desk staff was very friendly and helpful at check-in and check-out.  Breakfast had the usual fare with scrambled eggs, sausage, cereals, muffins, coffee, juices, etc.There are several opportunities for improvement at the hotel.  As another reviewer noted, the internet is slow, even when I was accessing it at midnight.  The room was missing an iron and ironing board, which was quickly delivered upon request.  The iron leaked water and I needed to push the reset button repeatedly in order to keep it on.  The shower in the morning was tepid at best which I thought was unusual to run low of hot water at 6:30 in the morning.  What really needs to be addressed is the very rancid odor in the hallways.  The good news is that it is not noticeable in the suite.I asked at check-out about who managed the hotel and the front desk noted it was Interstate Hotels.  I know that Interstate is one of the largest hotel management companies and going through a significant period of growth.  As such, I would hope they do not stretch their staff too thin that they lose sight of the small details.More</t>
   </si>
   <si>
-    <t>MikeWalshIII</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r117562929-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>117562929</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>TEXAS SIZE hospitality</t>
+  </si>
+  <si>
+    <t>typical residence inn stay everything from check in to hotel shuttle return to the airport was fantastic, front desk staff remarkable. at the evening social had the pleasure of meeting the hostess Karen great attitude smile and disposition. within 5 minute walk fuddruckers and whataburger. across the street grapevine mills (mall) with plenty of surrounding eateries. came down for coffee and newspaper  around 10a over slept breakfast which ended at 9:30a too my surprise and luck there was Karen who offered me breakfast said it was still available an offered me oatmeal from the back. just want to say thanks Karen to you and the rest of the staff for a great stay  sorry i didn't get their names. it was a dark haired lady at check in who was full of information what a staff what a stay. rooms were greatMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>typical residence inn stay everything from check in to hotel shuttle return to the airport was fantastic, front desk staff remarkable. at the evening social had the pleasure of meeting the hostess Karen great attitude smile and disposition. within 5 minute walk fuddruckers and whataburger. across the street grapevine mills (mall) with plenty of surrounding eateries. came down for coffee and newspaper  around 10a over slept breakfast which ended at 9:30a too my surprise and luck there was Karen who offered me breakfast said it was still available an offered me oatmeal from the back. just want to say thanks Karen to you and the rest of the staff for a great stay  sorry i didn't get their names. it was a dark haired lady at check in who was full of information what a staff what a stay. rooms were greatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r117023398-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>117023398</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>Not a good place for a business traveler if you need internet access</t>
+  </si>
+  <si>
+    <t>When I travel on business, I need to be able to get work done from the hotel.  Internet service at this hotel was free, but it might as well have been non-existent.  I called the front desk and they transferred me to their internet company.  The rep told me that the hotel purposely limited the access for each guest to 384K.  That's right, 384K and it was pitiful.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r116307104-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1430,9 +2062,6 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>Salesgrok</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r84839704-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1454,9 +2083,6 @@
     <t>Over the years, Marriott has won my confidence with consistent, high quality properties. This hotel should not be part of the Marriott family. The hotel was understaffed across the board from check-in to housekeeping. The first room they checked me into had ripped carpet and smelled of cat urine. After waiting thru 5 other patrons with the one lady checking people in, they checked me into another room that was devoid of towels. The quality of the room was more like a Clarion or Motel 6...at double the price. So decided to go to the pool to unwind and was met with unleashed dogs running around and a broken hot tub. Called someone to fix the situation, called again, called again...then gave up. Glad I brought my WIFI card because their wireless web was down!!The only good thing was the kitchen staff - very helpful and polite. Other than that, do yourself a favor and avoid this hotel...it's not worth more than $100 per night.More</t>
   </si>
   <si>
-    <t>selford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r80592135-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1475,7 +2101,46 @@
     <t>July 2010</t>
   </si>
   <si>
-    <t>mvprime21</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r29871249-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>29871249</t>
+  </si>
+  <si>
+    <t>05/12/2009</t>
+  </si>
+  <si>
+    <t>Great Hotel! Marriott Standards 100%</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights while at a convention, Great Rate and Great Location....Its quiet and nothing is around it but you can drive a few miles up the highway and you have all the stores and shops you can handle and you can drive 5 minutes the other way and be at your airport gate! The room was a great 1 bedroom suite, it is obvious they recently remodeled. Flat screen tv's in the bedroom and living room, lots of space, a full use kitchen! I couldnt ask for anything more! Breakfast was simple but filling {Can't go wrong with a waffle maker!}. Business Center was fast and usable 24hrs a day, There is a small area by the front desk where you can pick up some frozen foods or ice cream and charge it to the room. This was nice and the prices were reasonable. One thing I loved....LOVED more than anything. I put my do not disturb sign on the door and the maids left me clean towels and new toiletries at the door. No one ever does that and I loved it! One thing that annoyed me though and the only reason I moved this from a 5 star to a 4 star. I had my do not disturb sign on and the maintenance opened the door and tried to come in , I had it bolted so they just made a bunch of noise...I stayed here for 3 nights while at a convention, Great Rate and Great Location....Its quiet and nothing is around it but you can drive a few miles up the highway and you have all the stores and shops you can handle and you can drive 5 minutes the other way and be at your airport gate! The room was a great 1 bedroom suite, it is obvious they recently remodeled. Flat screen tv's in the bedroom and living room, lots of space, a full use kitchen! I couldnt ask for anything more! Breakfast was simple but filling {Can't go wrong with a waffle maker!}. Business Center was fast and usable 24hrs a day, There is a small area by the front desk where you can pick up some frozen foods or ice cream and charge it to the room. This was nice and the prices were reasonable. One thing I loved....LOVED more than anything. I put my do not disturb sign on the door and the maids left me clean towels and new toiletries at the door. No one ever does that and I loved it! One thing that annoyed me though and the only reason I moved this from a 5 star to a 4 star. I had my do not disturb sign on and the maintenance opened the door and tried to come in , I had it bolted so they just made a bunch of noise and freaked us out. They apologized but still it was very uncalled for.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights while at a convention, Great Rate and Great Location....Its quiet and nothing is around it but you can drive a few miles up the highway and you have all the stores and shops you can handle and you can drive 5 minutes the other way and be at your airport gate! The room was a great 1 bedroom suite, it is obvious they recently remodeled. Flat screen tv's in the bedroom and living room, lots of space, a full use kitchen! I couldnt ask for anything more! Breakfast was simple but filling {Can't go wrong with a waffle maker!}. Business Center was fast and usable 24hrs a day, There is a small area by the front desk where you can pick up some frozen foods or ice cream and charge it to the room. This was nice and the prices were reasonable. One thing I loved....LOVED more than anything. I put my do not disturb sign on the door and the maids left me clean towels and new toiletries at the door. No one ever does that and I loved it! One thing that annoyed me though and the only reason I moved this from a 5 star to a 4 star. I had my do not disturb sign on and the maintenance opened the door and tried to come in , I had it bolted so they just made a bunch of noise...I stayed here for 3 nights while at a convention, Great Rate and Great Location....Its quiet and nothing is around it but you can drive a few miles up the highway and you have all the stores and shops you can handle and you can drive 5 minutes the other way and be at your airport gate! The room was a great 1 bedroom suite, it is obvious they recently remodeled. Flat screen tv's in the bedroom and living room, lots of space, a full use kitchen! I couldnt ask for anything more! Breakfast was simple but filling {Can't go wrong with a waffle maker!}. Business Center was fast and usable 24hrs a day, There is a small area by the front desk where you can pick up some frozen foods or ice cream and charge it to the room. This was nice and the prices were reasonable. One thing I loved....LOVED more than anything. I put my do not disturb sign on the door and the maids left me clean towels and new toiletries at the door. No one ever does that and I loved it! One thing that annoyed me though and the only reason I moved this from a 5 star to a 4 star. I had my do not disturb sign on and the maintenance opened the door and tried to come in , I had it bolted so they just made a bunch of noise and freaked us out. They apologized but still it was very uncalled for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r19865548-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>19865548</t>
+  </si>
+  <si>
+    <t>09/07/2008</t>
+  </si>
+  <si>
+    <t>Stay here, I'm glad I did.</t>
+  </si>
+  <si>
+    <t>I stayed here back in June and I have to say, I was pleasantly surprised.  I'm a big fan of the Residence Inn brand and love the spacious suites, but the service I received there was above all expecations.   They anticipated my every need and went above and beyond to make my stay most pleasurable.  I was there on business and stayed 3 days; the complimentary high speed internet made all the difference.  I was not able to take advantage of the breakfast each morning but did see it was stocked full of goodies.  I was able to enjoy the social hour a couple of nights and it was nice being able to meet other travelers from all over...If you're in the Dallas area, especially on business, stay here....You will be glad you did.  I will definitely stay here when I am in Dallas again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>I stayed here back in June and I have to say, I was pleasantly surprised.  I'm a big fan of the Residence Inn brand and love the spacious suites, but the service I received there was above all expecations.   They anticipated my every need and went above and beyond to make my stay most pleasurable.  I was there on business and stayed 3 days; the complimentary high speed internet made all the difference.  I was not able to take advantage of the breakfast each morning but did see it was stocked full of goodies.  I was able to enjoy the social hour a couple of nights and it was nice being able to meet other travelers from all over...If you're in the Dallas area, especially on business, stay here....You will be glad you did.  I will definitely stay here when I am in Dallas again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r6182666-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -1499,9 +2164,6 @@
     <t>This residence inn marriott DFW-North Irving is great. Its a very short 10 minute drive from the airport. This hotel is very well maintained. Looks and feels new... The rooms were VERY VERY clean and nice furniture, kitchens with everything you would ever need...Bed was perfect with nice linens. Outdoor pool/spa was very nice. Free breakfast (6:30-9am everyday) was above expectations. Your normal continental breakfast plus hot food (eggs, sausage, bacon, waffles)... Free coffee 24/7... They have a free "social hour" monday-thurs 5:30-7pm. which they have different foods each day... (example - lasagne/corn/salad one night). They also offer free soda, beer, wine. Very nice! Definately stay here if you are in the dallas area. And if you are a Cowboys fan, Texas stadium is only 10 mins away. downtown is approx 15mins.More</t>
   </si>
   <si>
-    <t>texasroseII</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r5703090-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1524,9 +2186,6 @@
   </si>
   <si>
     <t>Front desk assured me on the phone AND at check-in that I had a room facing the inside courtyard and not the street. Not so. It faces the street. There is no wireless internet in the rooms. I'm in a 2-bedroom suite with livingroom and kitchen. Out of all these rooms there is only one wired internet access. One. No others available. The sofa cushions are covered in splots of unknown liquids. Apparently no attempt has been made to clean them but someone did turn the worst sides down. Ugh. There are hairs on the bathroom floors. The shower has only a flimsy cloth curtain. No bathroom fan. There is no business center with internet access, fax or copier. You can use WI-FI if you'd like to work out in the breakfast room. Need I say more?More</t>
-  </si>
-  <si>
-    <t>Dragonfly972</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223937-r5033886-Residence_Inn_Dallas_DFW_Airport_North_Irving-Irving_Texas.html</t>
@@ -2052,321 +2711,287 @@
       <c r="A2" t="n">
         <v>41694</v>
       </c>
-      <c r="B2" t="n">
-        <v>175646</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41694</v>
       </c>
-      <c r="B3" t="n">
-        <v>175647</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41694</v>
       </c>
-      <c r="B4" t="n">
-        <v>175648</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41694</v>
       </c>
-      <c r="B5" t="n">
-        <v>175649</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41694</v>
       </c>
-      <c r="B6" t="n">
-        <v>175650</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>93</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2378,190 +3003,188 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41694</v>
       </c>
-      <c r="B7" t="n">
-        <v>175651</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41694</v>
       </c>
-      <c r="B8" t="n">
-        <v>175652</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41694</v>
       </c>
-      <c r="B9" t="n">
-        <v>175653</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2573,619 +3196,571 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41694</v>
       </c>
-      <c r="B10" t="n">
-        <v>175654</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="n">
         <v>3</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41694</v>
       </c>
-      <c r="B11" t="n">
-        <v>175655</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41694</v>
       </c>
-      <c r="B12" t="n">
-        <v>175656</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41694</v>
       </c>
-      <c r="B13" t="n">
-        <v>92265</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41694</v>
       </c>
-      <c r="B14" t="n">
-        <v>175657</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41694</v>
       </c>
-      <c r="B15" t="n">
-        <v>175658</v>
-      </c>
-      <c r="C15" t="s">
-        <v>176</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41694</v>
       </c>
-      <c r="B16" t="n">
-        <v>175659</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41694</v>
       </c>
-      <c r="B17" t="n">
-        <v>175660</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41694</v>
       </c>
-      <c r="B18" t="n">
-        <v>175661</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
@@ -3196,67 +3771,63 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41694</v>
       </c>
-      <c r="B19" t="n">
-        <v>175662</v>
-      </c>
-      <c r="C19" t="s">
-        <v>209</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -3265,131 +3836,117 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41694</v>
       </c>
-      <c r="B20" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C20" t="s">
-        <v>215</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="X20" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41694</v>
       </c>
-      <c r="B21" t="n">
-        <v>35966</v>
-      </c>
-      <c r="C21" t="s">
-        <v>225</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3401,258 +3958,262 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41694</v>
       </c>
-      <c r="B22" t="n">
-        <v>175663</v>
-      </c>
-      <c r="C22" t="s">
-        <v>235</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>224</v>
+      </c>
+      <c r="X22" t="s">
+        <v>225</v>
+      </c>
       <c r="Y22" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41694</v>
       </c>
-      <c r="B23" t="n">
-        <v>175664</v>
-      </c>
-      <c r="C23" t="s">
-        <v>242</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s">
+        <v>234</v>
+      </c>
       <c r="Y23" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41694</v>
       </c>
-      <c r="B24" t="n">
-        <v>1363</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41694</v>
       </c>
-      <c r="B25" t="n">
-        <v>175665</v>
-      </c>
-      <c r="C25" t="s">
-        <v>261</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3661,72 +4222,64 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="X25" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41694</v>
       </c>
-      <c r="B26" t="n">
-        <v>175666</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3736,286 +4289,258 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41694</v>
       </c>
-      <c r="B27" t="n">
-        <v>175667</v>
-      </c>
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
       <c r="Y27" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41694</v>
       </c>
-      <c r="B28" t="n">
-        <v>175668</v>
-      </c>
-      <c r="C28" t="s">
-        <v>286</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s">
+        <v>274</v>
+      </c>
       <c r="Y28" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41694</v>
       </c>
-      <c r="B29" t="n">
-        <v>6040</v>
-      </c>
-      <c r="C29" t="s">
-        <v>294</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>5</v>
       </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>282</v>
+      </c>
+      <c r="X29" t="s">
+        <v>283</v>
+      </c>
       <c r="Y29" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41694</v>
       </c>
-      <c r="B30" t="n">
-        <v>175669</v>
-      </c>
-      <c r="C30" t="s">
-        <v>301</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K30" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
         <v>4</v>
       </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -4023,712 +4548,640 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>290</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
       <c r="Y30" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41694</v>
       </c>
-      <c r="B31" t="n">
-        <v>175670</v>
-      </c>
-      <c r="C31" t="s">
-        <v>307</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J31" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="X31" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="Y31" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41694</v>
       </c>
-      <c r="B32" t="n">
-        <v>175671</v>
-      </c>
-      <c r="C32" t="s">
-        <v>317</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="O32" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>297</v>
+      </c>
+      <c r="X32" t="s">
+        <v>298</v>
+      </c>
       <c r="Y32" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41694</v>
       </c>
-      <c r="B33" t="n">
-        <v>13106</v>
-      </c>
-      <c r="C33" t="s">
-        <v>325</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
       <c r="Y33" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41694</v>
       </c>
-      <c r="B34" t="n">
-        <v>175672</v>
-      </c>
-      <c r="C34" t="s">
-        <v>331</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>317</v>
+      </c>
+      <c r="X34" t="s">
+        <v>318</v>
+      </c>
       <c r="Y34" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41694</v>
       </c>
-      <c r="B35" t="n">
-        <v>93172</v>
-      </c>
-      <c r="C35" t="s">
-        <v>339</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="n">
+        <v>326</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
       <c r="Y35" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41694</v>
       </c>
-      <c r="B36" t="n">
-        <v>175673</v>
-      </c>
-      <c r="C36" t="s">
-        <v>347</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s">
-        <v>83</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>335</v>
+      </c>
+      <c r="X36" t="s">
+        <v>336</v>
+      </c>
       <c r="Y36" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41694</v>
       </c>
-      <c r="B37" t="n">
-        <v>175674</v>
-      </c>
-      <c r="C37" t="s">
-        <v>354</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>344</v>
+      </c>
+      <c r="X37" t="s">
+        <v>345</v>
+      </c>
       <c r="Y37" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41694</v>
       </c>
-      <c r="B38" t="n">
-        <v>175675</v>
-      </c>
-      <c r="C38" t="s">
-        <v>362</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41694</v>
       </c>
-      <c r="B39" t="n">
-        <v>4995</v>
-      </c>
-      <c r="C39" t="s">
-        <v>369</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s">
-        <v>64</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41694</v>
       </c>
-      <c r="B40" t="n">
-        <v>175676</v>
-      </c>
-      <c r="C40" t="s">
-        <v>377</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>364</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>2</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4736,70 +5189,60 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41694</v>
       </c>
-      <c r="B41" t="n">
-        <v>175675</v>
-      </c>
-      <c r="C41" t="s">
-        <v>377</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>3</v>
       </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2</v>
-      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4807,135 +5250,115 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41694</v>
       </c>
-      <c r="B42" t="n">
-        <v>175677</v>
-      </c>
-      <c r="C42" t="s">
-        <v>390</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="J42" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="O42" t="s">
-        <v>83</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>377</v>
+      </c>
+      <c r="X42" t="s">
+        <v>378</v>
+      </c>
       <c r="Y42" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41694</v>
       </c>
-      <c r="B43" t="n">
-        <v>175678</v>
-      </c>
-      <c r="C43" t="s">
-        <v>398</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="J43" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -4946,137 +5369,123 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>377</v>
+      </c>
+      <c r="X43" t="s">
+        <v>378</v>
+      </c>
       <c r="Y43" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41694</v>
       </c>
-      <c r="B44" t="n">
-        <v>135849</v>
-      </c>
-      <c r="C44" t="s">
-        <v>405</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="J44" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>411</v>
-      </c>
-      <c r="O44" t="s">
-        <v>103</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>377</v>
+      </c>
+      <c r="X44" t="s">
+        <v>378</v>
+      </c>
       <c r="Y44" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41694</v>
       </c>
-      <c r="B45" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C45" t="s">
-        <v>412</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="J45" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="K45" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="O45" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5088,69 +5497,69 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>377</v>
+      </c>
+      <c r="X45" t="s">
+        <v>378</v>
+      </c>
       <c r="Y45" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41694</v>
       </c>
-      <c r="B46" t="n">
-        <v>175679</v>
-      </c>
-      <c r="C46" t="s">
-        <v>419</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="K46" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="L46" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="O46" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -5159,66 +5568,66 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>404</v>
+      </c>
+      <c r="X46" t="s">
+        <v>405</v>
+      </c>
       <c r="Y46" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41694</v>
       </c>
-      <c r="B47" t="n">
-        <v>6579</v>
-      </c>
-      <c r="C47" t="s">
-        <v>426</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="J47" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="K47" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="O47" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5233,66 +5642,66 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41694</v>
       </c>
-      <c r="B48" t="n">
-        <v>175680</v>
-      </c>
-      <c r="C48" t="s">
-        <v>433</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="J48" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>419</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5300,127 +5709,117 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41694</v>
       </c>
-      <c r="B49" t="n">
-        <v>175681</v>
-      </c>
-      <c r="C49" t="s">
-        <v>439</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="J49" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="K49" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="L49" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41694</v>
       </c>
-      <c r="B50" t="n">
-        <v>175682</v>
-      </c>
-      <c r="C50" t="s">
-        <v>447</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="J50" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="K50" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="L50" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
       <c r="S50" t="n">
         <v>5</v>
       </c>
@@ -5434,70 +5833,66 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41694</v>
       </c>
-      <c r="B51" t="n">
-        <v>175683</v>
-      </c>
-      <c r="C51" t="s">
-        <v>454</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5505,63 +5900,59 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41694</v>
       </c>
-      <c r="B52" t="n">
-        <v>175684</v>
-      </c>
-      <c r="C52" t="s">
-        <v>462</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="J52" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="K52" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
         <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5576,66 +5967,62 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41694</v>
       </c>
-      <c r="B53" t="n">
-        <v>175685</v>
-      </c>
-      <c r="C53" t="s">
-        <v>469</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="K53" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O53" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
@@ -5644,144 +6031,2652 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>450</v>
+      </c>
+      <c r="X53" t="s">
+        <v>451</v>
+      </c>
       <c r="Y53" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41694</v>
       </c>
-      <c r="B54" t="n">
-        <v>175686</v>
-      </c>
-      <c r="C54" t="s">
-        <v>477</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>458</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
         <v>1</v>
       </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="X54" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="Y54" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41694</v>
       </c>
-      <c r="B55" t="n">
-        <v>175687</v>
-      </c>
-      <c r="C55" t="s">
-        <v>486</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
+        <v>462</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>463</v>
+      </c>
+      <c r="J55" t="s">
+        <v>464</v>
+      </c>
+      <c r="K55" t="s">
+        <v>465</v>
+      </c>
+      <c r="L55" t="s">
+        <v>466</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>467</v>
+      </c>
+      <c r="O55" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>468</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>469</v>
+      </c>
+      <c r="J56" t="s">
+        <v>470</v>
+      </c>
+      <c r="K56" t="s">
+        <v>471</v>
+      </c>
+      <c r="L56" t="s">
+        <v>472</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>458</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>474</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>475</v>
+      </c>
+      <c r="J57" t="s">
+        <v>470</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>480</v>
+      </c>
+      <c r="J58" t="s">
+        <v>481</v>
+      </c>
+      <c r="K58" t="s">
+        <v>482</v>
+      </c>
+      <c r="L58" t="s">
+        <v>483</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>484</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>486</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
         <v>487</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J59" t="s">
         <v>488</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K59" t="s">
         <v>489</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L59" t="s">
         <v>490</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
         <v>491</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>493</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>494</v>
+      </c>
+      <c r="J60" t="s">
+        <v>495</v>
+      </c>
+      <c r="K60" t="s">
+        <v>496</v>
+      </c>
+      <c r="L60" t="s">
+        <v>497</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>491</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>498</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>499</v>
+      </c>
+      <c r="J61" t="s">
+        <v>500</v>
+      </c>
+      <c r="K61" t="s">
+        <v>501</v>
+      </c>
+      <c r="L61" t="s">
+        <v>502</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>503</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>505</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>506</v>
+      </c>
+      <c r="J62" t="s">
+        <v>507</v>
+      </c>
+      <c r="K62" t="s">
+        <v>508</v>
+      </c>
+      <c r="L62" t="s">
+        <v>509</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>510</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>516</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>518</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>519</v>
+      </c>
+      <c r="J64" t="s">
+        <v>520</v>
+      </c>
+      <c r="K64" t="s">
+        <v>521</v>
+      </c>
+      <c r="L64" t="s">
+        <v>522</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>516</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>527</v>
+      </c>
+      <c r="L65" t="s">
+        <v>528</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>516</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>530</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>531</v>
+      </c>
+      <c r="J66" t="s">
+        <v>532</v>
+      </c>
+      <c r="K66" t="s">
+        <v>533</v>
+      </c>
+      <c r="L66" t="s">
+        <v>534</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>516</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67" t="s">
+        <v>538</v>
+      </c>
+      <c r="K67" t="s">
+        <v>539</v>
+      </c>
+      <c r="L67" t="s">
+        <v>540</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>541</v>
+      </c>
+      <c r="O67" t="s">
+        <v>97</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
         <v>1</v>
       </c>
-      <c r="N55" t="s">
-        <v>492</v>
-      </c>
-      <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>544</v>
+      </c>
+      <c r="J68" t="s">
+        <v>545</v>
+      </c>
+      <c r="K68" t="s">
+        <v>546</v>
+      </c>
+      <c r="L68" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>548</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>549</v>
+      </c>
+      <c r="J69" t="s">
+        <v>550</v>
+      </c>
+      <c r="K69" t="s">
+        <v>551</v>
+      </c>
+      <c r="L69" t="s">
+        <v>552</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>553</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>554</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>555</v>
+      </c>
+      <c r="J70" t="s">
+        <v>556</v>
+      </c>
+      <c r="K70" t="s">
+        <v>557</v>
+      </c>
+      <c r="L70" t="s">
+        <v>558</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>559</v>
+      </c>
+      <c r="O70" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
         <v>1</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>561</v>
+      </c>
+      <c r="J71" t="s">
+        <v>562</v>
+      </c>
+      <c r="K71" t="s">
+        <v>563</v>
+      </c>
+      <c r="L71" t="s">
+        <v>564</v>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
-      <c r="R55" t="s"/>
-      <c r="S55" t="n">
+      <c r="N71" t="s">
+        <v>565</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
         <v>1</v>
       </c>
-      <c r="T55" t="s"/>
-      <c r="U55" t="n">
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>567</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>568</v>
+      </c>
+      <c r="J72" t="s">
+        <v>569</v>
+      </c>
+      <c r="K72" t="s">
+        <v>570</v>
+      </c>
+      <c r="L72" t="s">
+        <v>571</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>572</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>574</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>575</v>
+      </c>
+      <c r="J73" t="s">
+        <v>576</v>
+      </c>
+      <c r="K73" t="s">
+        <v>577</v>
+      </c>
+      <c r="L73" t="s">
+        <v>578</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>579</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>580</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>581</v>
+      </c>
+      <c r="J74" t="s">
+        <v>582</v>
+      </c>
+      <c r="K74" t="s">
+        <v>583</v>
+      </c>
+      <c r="L74" t="s">
+        <v>584</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>579</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>585</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>586</v>
+      </c>
+      <c r="J75" t="s">
+        <v>587</v>
+      </c>
+      <c r="K75" t="s">
+        <v>588</v>
+      </c>
+      <c r="L75" t="s">
+        <v>589</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>590</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>592</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>593</v>
+      </c>
+      <c r="J76" t="s">
+        <v>594</v>
+      </c>
+      <c r="K76" t="s">
+        <v>595</v>
+      </c>
+      <c r="L76" t="s">
+        <v>596</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>597</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" t="s">
+        <v>600</v>
+      </c>
+      <c r="K77" t="s">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>597</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>604</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>605</v>
+      </c>
+      <c r="J78" t="s">
+        <v>606</v>
+      </c>
+      <c r="K78" t="s">
+        <v>607</v>
+      </c>
+      <c r="L78" t="s">
+        <v>608</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>609</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>610</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>611</v>
+      </c>
+      <c r="J79" t="s">
+        <v>612</v>
+      </c>
+      <c r="K79" t="s">
+        <v>613</v>
+      </c>
+      <c r="L79" t="s">
+        <v>614</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>609</v>
+      </c>
+      <c r="O79" t="s">
+        <v>78</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>615</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>616</v>
+      </c>
+      <c r="J80" t="s">
+        <v>617</v>
+      </c>
+      <c r="K80" t="s">
+        <v>618</v>
+      </c>
+      <c r="L80" t="s">
+        <v>619</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>620</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>621</v>
+      </c>
+      <c r="J81" t="s">
+        <v>622</v>
+      </c>
+      <c r="K81" t="s">
+        <v>623</v>
+      </c>
+      <c r="L81" t="s">
+        <v>624</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>625</v>
+      </c>
+      <c r="O81" t="s">
+        <v>78</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>626</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>627</v>
+      </c>
+      <c r="J82" t="s">
+        <v>628</v>
+      </c>
+      <c r="K82" t="s">
+        <v>629</v>
+      </c>
+      <c r="L82" t="s">
+        <v>630</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>631</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>632</v>
+      </c>
+      <c r="J83" t="s">
+        <v>633</v>
+      </c>
+      <c r="K83" t="s">
+        <v>634</v>
+      </c>
+      <c r="L83" t="s">
+        <v>635</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>636</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>638</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>639</v>
+      </c>
+      <c r="J84" t="s">
+        <v>640</v>
+      </c>
+      <c r="K84" t="s">
+        <v>641</v>
+      </c>
+      <c r="L84" t="s">
+        <v>642</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>643</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>645</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>646</v>
+      </c>
+      <c r="J85" t="s">
+        <v>647</v>
+      </c>
+      <c r="K85" t="s">
+        <v>648</v>
+      </c>
+      <c r="L85" t="s">
+        <v>649</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>643</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
         <v>1</v>
       </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s">
-        <v>483</v>
-      </c>
-      <c r="X55" t="s">
-        <v>484</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>493</v>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>650</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>651</v>
+      </c>
+      <c r="J86" t="s">
+        <v>652</v>
+      </c>
+      <c r="K86" t="s">
+        <v>653</v>
+      </c>
+      <c r="L86" t="s">
+        <v>654</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>655</v>
+      </c>
+      <c r="O86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>656</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>657</v>
+      </c>
+      <c r="J87" t="s">
+        <v>658</v>
+      </c>
+      <c r="K87" t="s">
+        <v>659</v>
+      </c>
+      <c r="L87" t="s">
+        <v>660</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>661</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>663</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>664</v>
+      </c>
+      <c r="J88" t="s">
+        <v>665</v>
+      </c>
+      <c r="K88" t="s">
+        <v>666</v>
+      </c>
+      <c r="L88" t="s">
+        <v>667</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>668</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>669</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>670</v>
+      </c>
+      <c r="J89" t="s">
+        <v>671</v>
+      </c>
+      <c r="K89" t="s">
+        <v>672</v>
+      </c>
+      <c r="L89" t="s">
+        <v>673</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>674</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>676</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>677</v>
+      </c>
+      <c r="J90" t="s">
+        <v>678</v>
+      </c>
+      <c r="K90" t="s">
+        <v>679</v>
+      </c>
+      <c r="L90" t="s">
+        <v>680</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>681</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>683</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>684</v>
+      </c>
+      <c r="J91" t="s">
+        <v>685</v>
+      </c>
+      <c r="K91" t="s">
+        <v>686</v>
+      </c>
+      <c r="L91" t="s">
+        <v>687</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>688</v>
+      </c>
+      <c r="O91" t="s">
+        <v>326</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>690</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>691</v>
+      </c>
+      <c r="J92" t="s">
+        <v>692</v>
+      </c>
+      <c r="K92" t="s">
+        <v>693</v>
+      </c>
+      <c r="L92" t="s">
+        <v>694</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>695</v>
+      </c>
+      <c r="X92" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>41694</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>698</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>699</v>
+      </c>
+      <c r="J93" t="s">
+        <v>700</v>
+      </c>
+      <c r="K93" t="s">
+        <v>701</v>
+      </c>
+      <c r="L93" t="s">
+        <v>702</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>703</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>695</v>
+      </c>
+      <c r="X93" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
